--- a/boost/smuckers/resources/boltemplate.xlsx
+++ b/boost/smuckers/resources/boltemplate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">(Uniform Domestic Straight Bill of Lading adopted by Carriers in Official, Southern, Western and Illinois </t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>from</t>
+  </si>
+  <si>
+    <t>Smucker Fruit Processing Co. - 800 Commercial Ave., Oxnard, CA 93030</t>
   </si>
   <si>
     <t xml:space="preserve">the property described below, in apparent good order, except as noted (contents and condition of contents of package unknown), marked, consigned, and destined as indicated below, which said company (the word company being understood throughout this contract as meaning any person or corporation in possession of the property under the contract), agrees to carry to its usual place of delivery at said destination. If on its own road or its own water line, otherwise to deliver to another carrior on the route to said destination. It is mutually agreed, as to each carrior of all or any of said property over all or any portion of said route to destination, and as to each party at any time interested in all or any of said property, that every service to be performed hereunder shall be subject to all the conditions not prohibited by law, whether printed or written, herein, contained, including the conditions on back hereof, which are hereby agreed to by the shipper and accepted for himself and his assigns. </t>
@@ -83,19 +86,34 @@
     <t>Consigned to</t>
   </si>
   <si>
+    <t>Lineage Logistics</t>
+  </si>
+  <si>
     <t>Destination</t>
+  </si>
+  <si>
+    <t>908 E 3rd St, Oxnard</t>
   </si>
   <si>
     <t>State of</t>
   </si>
   <si>
+    <t>CA 93030</t>
+  </si>
+  <si>
     <t xml:space="preserve">County of </t>
+  </si>
+  <si>
+    <t>Ventura</t>
   </si>
   <si>
     <t>Route</t>
   </si>
   <si>
     <t>Delivering Carrier</t>
+  </si>
+  <si>
+    <t>Franco Bros</t>
   </si>
   <si>
     <t xml:space="preserve">Car Initial </t>
@@ -119,19 +137,25 @@
     <t>CHECK COLUMN</t>
   </si>
   <si>
-    <t xml:space="preserve">    Subject to Section 7 of conditions if this shipment is to be delivered to the consignee without recourse on the consignor, the cosigner shall sign the following statement: The carrier shall not make delivery of this shipment without payment of freight and all other lawful charges. </t>
+    <t>This trailer was inspected for dirt, trash, debris, holes in trailer, foreign material spills, and pest activity.</t>
   </si>
   <si>
-    <t>(Signature of Consigner)</t>
+    <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">    If Charges are to be prepaid, write or stamp here, "To be Prepaid".</t>
+    <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">    Received $___________ to apply in prepayment of the charges on the property described hereon. </t>
+    <t>No</t>
   </si>
   <si>
-    <t>Agent of Cashier</t>
+    <t>Issues found: (if any)</t>
+  </si>
+  <si>
+    <t>Inspector's Initials</t>
+  </si>
+  <si>
+    <t>CM</t>
   </si>
   <si>
     <t>Seal #</t>
@@ -140,13 +164,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Per </t>
+    <t>Vehicle:</t>
   </si>
   <si>
     <t>MECHANICAL PROTECTIVE SERVICE - FROZEN, RULE 706</t>
   </si>
   <si>
-    <t>(The signature here acknowledges only the amount prepaid.)</t>
+    <t xml:space="preserve">       Franco Brothers       </t>
   </si>
   <si>
     <r>
@@ -204,10 +228,19 @@
     <t xml:space="preserve">Agent </t>
   </si>
   <si>
+    <t>Carlos Mendoza</t>
+  </si>
+  <si>
     <t>Per</t>
   </si>
   <si>
+    <t>(This is where the truck drivers name will go)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Permanent post office </t>
+  </si>
+  <si>
+    <t>P.O. Box 5161 Oxnard, CA 93031</t>
   </si>
   <si>
     <t xml:space="preserve">address of shipper </t>
@@ -315,7 +348,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -455,14 +488,46 @@
       <bottom/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -471,6 +536,44 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -504,49 +607,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -616,7 +681,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -630,59 +695,68 @@
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -719,6 +793,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -739,17 +816,17 @@
     <col customWidth="1" min="13" max="13" width="2.63"/>
     <col customWidth="1" min="14" max="14" width="3.0"/>
     <col customWidth="1" min="15" max="15" width="1.0"/>
-    <col customWidth="1" min="16" max="16" width="1.75"/>
+    <col customWidth="1" min="16" max="16" width="1.63"/>
     <col customWidth="1" min="17" max="17" width="18.25"/>
     <col customWidth="1" min="18" max="26" width="7.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -764,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -804,11 +881,13 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <v>101234.0</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -842,7 +921,7 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
@@ -868,7 +947,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -887,7 +966,10 @@
       <c r="N11" s="17"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="18">
+        <f>NOW()</f>
+        <v>42936.80173</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
@@ -908,12 +990,14 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -931,11 +1015,9 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1"/>
-    <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="11.25" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
@@ -957,7 +1039,7 @@
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -979,11 +1061,13 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1019,25 +1103,31 @@
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="11"/>
+      <c r="N21" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="11"/>
@@ -1063,7 +1153,7 @@
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
@@ -1103,19 +1193,21 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="6"/>
@@ -1144,11 +1236,11 @@
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="31" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
@@ -1156,24 +1248,24 @@
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
       <c r="I27" s="33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="35" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L27" s="30"/>
       <c r="M27" s="35" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N27" s="30"/>
       <c r="O27" s="36" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="38"/>
       <c r="C28" s="1"/>
@@ -1185,7 +1277,7 @@
       <c r="N28" s="40"/>
       <c r="O28" s="41"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="40"/>
       <c r="C29" s="1"/>
@@ -1195,9 +1287,15 @@
       <c r="L29" s="40"/>
       <c r="M29" s="1"/>
       <c r="N29" s="40"/>
-      <c r="O29" s="41"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
+      <c r="O29" s="43"/>
+      <c r="P29" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="40"/>
       <c r="C30" s="1"/>
@@ -1207,9 +1305,11 @@
       <c r="L30" s="40"/>
       <c r="M30" s="1"/>
       <c r="N30" s="40"/>
-      <c r="O30" s="41"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
+      <c r="O30" s="43"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="40"/>
       <c r="C31" s="1"/>
@@ -1218,10 +1318,13 @@
       <c r="K31" s="1"/>
       <c r="L31" s="40"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="41"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
+      <c r="O31" s="48"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="40"/>
       <c r="C32" s="1"/>
@@ -1231,11 +1334,9 @@
       <c r="L32" s="40"/>
       <c r="M32" s="1"/>
       <c r="N32" s="40"/>
-      <c r="O32" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
@@ -1247,12 +1348,14 @@
       <c r="L33" s="40"/>
       <c r="M33" s="1"/>
       <c r="N33" s="40"/>
-      <c r="O33" s="45" t="s">
-        <v>28</v>
+      <c r="O33" s="36" t="s">
+        <v>36</v>
       </c>
-      <c r="R33" s="46"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="50"/>
+    </row>
+    <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="40"/>
       <c r="C34" s="1"/>
@@ -1263,7 +1366,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="40"/>
       <c r="O34" s="41"/>
-      <c r="R34" s="46"/>
+      <c r="R34" s="50"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="1"/>
@@ -1275,9 +1378,7 @@
       <c r="L35" s="40"/>
       <c r="M35" s="1"/>
       <c r="N35" s="40"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
+      <c r="O35" s="41"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
@@ -1288,12 +1389,9 @@
       <c r="K36" s="1"/>
       <c r="L36" s="40"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
     </row>
     <row r="37" ht="18.0" customHeight="1">
       <c r="A37" s="1"/>
@@ -1305,9 +1403,13 @@
       <c r="L37" s="40"/>
       <c r="M37" s="1"/>
       <c r="N37" s="40"/>
-      <c r="O37" s="41"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
+      <c r="O37" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="54"/>
+    </row>
+    <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="40"/>
       <c r="C38" s="1"/>
@@ -1317,11 +1419,13 @@
       <c r="L38" s="40"/>
       <c r="M38" s="1"/>
       <c r="N38" s="40"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-    </row>
-    <row r="39" ht="13.5" customHeight="1">
+      <c r="O38" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="56"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="40"/>
       <c r="C39" s="1"/>
@@ -1330,69 +1434,70 @@
       <c r="K39" s="1"/>
       <c r="L39" s="40"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="51" t="s">
-        <v>30</v>
+      <c r="O39" s="57"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61" t="s">
+        <v>39</v>
       </c>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="7"/>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55" t="s">
-        <v>31</v>
+      <c r="D40" s="59"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="63" t="s">
+        <v>40</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="57" t="s">
-        <v>32</v>
+      <c r="I40" s="61" t="str">
+        <f>IF(I28="","",SUM(I28:J39))</f>
+        <v/>
       </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="58" t="s">
-        <v>33</v>
+      <c r="J40" s="60"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="52" t="s">
+        <v>41</v>
       </c>
-      <c r="Q40" s="59"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="54"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="60" t="s">
-        <v>34</v>
+      <c r="A41" s="64" t="s">
+        <v>42</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="65" t="s">
-        <v>35</v>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="55" t="s">
+        <v>43</v>
       </c>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="56"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="50" t="s">
-        <v>36</v>
+      <c r="A42" s="67" t="s">
+        <v>44</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
@@ -1401,21 +1506,19 @@
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="67" t="s">
-        <v>37</v>
+      <c r="N42" s="68"/>
+      <c r="O42" s="69" t="s">
+        <v>45</v>
       </c>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="50" t="s">
-        <v>38</v>
+      <c r="A43" s="67" t="s">
+        <v>46</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
@@ -1424,21 +1527,21 @@
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="68" t="s">
-        <v>39</v>
+      <c r="N43" s="68"/>
+      <c r="O43" s="70" t="s">
+        <v>47</v>
       </c>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="69" t="s">
-        <v>40</v>
+      <c r="A44" s="71" t="s">
+        <v>48</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
@@ -1447,19 +1550,19 @@
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
-      <c r="N44" s="66"/>
+      <c r="N44" s="68"/>
       <c r="O44" s="19"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="59" t="s">
-        <v>41</v>
+      <c r="A45" s="72" t="s">
+        <v>49</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -1468,17 +1571,17 @@
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="70"/>
+      <c r="N45" s="73"/>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="50" t="s">
-        <v>42</v>
+      <c r="A46" s="67" t="s">
+        <v>50</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -1495,11 +1598,11 @@
       <c r="Q46" s="19"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="50" t="s">
-        <v>43</v>
+      <c r="A47" s="67" t="s">
+        <v>51</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -1516,11 +1619,11 @@
       <c r="Q47" s="19"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="50" t="s">
-        <v>44</v>
+      <c r="A48" s="67" t="s">
+        <v>52</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -1536,7 +1639,7 @@
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
     </row>
-    <row r="49" ht="12.0" customHeight="1">
+    <row r="49" ht="8.25" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -1544,8 +1647,8 @@
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
-      <c r="H49" s="71" t="s">
-        <v>45</v>
+      <c r="H49" s="74" t="s">
+        <v>53</v>
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
@@ -1558,8 +1661,8 @@
       <c r="Q49" s="27"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="72" t="s">
-        <v>46</v>
+      <c r="A50" s="75" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -1579,19 +1682,19 @@
       <c r="Q50" s="19"/>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
@@ -1602,8 +1705,8 @@
       <c r="Q51" s="19"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" s="74"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="77"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1612,20 +1715,22 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+    </row>
+    <row r="53">
       <c r="A53" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -1633,19 +1738,21 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
+      <c r="L53" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="M53" s="16"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="79"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="74"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1663,10 +1770,12 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" ht="12.0" customHeight="1">
-      <c r="A55" s="77" t="s">
-        <v>50</v>
+      <c r="A55" s="80" t="s">
+        <v>60</v>
       </c>
-      <c r="E55" s="78"/>
+      <c r="E55" s="81" t="s">
+        <v>61</v>
+      </c>
       <c r="J55" s="4"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
@@ -1677,15 +1786,15 @@
       <c r="Q55" s="10"/>
     </row>
     <row r="56" ht="9.75" customHeight="1">
-      <c r="A56" s="77" t="s">
-        <v>51</v>
+      <c r="A56" s="80" t="s">
+        <v>62</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="79"/>
+      <c r="J56" s="82"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
       <c r="M56" s="19"/>
@@ -1694,18 +1803,18 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="80" t="s">
-        <v>52</v>
+      <c r="E57" s="83" t="s">
+        <v>63</v>
       </c>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
@@ -1715,7 +1824,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
+    <row r="58">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1734,7 +1843,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1753,7 +1862,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1772,7 +1881,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
+    <row r="61">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1791,7 +1900,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
+    <row r="62">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1810,7 +1919,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
+    <row r="63">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1829,7 +1938,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
+    <row r="64">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1848,7 +1957,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
+    <row r="65">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1867,7 +1976,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
+    <row r="66">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1886,7 +1995,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
+    <row r="67">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1905,7 +2014,7 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
+    <row r="68">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1924,7 +2033,7 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
+    <row r="69">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -1943,7 +2052,7 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
+    <row r="70">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1962,7 +2071,7 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
+    <row r="71">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1981,7 +2090,7 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2000,7 +2109,7 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2019,7 +2128,7 @@
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -2038,7 +2147,7 @@
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
+    <row r="75">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -2057,7 +2166,7 @@
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
+    <row r="76">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -2076,7 +2185,7 @@
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
+    <row r="77">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -2095,7 +2204,7 @@
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -2114,7 +2223,7 @@
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
+    <row r="79">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2133,7 +2242,7 @@
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
+    <row r="80">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2152,7 +2261,7 @@
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
+    <row r="81">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2171,7 +2280,7 @@
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
+    <row r="82">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2190,7 +2299,7 @@
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
+    <row r="83">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -2209,7 +2318,7 @@
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
+    <row r="84">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -2228,7 +2337,7 @@
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
+    <row r="85">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2247,7 +2356,7 @@
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
+    <row r="86">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -2266,7 +2375,7 @@
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
+    <row r="87">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -2285,7 +2394,7 @@
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
+    <row r="88">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -2304,7 +2413,7 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
+    <row r="89">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -2323,7 +2432,7 @@
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
+    <row r="90">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -2342,7 +2451,7 @@
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
+    <row r="91">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2361,7 +2470,7 @@
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
+    <row r="92">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -2380,7 +2489,7 @@
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
+    <row r="93">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -2399,7 +2508,7 @@
       <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
+    <row r="94">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2418,7 +2527,7 @@
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
+    <row r="95">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -2437,7 +2546,7 @@
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
+    <row r="96">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -2456,7 +2565,7 @@
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
+    <row r="97">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -2475,7 +2584,7 @@
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
+    <row r="98">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -2494,7 +2603,7 @@
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
+    <row r="99">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -2513,7 +2622,7 @@
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
+    <row r="100">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -2532,7 +2641,7 @@
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
+    <row r="101">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -2551,7 +2660,7 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
+    <row r="102">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -2570,7 +2679,7 @@
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
+    <row r="103">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -2589,7 +2698,7 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
+    <row r="104">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -2608,7 +2717,7 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
+    <row r="105">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -2627,7 +2736,7 @@
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
+    <row r="106">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -2646,7 +2755,7 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
+    <row r="107">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -2665,7 +2774,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
+    <row r="108">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -2684,7 +2793,7 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
+    <row r="109">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -2703,7 +2812,7 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
+    <row r="110">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -2722,7 +2831,7 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
+    <row r="111">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -2741,7 +2850,7 @@
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
+    <row r="112">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -2760,7 +2869,7 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
+    <row r="113">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -2779,7 +2888,7 @@
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
+    <row r="114">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -2798,7 +2907,7 @@
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
+    <row r="115">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -2817,7 +2926,7 @@
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
+    <row r="116">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -2836,7 +2945,7 @@
       <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
+    <row r="117">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -2855,7 +2964,7 @@
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
+    <row r="118">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -2874,7 +2983,7 @@
       <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
+    <row r="119">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -2893,7 +3002,7 @@
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
+    <row r="120">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -2912,7 +3021,7 @@
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
+    <row r="121">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -2931,7 +3040,7 @@
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
+    <row r="122">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -2950,7 +3059,7 @@
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
+    <row r="123">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -2969,7 +3078,7 @@
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
+    <row r="124">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -2988,7 +3097,7 @@
       <c r="P124" s="10"/>
       <c r="Q124" s="10"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
+    <row r="125">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -3007,7 +3116,7 @@
       <c r="P125" s="10"/>
       <c r="Q125" s="10"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
+    <row r="126">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3026,7 +3135,7 @@
       <c r="P126" s="10"/>
       <c r="Q126" s="10"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
+    <row r="127">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -3045,7 +3154,7 @@
       <c r="P127" s="10"/>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
+    <row r="128">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -3064,7 +3173,7 @@
       <c r="P128" s="10"/>
       <c r="Q128" s="10"/>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
+    <row r="129">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -3083,7 +3192,7 @@
       <c r="P129" s="10"/>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
+    <row r="130">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -3102,7 +3211,7 @@
       <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
+    <row r="131">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -3121,7 +3230,7 @@
       <c r="P131" s="10"/>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
+    <row r="132">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -3140,7 +3249,7 @@
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
+    <row r="133">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -3159,7 +3268,7 @@
       <c r="P133" s="10"/>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
+    <row r="134">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -3178,7 +3287,7 @@
       <c r="P134" s="10"/>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
+    <row r="135">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -3197,7 +3306,7 @@
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
+    <row r="136">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -3216,7 +3325,7 @@
       <c r="P136" s="10"/>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
+    <row r="137">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -3235,7 +3344,7 @@
       <c r="P137" s="10"/>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
+    <row r="138">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -3254,7 +3363,7 @@
       <c r="P138" s="10"/>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
+    <row r="139">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -3273,7 +3382,7 @@
       <c r="P139" s="10"/>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
+    <row r="140">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -3292,7 +3401,7 @@
       <c r="P140" s="10"/>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
+    <row r="141">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -3311,7 +3420,7 @@
       <c r="P141" s="10"/>
       <c r="Q141" s="10"/>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
+    <row r="142">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -3330,7 +3439,7 @@
       <c r="P142" s="10"/>
       <c r="Q142" s="10"/>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
+    <row r="143">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -3349,7 +3458,7 @@
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
+    <row r="144">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -3368,7 +3477,7 @@
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
+    <row r="145">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -3387,7 +3496,7 @@
       <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
+    <row r="146">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -3406,7 +3515,7 @@
       <c r="P146" s="10"/>
       <c r="Q146" s="10"/>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
+    <row r="147">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -3425,7 +3534,7 @@
       <c r="P147" s="10"/>
       <c r="Q147" s="10"/>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
+    <row r="148">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -3444,7 +3553,7 @@
       <c r="P148" s="10"/>
       <c r="Q148" s="10"/>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
+    <row r="149">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -3463,7 +3572,7 @@
       <c r="P149" s="10"/>
       <c r="Q149" s="10"/>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
+    <row r="150">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -3482,7 +3591,7 @@
       <c r="P150" s="10"/>
       <c r="Q150" s="10"/>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
+    <row r="151">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -3501,7 +3610,7 @@
       <c r="P151" s="10"/>
       <c r="Q151" s="10"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
+    <row r="152">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -3520,7 +3629,7 @@
       <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
+    <row r="153">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -3539,7 +3648,7 @@
       <c r="P153" s="10"/>
       <c r="Q153" s="10"/>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -3558,7 +3667,7 @@
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -3577,7 +3686,7 @@
       <c r="P155" s="10"/>
       <c r="Q155" s="10"/>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -3596,7 +3705,7 @@
       <c r="P156" s="10"/>
       <c r="Q156" s="10"/>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -3615,7 +3724,7 @@
       <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -3634,7 +3743,7 @@
       <c r="P158" s="10"/>
       <c r="Q158" s="10"/>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -3653,7 +3762,7 @@
       <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -3672,7 +3781,7 @@
       <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -3691,7 +3800,7 @@
       <c r="P161" s="10"/>
       <c r="Q161" s="10"/>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -3710,7 +3819,7 @@
       <c r="P162" s="10"/>
       <c r="Q162" s="10"/>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -3729,7 +3838,7 @@
       <c r="P163" s="10"/>
       <c r="Q163" s="10"/>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -3748,7 +3857,7 @@
       <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -3767,7 +3876,7 @@
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -3786,7 +3895,7 @@
       <c r="P166" s="10"/>
       <c r="Q166" s="10"/>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -3805,7 +3914,7 @@
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -3824,7 +3933,7 @@
       <c r="P168" s="10"/>
       <c r="Q168" s="10"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -3843,7 +3952,7 @@
       <c r="P169" s="10"/>
       <c r="Q169" s="10"/>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -3862,7 +3971,7 @@
       <c r="P170" s="10"/>
       <c r="Q170" s="10"/>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -3881,7 +3990,7 @@
       <c r="P171" s="10"/>
       <c r="Q171" s="10"/>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -3900,7 +4009,7 @@
       <c r="P172" s="10"/>
       <c r="Q172" s="10"/>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -3919,7 +4028,7 @@
       <c r="P173" s="10"/>
       <c r="Q173" s="10"/>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -3938,7 +4047,7 @@
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -3957,7 +4066,7 @@
       <c r="P175" s="10"/>
       <c r="Q175" s="10"/>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -3976,7 +4085,7 @@
       <c r="P176" s="10"/>
       <c r="Q176" s="10"/>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -3995,7 +4104,7 @@
       <c r="P177" s="10"/>
       <c r="Q177" s="10"/>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -4014,7 +4123,7 @@
       <c r="P178" s="10"/>
       <c r="Q178" s="10"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -4033,7 +4142,7 @@
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -4052,7 +4161,7 @@
       <c r="P180" s="10"/>
       <c r="Q180" s="10"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -4071,7 +4180,7 @@
       <c r="P181" s="10"/>
       <c r="Q181" s="10"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -4090,7 +4199,7 @@
       <c r="P182" s="10"/>
       <c r="Q182" s="10"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -4109,7 +4218,7 @@
       <c r="P183" s="10"/>
       <c r="Q183" s="10"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -4128,7 +4237,7 @@
       <c r="P184" s="10"/>
       <c r="Q184" s="10"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -4147,7 +4256,7 @@
       <c r="P185" s="10"/>
       <c r="Q185" s="10"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -4166,7 +4275,7 @@
       <c r="P186" s="10"/>
       <c r="Q186" s="10"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -4185,7 +4294,7 @@
       <c r="P187" s="10"/>
       <c r="Q187" s="10"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -4204,7 +4313,7 @@
       <c r="P188" s="10"/>
       <c r="Q188" s="10"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -4223,7 +4332,7 @@
       <c r="P189" s="10"/>
       <c r="Q189" s="10"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -4242,7 +4351,7 @@
       <c r="P190" s="10"/>
       <c r="Q190" s="10"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -4261,7 +4370,7 @@
       <c r="P191" s="10"/>
       <c r="Q191" s="10"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -4280,7 +4389,7 @@
       <c r="P192" s="10"/>
       <c r="Q192" s="10"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -4299,7 +4408,7 @@
       <c r="P193" s="10"/>
       <c r="Q193" s="10"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -4318,7 +4427,7 @@
       <c r="P194" s="10"/>
       <c r="Q194" s="10"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -4337,7 +4446,7 @@
       <c r="P195" s="10"/>
       <c r="Q195" s="10"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -4356,7 +4465,7 @@
       <c r="P196" s="10"/>
       <c r="Q196" s="10"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -4375,7 +4484,7 @@
       <c r="P197" s="10"/>
       <c r="Q197" s="10"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -4394,7 +4503,7 @@
       <c r="P198" s="10"/>
       <c r="Q198" s="10"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
+    <row r="199">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -4413,7 +4522,7 @@
       <c r="P199" s="10"/>
       <c r="Q199" s="10"/>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
+    <row r="200">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -4432,7 +4541,7 @@
       <c r="P200" s="10"/>
       <c r="Q200" s="10"/>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
+    <row r="201">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -4451,7 +4560,7 @@
       <c r="P201" s="10"/>
       <c r="Q201" s="10"/>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
+    <row r="202">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -4470,7 +4579,7 @@
       <c r="P202" s="10"/>
       <c r="Q202" s="10"/>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
+    <row r="203">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -4489,7 +4598,7 @@
       <c r="P203" s="10"/>
       <c r="Q203" s="10"/>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
+    <row r="204">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -4508,7 +4617,7 @@
       <c r="P204" s="10"/>
       <c r="Q204" s="10"/>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
+    <row r="205">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -4527,7 +4636,7 @@
       <c r="P205" s="10"/>
       <c r="Q205" s="10"/>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
+    <row r="206">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -4546,7 +4655,7 @@
       <c r="P206" s="10"/>
       <c r="Q206" s="10"/>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
+    <row r="207">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -4565,7 +4674,7 @@
       <c r="P207" s="10"/>
       <c r="Q207" s="10"/>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
+    <row r="208">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -4584,7 +4693,7 @@
       <c r="P208" s="10"/>
       <c r="Q208" s="10"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -4603,7 +4712,7 @@
       <c r="P209" s="10"/>
       <c r="Q209" s="10"/>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
+    <row r="210">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -4622,7 +4731,7 @@
       <c r="P210" s="10"/>
       <c r="Q210" s="10"/>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
+    <row r="211">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -4641,7 +4750,7 @@
       <c r="P211" s="10"/>
       <c r="Q211" s="10"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
+    <row r="212">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -4660,7 +4769,7 @@
       <c r="P212" s="10"/>
       <c r="Q212" s="10"/>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
+    <row r="213">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -4679,7 +4788,7 @@
       <c r="P213" s="10"/>
       <c r="Q213" s="10"/>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
+    <row r="214">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -4698,7 +4807,7 @@
       <c r="P214" s="10"/>
       <c r="Q214" s="10"/>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
+    <row r="215">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -4717,7 +4826,7 @@
       <c r="P215" s="10"/>
       <c r="Q215" s="10"/>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -4736,7 +4845,7 @@
       <c r="P216" s="10"/>
       <c r="Q216" s="10"/>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -4755,7 +4864,7 @@
       <c r="P217" s="10"/>
       <c r="Q217" s="10"/>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -4774,7 +4883,7 @@
       <c r="P218" s="10"/>
       <c r="Q218" s="10"/>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -4793,7 +4902,7 @@
       <c r="P219" s="10"/>
       <c r="Q219" s="10"/>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -4812,7 +4921,7 @@
       <c r="P220" s="10"/>
       <c r="Q220" s="10"/>
     </row>
-    <row r="221" ht="13.5" customHeight="1">
+    <row r="221">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -4831,7 +4940,7 @@
       <c r="P221" s="10"/>
       <c r="Q221" s="10"/>
     </row>
-    <row r="222" ht="13.5" customHeight="1">
+    <row r="222">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -4850,7 +4959,7 @@
       <c r="P222" s="10"/>
       <c r="Q222" s="10"/>
     </row>
-    <row r="223" ht="13.5" customHeight="1">
+    <row r="223">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -4869,7 +4978,7 @@
       <c r="P223" s="10"/>
       <c r="Q223" s="10"/>
     </row>
-    <row r="224" ht="13.5" customHeight="1">
+    <row r="224">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -4888,7 +4997,7 @@
       <c r="P224" s="10"/>
       <c r="Q224" s="10"/>
     </row>
-    <row r="225" ht="13.5" customHeight="1">
+    <row r="225">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -4907,7 +5016,7 @@
       <c r="P225" s="10"/>
       <c r="Q225" s="10"/>
     </row>
-    <row r="226" ht="13.5" customHeight="1">
+    <row r="226">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -4926,7 +5035,7 @@
       <c r="P226" s="10"/>
       <c r="Q226" s="10"/>
     </row>
-    <row r="227" ht="13.5" customHeight="1">
+    <row r="227">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -4945,7 +5054,7 @@
       <c r="P227" s="10"/>
       <c r="Q227" s="10"/>
     </row>
-    <row r="228" ht="13.5" customHeight="1">
+    <row r="228">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -4964,7 +5073,7 @@
       <c r="P228" s="10"/>
       <c r="Q228" s="10"/>
     </row>
-    <row r="229" ht="13.5" customHeight="1">
+    <row r="229">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -4983,7 +5092,7 @@
       <c r="P229" s="10"/>
       <c r="Q229" s="10"/>
     </row>
-    <row r="230" ht="13.5" customHeight="1">
+    <row r="230">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -5002,7 +5111,7 @@
       <c r="P230" s="10"/>
       <c r="Q230" s="10"/>
     </row>
-    <row r="231" ht="13.5" customHeight="1">
+    <row r="231">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -5021,7 +5130,7 @@
       <c r="P231" s="10"/>
       <c r="Q231" s="10"/>
     </row>
-    <row r="232" ht="13.5" customHeight="1">
+    <row r="232">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -5040,7 +5149,7 @@
       <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
     </row>
-    <row r="233" ht="13.5" customHeight="1">
+    <row r="233">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -5059,7 +5168,7 @@
       <c r="P233" s="10"/>
       <c r="Q233" s="10"/>
     </row>
-    <row r="234" ht="13.5" customHeight="1">
+    <row r="234">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -5078,7 +5187,7 @@
       <c r="P234" s="10"/>
       <c r="Q234" s="10"/>
     </row>
-    <row r="235" ht="13.5" customHeight="1">
+    <row r="235">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -5097,7 +5206,7 @@
       <c r="P235" s="10"/>
       <c r="Q235" s="10"/>
     </row>
-    <row r="236" ht="13.5" customHeight="1">
+    <row r="236">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -5116,7 +5225,7 @@
       <c r="P236" s="10"/>
       <c r="Q236" s="10"/>
     </row>
-    <row r="237" ht="13.5" customHeight="1">
+    <row r="237">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -5135,7 +5244,7 @@
       <c r="P237" s="10"/>
       <c r="Q237" s="10"/>
     </row>
-    <row r="238" ht="13.5" customHeight="1">
+    <row r="238">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -5154,7 +5263,7 @@
       <c r="P238" s="10"/>
       <c r="Q238" s="10"/>
     </row>
-    <row r="239" ht="13.5" customHeight="1">
+    <row r="239">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -5173,7 +5282,7 @@
       <c r="P239" s="10"/>
       <c r="Q239" s="10"/>
     </row>
-    <row r="240" ht="13.5" customHeight="1">
+    <row r="240">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -5192,7 +5301,7 @@
       <c r="P240" s="10"/>
       <c r="Q240" s="10"/>
     </row>
-    <row r="241" ht="13.5" customHeight="1">
+    <row r="241">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -5211,7 +5320,7 @@
       <c r="P241" s="10"/>
       <c r="Q241" s="10"/>
     </row>
-    <row r="242" ht="13.5" customHeight="1">
+    <row r="242">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -5230,7 +5339,7 @@
       <c r="P242" s="10"/>
       <c r="Q242" s="10"/>
     </row>
-    <row r="243" ht="13.5" customHeight="1">
+    <row r="243">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -5249,7 +5358,7 @@
       <c r="P243" s="10"/>
       <c r="Q243" s="10"/>
     </row>
-    <row r="244" ht="13.5" customHeight="1">
+    <row r="244">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -5268,7 +5377,7 @@
       <c r="P244" s="10"/>
       <c r="Q244" s="10"/>
     </row>
-    <row r="245" ht="13.5" customHeight="1">
+    <row r="245">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -5287,7 +5396,7 @@
       <c r="P245" s="10"/>
       <c r="Q245" s="10"/>
     </row>
-    <row r="246" ht="13.5" customHeight="1">
+    <row r="246">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -5306,7 +5415,7 @@
       <c r="P246" s="10"/>
       <c r="Q246" s="10"/>
     </row>
-    <row r="247" ht="13.5" customHeight="1">
+    <row r="247">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -5325,7 +5434,7 @@
       <c r="P247" s="10"/>
       <c r="Q247" s="10"/>
     </row>
-    <row r="248" ht="13.5" customHeight="1">
+    <row r="248">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5344,7 +5453,7 @@
       <c r="P248" s="10"/>
       <c r="Q248" s="10"/>
     </row>
-    <row r="249" ht="13.5" customHeight="1">
+    <row r="249">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -5363,7 +5472,7 @@
       <c r="P249" s="10"/>
       <c r="Q249" s="10"/>
     </row>
-    <row r="250" ht="13.5" customHeight="1">
+    <row r="250">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -5382,7 +5491,7 @@
       <c r="P250" s="10"/>
       <c r="Q250" s="10"/>
     </row>
-    <row r="251" ht="13.5" customHeight="1">
+    <row r="251">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -5401,7 +5510,7 @@
       <c r="P251" s="10"/>
       <c r="Q251" s="10"/>
     </row>
-    <row r="252" ht="13.5" customHeight="1">
+    <row r="252">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -5420,7 +5529,7 @@
       <c r="P252" s="10"/>
       <c r="Q252" s="10"/>
     </row>
-    <row r="253" ht="13.5" customHeight="1">
+    <row r="253">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -5439,7 +5548,7 @@
       <c r="P253" s="10"/>
       <c r="Q253" s="10"/>
     </row>
-    <row r="254" ht="13.5" customHeight="1">
+    <row r="254">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -5458,7 +5567,7 @@
       <c r="P254" s="10"/>
       <c r="Q254" s="10"/>
     </row>
-    <row r="255" ht="13.5" customHeight="1">
+    <row r="255">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -5477,7 +5586,7 @@
       <c r="P255" s="10"/>
       <c r="Q255" s="10"/>
     </row>
-    <row r="256" ht="13.5" customHeight="1">
+    <row r="256">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -5496,7 +5605,7 @@
       <c r="P256" s="10"/>
       <c r="Q256" s="10"/>
     </row>
-    <row r="257" ht="13.5" customHeight="1">
+    <row r="257">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -5515,7 +5624,7 @@
       <c r="P257" s="10"/>
       <c r="Q257" s="10"/>
     </row>
-    <row r="258" ht="13.5" customHeight="1">
+    <row r="258">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -5534,7 +5643,7 @@
       <c r="P258" s="10"/>
       <c r="Q258" s="10"/>
     </row>
-    <row r="259" ht="13.5" customHeight="1">
+    <row r="259">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
@@ -5553,7 +5662,7 @@
       <c r="P259" s="10"/>
       <c r="Q259" s="10"/>
     </row>
-    <row r="260" ht="13.5" customHeight="1">
+    <row r="260">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -5572,7 +5681,7 @@
       <c r="P260" s="10"/>
       <c r="Q260" s="10"/>
     </row>
-    <row r="261" ht="13.5" customHeight="1">
+    <row r="261">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -5591,7 +5700,7 @@
       <c r="P261" s="10"/>
       <c r="Q261" s="10"/>
     </row>
-    <row r="262" ht="13.5" customHeight="1">
+    <row r="262">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -5610,7 +5719,7 @@
       <c r="P262" s="10"/>
       <c r="Q262" s="10"/>
     </row>
-    <row r="263" ht="13.5" customHeight="1">
+    <row r="263">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -5629,7 +5738,7 @@
       <c r="P263" s="10"/>
       <c r="Q263" s="10"/>
     </row>
-    <row r="264" ht="13.5" customHeight="1">
+    <row r="264">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
@@ -5648,7 +5757,7 @@
       <c r="P264" s="10"/>
       <c r="Q264" s="10"/>
     </row>
-    <row r="265" ht="13.5" customHeight="1">
+    <row r="265">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -5667,7 +5776,7 @@
       <c r="P265" s="10"/>
       <c r="Q265" s="10"/>
     </row>
-    <row r="266" ht="13.5" customHeight="1">
+    <row r="266">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -5686,7 +5795,7 @@
       <c r="P266" s="10"/>
       <c r="Q266" s="10"/>
     </row>
-    <row r="267" ht="13.5" customHeight="1">
+    <row r="267">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -5705,7 +5814,7 @@
       <c r="P267" s="10"/>
       <c r="Q267" s="10"/>
     </row>
-    <row r="268" ht="13.5" customHeight="1">
+    <row r="268">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -5724,7 +5833,7 @@
       <c r="P268" s="10"/>
       <c r="Q268" s="10"/>
     </row>
-    <row r="269" ht="13.5" customHeight="1">
+    <row r="269">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -5743,7 +5852,7 @@
       <c r="P269" s="10"/>
       <c r="Q269" s="10"/>
     </row>
-    <row r="270" ht="13.5" customHeight="1">
+    <row r="270">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -5762,7 +5871,7 @@
       <c r="P270" s="10"/>
       <c r="Q270" s="10"/>
     </row>
-    <row r="271" ht="13.5" customHeight="1">
+    <row r="271">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -5781,7 +5890,7 @@
       <c r="P271" s="10"/>
       <c r="Q271" s="10"/>
     </row>
-    <row r="272" ht="13.5" customHeight="1">
+    <row r="272">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -5800,7 +5909,7 @@
       <c r="P272" s="10"/>
       <c r="Q272" s="10"/>
     </row>
-    <row r="273" ht="13.5" customHeight="1">
+    <row r="273">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -5819,7 +5928,7 @@
       <c r="P273" s="10"/>
       <c r="Q273" s="10"/>
     </row>
-    <row r="274" ht="13.5" customHeight="1">
+    <row r="274">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -5838,7 +5947,7 @@
       <c r="P274" s="10"/>
       <c r="Q274" s="10"/>
     </row>
-    <row r="275" ht="13.5" customHeight="1">
+    <row r="275">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
@@ -5857,7 +5966,7 @@
       <c r="P275" s="10"/>
       <c r="Q275" s="10"/>
     </row>
-    <row r="276" ht="13.5" customHeight="1">
+    <row r="276">
       <c r="A276" s="10"/>
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
@@ -5876,7 +5985,7 @@
       <c r="P276" s="10"/>
       <c r="Q276" s="10"/>
     </row>
-    <row r="277" ht="13.5" customHeight="1">
+    <row r="277">
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
@@ -5895,7 +6004,7 @@
       <c r="P277" s="10"/>
       <c r="Q277" s="10"/>
     </row>
-    <row r="278" ht="13.5" customHeight="1">
+    <row r="278">
       <c r="A278" s="10"/>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
@@ -5914,7 +6023,7 @@
       <c r="P278" s="10"/>
       <c r="Q278" s="10"/>
     </row>
-    <row r="279" ht="13.5" customHeight="1">
+    <row r="279">
       <c r="A279" s="10"/>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
@@ -5933,7 +6042,7 @@
       <c r="P279" s="10"/>
       <c r="Q279" s="10"/>
     </row>
-    <row r="280" ht="13.5" customHeight="1">
+    <row r="280">
       <c r="A280" s="10"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -5952,7 +6061,7 @@
       <c r="P280" s="10"/>
       <c r="Q280" s="10"/>
     </row>
-    <row r="281" ht="13.5" customHeight="1">
+    <row r="281">
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
@@ -5971,7 +6080,7 @@
       <c r="P281" s="10"/>
       <c r="Q281" s="10"/>
     </row>
-    <row r="282" ht="13.5" customHeight="1">
+    <row r="282">
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
@@ -5990,7 +6099,7 @@
       <c r="P282" s="10"/>
       <c r="Q282" s="10"/>
     </row>
-    <row r="283" ht="13.5" customHeight="1">
+    <row r="283">
       <c r="A283" s="10"/>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
@@ -6009,7 +6118,7 @@
       <c r="P283" s="10"/>
       <c r="Q283" s="10"/>
     </row>
-    <row r="284" ht="13.5" customHeight="1">
+    <row r="284">
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -6028,7 +6137,7 @@
       <c r="P284" s="10"/>
       <c r="Q284" s="10"/>
     </row>
-    <row r="285" ht="13.5" customHeight="1">
+    <row r="285">
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -6047,7 +6156,7 @@
       <c r="P285" s="10"/>
       <c r="Q285" s="10"/>
     </row>
-    <row r="286" ht="13.5" customHeight="1">
+    <row r="286">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
@@ -6066,7 +6175,7 @@
       <c r="P286" s="10"/>
       <c r="Q286" s="10"/>
     </row>
-    <row r="287" ht="13.5" customHeight="1">
+    <row r="287">
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
@@ -6085,7 +6194,7 @@
       <c r="P287" s="10"/>
       <c r="Q287" s="10"/>
     </row>
-    <row r="288" ht="13.5" customHeight="1">
+    <row r="288">
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
@@ -6104,7 +6213,7 @@
       <c r="P288" s="10"/>
       <c r="Q288" s="10"/>
     </row>
-    <row r="289" ht="13.5" customHeight="1">
+    <row r="289">
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -6123,7 +6232,7 @@
       <c r="P289" s="10"/>
       <c r="Q289" s="10"/>
     </row>
-    <row r="290" ht="13.5" customHeight="1">
+    <row r="290">
       <c r="A290" s="10"/>
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
@@ -6142,7 +6251,7 @@
       <c r="P290" s="10"/>
       <c r="Q290" s="10"/>
     </row>
-    <row r="291" ht="13.5" customHeight="1">
+    <row r="291">
       <c r="A291" s="10"/>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
@@ -6161,7 +6270,7 @@
       <c r="P291" s="10"/>
       <c r="Q291" s="10"/>
     </row>
-    <row r="292" ht="13.5" customHeight="1">
+    <row r="292">
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
@@ -6180,7 +6289,7 @@
       <c r="P292" s="10"/>
       <c r="Q292" s="10"/>
     </row>
-    <row r="293" ht="13.5" customHeight="1">
+    <row r="293">
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
@@ -6199,7 +6308,7 @@
       <c r="P293" s="10"/>
       <c r="Q293" s="10"/>
     </row>
-    <row r="294" ht="13.5" customHeight="1">
+    <row r="294">
       <c r="A294" s="10"/>
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
@@ -6218,7 +6327,7 @@
       <c r="P294" s="10"/>
       <c r="Q294" s="10"/>
     </row>
-    <row r="295" ht="13.5" customHeight="1">
+    <row r="295">
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
@@ -6237,7 +6346,7 @@
       <c r="P295" s="10"/>
       <c r="Q295" s="10"/>
     </row>
-    <row r="296" ht="13.5" customHeight="1">
+    <row r="296">
       <c r="A296" s="10"/>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
@@ -6256,7 +6365,7 @@
       <c r="P296" s="10"/>
       <c r="Q296" s="10"/>
     </row>
-    <row r="297" ht="13.5" customHeight="1">
+    <row r="297">
       <c r="A297" s="10"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
@@ -6275,7 +6384,7 @@
       <c r="P297" s="10"/>
       <c r="Q297" s="10"/>
     </row>
-    <row r="298" ht="13.5" customHeight="1">
+    <row r="298">
       <c r="A298" s="10"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
@@ -6294,7 +6403,7 @@
       <c r="P298" s="10"/>
       <c r="Q298" s="10"/>
     </row>
-    <row r="299" ht="13.5" customHeight="1">
+    <row r="299">
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
@@ -6313,7 +6422,7 @@
       <c r="P299" s="10"/>
       <c r="Q299" s="10"/>
     </row>
-    <row r="300" ht="13.5" customHeight="1">
+    <row r="300">
       <c r="A300" s="10"/>
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
@@ -6332,7 +6441,7 @@
       <c r="P300" s="10"/>
       <c r="Q300" s="10"/>
     </row>
-    <row r="301" ht="13.5" customHeight="1">
+    <row r="301">
       <c r="A301" s="10"/>
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
@@ -6351,7 +6460,7 @@
       <c r="P301" s="10"/>
       <c r="Q301" s="10"/>
     </row>
-    <row r="302" ht="13.5" customHeight="1">
+    <row r="302">
       <c r="A302" s="10"/>
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
@@ -6370,7 +6479,7 @@
       <c r="P302" s="10"/>
       <c r="Q302" s="10"/>
     </row>
-    <row r="303" ht="13.5" customHeight="1">
+    <row r="303">
       <c r="A303" s="10"/>
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
@@ -6389,7 +6498,7 @@
       <c r="P303" s="10"/>
       <c r="Q303" s="10"/>
     </row>
-    <row r="304" ht="13.5" customHeight="1">
+    <row r="304">
       <c r="A304" s="10"/>
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
@@ -6408,7 +6517,7 @@
       <c r="P304" s="10"/>
       <c r="Q304" s="10"/>
     </row>
-    <row r="305" ht="13.5" customHeight="1">
+    <row r="305">
       <c r="A305" s="10"/>
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
@@ -6427,7 +6536,7 @@
       <c r="P305" s="10"/>
       <c r="Q305" s="10"/>
     </row>
-    <row r="306" ht="13.5" customHeight="1">
+    <row r="306">
       <c r="A306" s="10"/>
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
@@ -6446,7 +6555,7 @@
       <c r="P306" s="10"/>
       <c r="Q306" s="10"/>
     </row>
-    <row r="307" ht="13.5" customHeight="1">
+    <row r="307">
       <c r="A307" s="10"/>
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
@@ -6465,7 +6574,7 @@
       <c r="P307" s="10"/>
       <c r="Q307" s="10"/>
     </row>
-    <row r="308" ht="13.5" customHeight="1">
+    <row r="308">
       <c r="A308" s="10"/>
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
@@ -6484,7 +6593,7 @@
       <c r="P308" s="10"/>
       <c r="Q308" s="10"/>
     </row>
-    <row r="309" ht="13.5" customHeight="1">
+    <row r="309">
       <c r="A309" s="10"/>
       <c r="B309" s="10"/>
       <c r="C309" s="10"/>
@@ -6503,7 +6612,7 @@
       <c r="P309" s="10"/>
       <c r="Q309" s="10"/>
     </row>
-    <row r="310" ht="13.5" customHeight="1">
+    <row r="310">
       <c r="A310" s="10"/>
       <c r="B310" s="10"/>
       <c r="C310" s="10"/>
@@ -6522,7 +6631,7 @@
       <c r="P310" s="10"/>
       <c r="Q310" s="10"/>
     </row>
-    <row r="311" ht="13.5" customHeight="1">
+    <row r="311">
       <c r="A311" s="10"/>
       <c r="B311" s="10"/>
       <c r="C311" s="10"/>
@@ -6541,7 +6650,7 @@
       <c r="P311" s="10"/>
       <c r="Q311" s="10"/>
     </row>
-    <row r="312" ht="13.5" customHeight="1">
+    <row r="312">
       <c r="A312" s="10"/>
       <c r="B312" s="10"/>
       <c r="C312" s="10"/>
@@ -6560,7 +6669,7 @@
       <c r="P312" s="10"/>
       <c r="Q312" s="10"/>
     </row>
-    <row r="313" ht="13.5" customHeight="1">
+    <row r="313">
       <c r="A313" s="10"/>
       <c r="B313" s="10"/>
       <c r="C313" s="10"/>
@@ -6579,7 +6688,7 @@
       <c r="P313" s="10"/>
       <c r="Q313" s="10"/>
     </row>
-    <row r="314" ht="13.5" customHeight="1">
+    <row r="314">
       <c r="A314" s="10"/>
       <c r="B314" s="10"/>
       <c r="C314" s="10"/>
@@ -6598,7 +6707,7 @@
       <c r="P314" s="10"/>
       <c r="Q314" s="10"/>
     </row>
-    <row r="315" ht="13.5" customHeight="1">
+    <row r="315">
       <c r="A315" s="10"/>
       <c r="B315" s="10"/>
       <c r="C315" s="10"/>
@@ -6617,7 +6726,7 @@
       <c r="P315" s="10"/>
       <c r="Q315" s="10"/>
     </row>
-    <row r="316" ht="13.5" customHeight="1">
+    <row r="316">
       <c r="A316" s="10"/>
       <c r="B316" s="10"/>
       <c r="C316" s="10"/>
@@ -6636,7 +6745,7 @@
       <c r="P316" s="10"/>
       <c r="Q316" s="10"/>
     </row>
-    <row r="317" ht="13.5" customHeight="1">
+    <row r="317">
       <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
@@ -6655,7 +6764,7 @@
       <c r="P317" s="10"/>
       <c r="Q317" s="10"/>
     </row>
-    <row r="318" ht="13.5" customHeight="1">
+    <row r="318">
       <c r="A318" s="10"/>
       <c r="B318" s="10"/>
       <c r="C318" s="10"/>
@@ -6674,7 +6783,7 @@
       <c r="P318" s="10"/>
       <c r="Q318" s="10"/>
     </row>
-    <row r="319" ht="13.5" customHeight="1">
+    <row r="319">
       <c r="A319" s="10"/>
       <c r="B319" s="10"/>
       <c r="C319" s="10"/>
@@ -6693,7 +6802,7 @@
       <c r="P319" s="10"/>
       <c r="Q319" s="10"/>
     </row>
-    <row r="320" ht="13.5" customHeight="1">
+    <row r="320">
       <c r="A320" s="10"/>
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
@@ -6712,7 +6821,7 @@
       <c r="P320" s="10"/>
       <c r="Q320" s="10"/>
     </row>
-    <row r="321" ht="13.5" customHeight="1">
+    <row r="321">
       <c r="A321" s="10"/>
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
@@ -6731,7 +6840,7 @@
       <c r="P321" s="10"/>
       <c r="Q321" s="10"/>
     </row>
-    <row r="322" ht="13.5" customHeight="1">
+    <row r="322">
       <c r="A322" s="10"/>
       <c r="B322" s="10"/>
       <c r="C322" s="10"/>
@@ -6750,7 +6859,7 @@
       <c r="P322" s="10"/>
       <c r="Q322" s="10"/>
     </row>
-    <row r="323" ht="13.5" customHeight="1">
+    <row r="323">
       <c r="A323" s="10"/>
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
@@ -6769,7 +6878,7 @@
       <c r="P323" s="10"/>
       <c r="Q323" s="10"/>
     </row>
-    <row r="324" ht="13.5" customHeight="1">
+    <row r="324">
       <c r="A324" s="10"/>
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
@@ -6788,7 +6897,7 @@
       <c r="P324" s="10"/>
       <c r="Q324" s="10"/>
     </row>
-    <row r="325" ht="13.5" customHeight="1">
+    <row r="325">
       <c r="A325" s="10"/>
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
@@ -6807,7 +6916,7 @@
       <c r="P325" s="10"/>
       <c r="Q325" s="10"/>
     </row>
-    <row r="326" ht="13.5" customHeight="1">
+    <row r="326">
       <c r="A326" s="10"/>
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
@@ -6826,7 +6935,7 @@
       <c r="P326" s="10"/>
       <c r="Q326" s="10"/>
     </row>
-    <row r="327" ht="13.5" customHeight="1">
+    <row r="327">
       <c r="A327" s="10"/>
       <c r="B327" s="10"/>
       <c r="C327" s="10"/>
@@ -6845,7 +6954,7 @@
       <c r="P327" s="10"/>
       <c r="Q327" s="10"/>
     </row>
-    <row r="328" ht="13.5" customHeight="1">
+    <row r="328">
       <c r="A328" s="10"/>
       <c r="B328" s="10"/>
       <c r="C328" s="10"/>
@@ -6864,7 +6973,7 @@
       <c r="P328" s="10"/>
       <c r="Q328" s="10"/>
     </row>
-    <row r="329" ht="13.5" customHeight="1">
+    <row r="329">
       <c r="A329" s="10"/>
       <c r="B329" s="10"/>
       <c r="C329" s="10"/>
@@ -6883,7 +6992,7 @@
       <c r="P329" s="10"/>
       <c r="Q329" s="10"/>
     </row>
-    <row r="330" ht="13.5" customHeight="1">
+    <row r="330">
       <c r="A330" s="10"/>
       <c r="B330" s="10"/>
       <c r="C330" s="10"/>
@@ -6902,7 +7011,7 @@
       <c r="P330" s="10"/>
       <c r="Q330" s="10"/>
     </row>
-    <row r="331" ht="13.5" customHeight="1">
+    <row r="331">
       <c r="A331" s="10"/>
       <c r="B331" s="10"/>
       <c r="C331" s="10"/>
@@ -6921,7 +7030,7 @@
       <c r="P331" s="10"/>
       <c r="Q331" s="10"/>
     </row>
-    <row r="332" ht="13.5" customHeight="1">
+    <row r="332">
       <c r="A332" s="10"/>
       <c r="B332" s="10"/>
       <c r="C332" s="10"/>
@@ -6940,7 +7049,7 @@
       <c r="P332" s="10"/>
       <c r="Q332" s="10"/>
     </row>
-    <row r="333" ht="13.5" customHeight="1">
+    <row r="333">
       <c r="A333" s="10"/>
       <c r="B333" s="10"/>
       <c r="C333" s="10"/>
@@ -6959,7 +7068,7 @@
       <c r="P333" s="10"/>
       <c r="Q333" s="10"/>
     </row>
-    <row r="334" ht="13.5" customHeight="1">
+    <row r="334">
       <c r="A334" s="10"/>
       <c r="B334" s="10"/>
       <c r="C334" s="10"/>
@@ -6978,7 +7087,7 @@
       <c r="P334" s="10"/>
       <c r="Q334" s="10"/>
     </row>
-    <row r="335" ht="13.5" customHeight="1">
+    <row r="335">
       <c r="A335" s="10"/>
       <c r="B335" s="10"/>
       <c r="C335" s="10"/>
@@ -6997,7 +7106,7 @@
       <c r="P335" s="10"/>
       <c r="Q335" s="10"/>
     </row>
-    <row r="336" ht="13.5" customHeight="1">
+    <row r="336">
       <c r="A336" s="10"/>
       <c r="B336" s="10"/>
       <c r="C336" s="10"/>
@@ -7016,7 +7125,7 @@
       <c r="P336" s="10"/>
       <c r="Q336" s="10"/>
     </row>
-    <row r="337" ht="13.5" customHeight="1">
+    <row r="337">
       <c r="A337" s="10"/>
       <c r="B337" s="10"/>
       <c r="C337" s="10"/>
@@ -7035,7 +7144,7 @@
       <c r="P337" s="10"/>
       <c r="Q337" s="10"/>
     </row>
-    <row r="338" ht="13.5" customHeight="1">
+    <row r="338">
       <c r="A338" s="10"/>
       <c r="B338" s="10"/>
       <c r="C338" s="10"/>
@@ -7054,7 +7163,7 @@
       <c r="P338" s="10"/>
       <c r="Q338" s="10"/>
     </row>
-    <row r="339" ht="13.5" customHeight="1">
+    <row r="339">
       <c r="A339" s="10"/>
       <c r="B339" s="10"/>
       <c r="C339" s="10"/>
@@ -7073,7 +7182,7 @@
       <c r="P339" s="10"/>
       <c r="Q339" s="10"/>
     </row>
-    <row r="340" ht="13.5" customHeight="1">
+    <row r="340">
       <c r="A340" s="10"/>
       <c r="B340" s="10"/>
       <c r="C340" s="10"/>
@@ -7092,7 +7201,7 @@
       <c r="P340" s="10"/>
       <c r="Q340" s="10"/>
     </row>
-    <row r="341" ht="13.5" customHeight="1">
+    <row r="341">
       <c r="A341" s="10"/>
       <c r="B341" s="10"/>
       <c r="C341" s="10"/>
@@ -7111,7 +7220,7 @@
       <c r="P341" s="10"/>
       <c r="Q341" s="10"/>
     </row>
-    <row r="342" ht="13.5" customHeight="1">
+    <row r="342">
       <c r="A342" s="10"/>
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
@@ -7130,7 +7239,7 @@
       <c r="P342" s="10"/>
       <c r="Q342" s="10"/>
     </row>
-    <row r="343" ht="13.5" customHeight="1">
+    <row r="343">
       <c r="A343" s="10"/>
       <c r="B343" s="10"/>
       <c r="C343" s="10"/>
@@ -7149,7 +7258,7 @@
       <c r="P343" s="10"/>
       <c r="Q343" s="10"/>
     </row>
-    <row r="344" ht="13.5" customHeight="1">
+    <row r="344">
       <c r="A344" s="10"/>
       <c r="B344" s="10"/>
       <c r="C344" s="10"/>
@@ -7168,7 +7277,7 @@
       <c r="P344" s="10"/>
       <c r="Q344" s="10"/>
     </row>
-    <row r="345" ht="13.5" customHeight="1">
+    <row r="345">
       <c r="A345" s="10"/>
       <c r="B345" s="10"/>
       <c r="C345" s="10"/>
@@ -7187,7 +7296,7 @@
       <c r="P345" s="10"/>
       <c r="Q345" s="10"/>
     </row>
-    <row r="346" ht="13.5" customHeight="1">
+    <row r="346">
       <c r="A346" s="10"/>
       <c r="B346" s="10"/>
       <c r="C346" s="10"/>
@@ -7206,7 +7315,7 @@
       <c r="P346" s="10"/>
       <c r="Q346" s="10"/>
     </row>
-    <row r="347" ht="13.5" customHeight="1">
+    <row r="347">
       <c r="A347" s="10"/>
       <c r="B347" s="10"/>
       <c r="C347" s="10"/>
@@ -7225,7 +7334,7 @@
       <c r="P347" s="10"/>
       <c r="Q347" s="10"/>
     </row>
-    <row r="348" ht="13.5" customHeight="1">
+    <row r="348">
       <c r="A348" s="10"/>
       <c r="B348" s="10"/>
       <c r="C348" s="10"/>
@@ -7244,7 +7353,7 @@
       <c r="P348" s="10"/>
       <c r="Q348" s="10"/>
     </row>
-    <row r="349" ht="13.5" customHeight="1">
+    <row r="349">
       <c r="A349" s="10"/>
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
@@ -7263,7 +7372,7 @@
       <c r="P349" s="10"/>
       <c r="Q349" s="10"/>
     </row>
-    <row r="350" ht="13.5" customHeight="1">
+    <row r="350">
       <c r="A350" s="10"/>
       <c r="B350" s="10"/>
       <c r="C350" s="10"/>
@@ -7282,7 +7391,7 @@
       <c r="P350" s="10"/>
       <c r="Q350" s="10"/>
     </row>
-    <row r="351" ht="13.5" customHeight="1">
+    <row r="351">
       <c r="A351" s="10"/>
       <c r="B351" s="10"/>
       <c r="C351" s="10"/>
@@ -7301,7 +7410,7 @@
       <c r="P351" s="10"/>
       <c r="Q351" s="10"/>
     </row>
-    <row r="352" ht="13.5" customHeight="1">
+    <row r="352">
       <c r="A352" s="10"/>
       <c r="B352" s="10"/>
       <c r="C352" s="10"/>
@@ -7320,7 +7429,7 @@
       <c r="P352" s="10"/>
       <c r="Q352" s="10"/>
     </row>
-    <row r="353" ht="13.5" customHeight="1">
+    <row r="353">
       <c r="A353" s="10"/>
       <c r="B353" s="10"/>
       <c r="C353" s="10"/>
@@ -7339,7 +7448,7 @@
       <c r="P353" s="10"/>
       <c r="Q353" s="10"/>
     </row>
-    <row r="354" ht="13.5" customHeight="1">
+    <row r="354">
       <c r="A354" s="10"/>
       <c r="B354" s="10"/>
       <c r="C354" s="10"/>
@@ -7358,7 +7467,7 @@
       <c r="P354" s="10"/>
       <c r="Q354" s="10"/>
     </row>
-    <row r="355" ht="13.5" customHeight="1">
+    <row r="355">
       <c r="A355" s="10"/>
       <c r="B355" s="10"/>
       <c r="C355" s="10"/>
@@ -7377,7 +7486,7 @@
       <c r="P355" s="10"/>
       <c r="Q355" s="10"/>
     </row>
-    <row r="356" ht="13.5" customHeight="1">
+    <row r="356">
       <c r="A356" s="10"/>
       <c r="B356" s="10"/>
       <c r="C356" s="10"/>
@@ -7396,7 +7505,7 @@
       <c r="P356" s="10"/>
       <c r="Q356" s="10"/>
     </row>
-    <row r="357" ht="13.5" customHeight="1">
+    <row r="357">
       <c r="A357" s="10"/>
       <c r="B357" s="10"/>
       <c r="C357" s="10"/>
@@ -7415,7 +7524,7 @@
       <c r="P357" s="10"/>
       <c r="Q357" s="10"/>
     </row>
-    <row r="358" ht="13.5" customHeight="1">
+    <row r="358">
       <c r="A358" s="10"/>
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
@@ -7434,7 +7543,7 @@
       <c r="P358" s="10"/>
       <c r="Q358" s="10"/>
     </row>
-    <row r="359" ht="13.5" customHeight="1">
+    <row r="359">
       <c r="A359" s="10"/>
       <c r="B359" s="10"/>
       <c r="C359" s="10"/>
@@ -7453,7 +7562,7 @@
       <c r="P359" s="10"/>
       <c r="Q359" s="10"/>
     </row>
-    <row r="360" ht="13.5" customHeight="1">
+    <row r="360">
       <c r="A360" s="10"/>
       <c r="B360" s="10"/>
       <c r="C360" s="10"/>
@@ -7472,7 +7581,7 @@
       <c r="P360" s="10"/>
       <c r="Q360" s="10"/>
     </row>
-    <row r="361" ht="13.5" customHeight="1">
+    <row r="361">
       <c r="A361" s="10"/>
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
@@ -7491,7 +7600,7 @@
       <c r="P361" s="10"/>
       <c r="Q361" s="10"/>
     </row>
-    <row r="362" ht="13.5" customHeight="1">
+    <row r="362">
       <c r="A362" s="10"/>
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
@@ -7510,7 +7619,7 @@
       <c r="P362" s="10"/>
       <c r="Q362" s="10"/>
     </row>
-    <row r="363" ht="13.5" customHeight="1">
+    <row r="363">
       <c r="A363" s="10"/>
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
@@ -7529,7 +7638,7 @@
       <c r="P363" s="10"/>
       <c r="Q363" s="10"/>
     </row>
-    <row r="364" ht="13.5" customHeight="1">
+    <row r="364">
       <c r="A364" s="10"/>
       <c r="B364" s="10"/>
       <c r="C364" s="10"/>
@@ -7548,7 +7657,7 @@
       <c r="P364" s="10"/>
       <c r="Q364" s="10"/>
     </row>
-    <row r="365" ht="13.5" customHeight="1">
+    <row r="365">
       <c r="A365" s="10"/>
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
@@ -7567,7 +7676,7 @@
       <c r="P365" s="10"/>
       <c r="Q365" s="10"/>
     </row>
-    <row r="366" ht="13.5" customHeight="1">
+    <row r="366">
       <c r="A366" s="10"/>
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
@@ -7586,7 +7695,7 @@
       <c r="P366" s="10"/>
       <c r="Q366" s="10"/>
     </row>
-    <row r="367" ht="13.5" customHeight="1">
+    <row r="367">
       <c r="A367" s="10"/>
       <c r="B367" s="10"/>
       <c r="C367" s="10"/>
@@ -7605,7 +7714,7 @@
       <c r="P367" s="10"/>
       <c r="Q367" s="10"/>
     </row>
-    <row r="368" ht="13.5" customHeight="1">
+    <row r="368">
       <c r="A368" s="10"/>
       <c r="B368" s="10"/>
       <c r="C368" s="10"/>
@@ -7624,7 +7733,7 @@
       <c r="P368" s="10"/>
       <c r="Q368" s="10"/>
     </row>
-    <row r="369" ht="13.5" customHeight="1">
+    <row r="369">
       <c r="A369" s="10"/>
       <c r="B369" s="10"/>
       <c r="C369" s="10"/>
@@ -7643,7 +7752,7 @@
       <c r="P369" s="10"/>
       <c r="Q369" s="10"/>
     </row>
-    <row r="370" ht="13.5" customHeight="1">
+    <row r="370">
       <c r="A370" s="10"/>
       <c r="B370" s="10"/>
       <c r="C370" s="10"/>
@@ -7662,7 +7771,7 @@
       <c r="P370" s="10"/>
       <c r="Q370" s="10"/>
     </row>
-    <row r="371" ht="13.5" customHeight="1">
+    <row r="371">
       <c r="A371" s="10"/>
       <c r="B371" s="10"/>
       <c r="C371" s="10"/>
@@ -7681,7 +7790,7 @@
       <c r="P371" s="10"/>
       <c r="Q371" s="10"/>
     </row>
-    <row r="372" ht="13.5" customHeight="1">
+    <row r="372">
       <c r="A372" s="10"/>
       <c r="B372" s="10"/>
       <c r="C372" s="10"/>
@@ -7700,7 +7809,7 @@
       <c r="P372" s="10"/>
       <c r="Q372" s="10"/>
     </row>
-    <row r="373" ht="13.5" customHeight="1">
+    <row r="373">
       <c r="A373" s="10"/>
       <c r="B373" s="10"/>
       <c r="C373" s="10"/>
@@ -7719,7 +7828,7 @@
       <c r="P373" s="10"/>
       <c r="Q373" s="10"/>
     </row>
-    <row r="374" ht="13.5" customHeight="1">
+    <row r="374">
       <c r="A374" s="10"/>
       <c r="B374" s="10"/>
       <c r="C374" s="10"/>
@@ -7738,7 +7847,7 @@
       <c r="P374" s="10"/>
       <c r="Q374" s="10"/>
     </row>
-    <row r="375" ht="13.5" customHeight="1">
+    <row r="375">
       <c r="A375" s="10"/>
       <c r="B375" s="10"/>
       <c r="C375" s="10"/>
@@ -7757,7 +7866,7 @@
       <c r="P375" s="10"/>
       <c r="Q375" s="10"/>
     </row>
-    <row r="376" ht="13.5" customHeight="1">
+    <row r="376">
       <c r="A376" s="10"/>
       <c r="B376" s="10"/>
       <c r="C376" s="10"/>
@@ -7776,7 +7885,7 @@
       <c r="P376" s="10"/>
       <c r="Q376" s="10"/>
     </row>
-    <row r="377" ht="13.5" customHeight="1">
+    <row r="377">
       <c r="A377" s="10"/>
       <c r="B377" s="10"/>
       <c r="C377" s="10"/>
@@ -7795,7 +7904,7 @@
       <c r="P377" s="10"/>
       <c r="Q377" s="10"/>
     </row>
-    <row r="378" ht="13.5" customHeight="1">
+    <row r="378">
       <c r="A378" s="10"/>
       <c r="B378" s="10"/>
       <c r="C378" s="10"/>
@@ -7814,7 +7923,7 @@
       <c r="P378" s="10"/>
       <c r="Q378" s="10"/>
     </row>
-    <row r="379" ht="13.5" customHeight="1">
+    <row r="379">
       <c r="A379" s="10"/>
       <c r="B379" s="10"/>
       <c r="C379" s="10"/>
@@ -7833,7 +7942,7 @@
       <c r="P379" s="10"/>
       <c r="Q379" s="10"/>
     </row>
-    <row r="380" ht="13.5" customHeight="1">
+    <row r="380">
       <c r="A380" s="10"/>
       <c r="B380" s="10"/>
       <c r="C380" s="10"/>
@@ -7852,7 +7961,7 @@
       <c r="P380" s="10"/>
       <c r="Q380" s="10"/>
     </row>
-    <row r="381" ht="13.5" customHeight="1">
+    <row r="381">
       <c r="A381" s="10"/>
       <c r="B381" s="10"/>
       <c r="C381" s="10"/>
@@ -7871,7 +7980,7 @@
       <c r="P381" s="10"/>
       <c r="Q381" s="10"/>
     </row>
-    <row r="382" ht="13.5" customHeight="1">
+    <row r="382">
       <c r="A382" s="10"/>
       <c r="B382" s="10"/>
       <c r="C382" s="10"/>
@@ -7890,7 +7999,7 @@
       <c r="P382" s="10"/>
       <c r="Q382" s="10"/>
     </row>
-    <row r="383" ht="13.5" customHeight="1">
+    <row r="383">
       <c r="A383" s="10"/>
       <c r="B383" s="10"/>
       <c r="C383" s="10"/>
@@ -7909,7 +8018,7 @@
       <c r="P383" s="10"/>
       <c r="Q383" s="10"/>
     </row>
-    <row r="384" ht="13.5" customHeight="1">
+    <row r="384">
       <c r="A384" s="10"/>
       <c r="B384" s="10"/>
       <c r="C384" s="10"/>
@@ -7928,7 +8037,7 @@
       <c r="P384" s="10"/>
       <c r="Q384" s="10"/>
     </row>
-    <row r="385" ht="13.5" customHeight="1">
+    <row r="385">
       <c r="A385" s="10"/>
       <c r="B385" s="10"/>
       <c r="C385" s="10"/>
@@ -7947,7 +8056,7 @@
       <c r="P385" s="10"/>
       <c r="Q385" s="10"/>
     </row>
-    <row r="386" ht="13.5" customHeight="1">
+    <row r="386">
       <c r="A386" s="10"/>
       <c r="B386" s="10"/>
       <c r="C386" s="10"/>
@@ -7966,7 +8075,7 @@
       <c r="P386" s="10"/>
       <c r="Q386" s="10"/>
     </row>
-    <row r="387" ht="13.5" customHeight="1">
+    <row r="387">
       <c r="A387" s="10"/>
       <c r="B387" s="10"/>
       <c r="C387" s="10"/>
@@ -7985,7 +8094,7 @@
       <c r="P387" s="10"/>
       <c r="Q387" s="10"/>
     </row>
-    <row r="388" ht="13.5" customHeight="1">
+    <row r="388">
       <c r="A388" s="10"/>
       <c r="B388" s="10"/>
       <c r="C388" s="10"/>
@@ -8004,7 +8113,7 @@
       <c r="P388" s="10"/>
       <c r="Q388" s="10"/>
     </row>
-    <row r="389" ht="13.5" customHeight="1">
+    <row r="389">
       <c r="A389" s="10"/>
       <c r="B389" s="10"/>
       <c r="C389" s="10"/>
@@ -8023,7 +8132,7 @@
       <c r="P389" s="10"/>
       <c r="Q389" s="10"/>
     </row>
-    <row r="390" ht="13.5" customHeight="1">
+    <row r="390">
       <c r="A390" s="10"/>
       <c r="B390" s="10"/>
       <c r="C390" s="10"/>
@@ -8042,7 +8151,7 @@
       <c r="P390" s="10"/>
       <c r="Q390" s="10"/>
     </row>
-    <row r="391" ht="13.5" customHeight="1">
+    <row r="391">
       <c r="A391" s="10"/>
       <c r="B391" s="10"/>
       <c r="C391" s="10"/>
@@ -8061,7 +8170,7 @@
       <c r="P391" s="10"/>
       <c r="Q391" s="10"/>
     </row>
-    <row r="392" ht="13.5" customHeight="1">
+    <row r="392">
       <c r="A392" s="10"/>
       <c r="B392" s="10"/>
       <c r="C392" s="10"/>
@@ -8080,7 +8189,7 @@
       <c r="P392" s="10"/>
       <c r="Q392" s="10"/>
     </row>
-    <row r="393" ht="13.5" customHeight="1">
+    <row r="393">
       <c r="A393" s="10"/>
       <c r="B393" s="10"/>
       <c r="C393" s="10"/>
@@ -8099,7 +8208,7 @@
       <c r="P393" s="10"/>
       <c r="Q393" s="10"/>
     </row>
-    <row r="394" ht="13.5" customHeight="1">
+    <row r="394">
       <c r="A394" s="10"/>
       <c r="B394" s="10"/>
       <c r="C394" s="10"/>
@@ -8118,7 +8227,7 @@
       <c r="P394" s="10"/>
       <c r="Q394" s="10"/>
     </row>
-    <row r="395" ht="13.5" customHeight="1">
+    <row r="395">
       <c r="A395" s="10"/>
       <c r="B395" s="10"/>
       <c r="C395" s="10"/>
@@ -8137,7 +8246,7 @@
       <c r="P395" s="10"/>
       <c r="Q395" s="10"/>
     </row>
-    <row r="396" ht="13.5" customHeight="1">
+    <row r="396">
       <c r="A396" s="10"/>
       <c r="B396" s="10"/>
       <c r="C396" s="10"/>
@@ -8156,7 +8265,7 @@
       <c r="P396" s="10"/>
       <c r="Q396" s="10"/>
     </row>
-    <row r="397" ht="13.5" customHeight="1">
+    <row r="397">
       <c r="A397" s="10"/>
       <c r="B397" s="10"/>
       <c r="C397" s="10"/>
@@ -8175,7 +8284,7 @@
       <c r="P397" s="10"/>
       <c r="Q397" s="10"/>
     </row>
-    <row r="398" ht="13.5" customHeight="1">
+    <row r="398">
       <c r="A398" s="10"/>
       <c r="B398" s="10"/>
       <c r="C398" s="10"/>
@@ -8194,7 +8303,7 @@
       <c r="P398" s="10"/>
       <c r="Q398" s="10"/>
     </row>
-    <row r="399" ht="13.5" customHeight="1">
+    <row r="399">
       <c r="A399" s="10"/>
       <c r="B399" s="10"/>
       <c r="C399" s="10"/>
@@ -8213,7 +8322,7 @@
       <c r="P399" s="10"/>
       <c r="Q399" s="10"/>
     </row>
-    <row r="400" ht="13.5" customHeight="1">
+    <row r="400">
       <c r="A400" s="10"/>
       <c r="B400" s="10"/>
       <c r="C400" s="10"/>
@@ -8232,7 +8341,7 @@
       <c r="P400" s="10"/>
       <c r="Q400" s="10"/>
     </row>
-    <row r="401" ht="13.5" customHeight="1">
+    <row r="401">
       <c r="A401" s="10"/>
       <c r="B401" s="10"/>
       <c r="C401" s="10"/>
@@ -8251,7 +8360,7 @@
       <c r="P401" s="10"/>
       <c r="Q401" s="10"/>
     </row>
-    <row r="402" ht="13.5" customHeight="1">
+    <row r="402">
       <c r="A402" s="10"/>
       <c r="B402" s="10"/>
       <c r="C402" s="10"/>
@@ -8270,7 +8379,7 @@
       <c r="P402" s="10"/>
       <c r="Q402" s="10"/>
     </row>
-    <row r="403" ht="13.5" customHeight="1">
+    <row r="403">
       <c r="A403" s="10"/>
       <c r="B403" s="10"/>
       <c r="C403" s="10"/>
@@ -8289,7 +8398,7 @@
       <c r="P403" s="10"/>
       <c r="Q403" s="10"/>
     </row>
-    <row r="404" ht="13.5" customHeight="1">
+    <row r="404">
       <c r="A404" s="10"/>
       <c r="B404" s="10"/>
       <c r="C404" s="10"/>
@@ -8308,7 +8417,7 @@
       <c r="P404" s="10"/>
       <c r="Q404" s="10"/>
     </row>
-    <row r="405" ht="13.5" customHeight="1">
+    <row r="405">
       <c r="A405" s="10"/>
       <c r="B405" s="10"/>
       <c r="C405" s="10"/>
@@ -8327,7 +8436,7 @@
       <c r="P405" s="10"/>
       <c r="Q405" s="10"/>
     </row>
-    <row r="406" ht="13.5" customHeight="1">
+    <row r="406">
       <c r="A406" s="10"/>
       <c r="B406" s="10"/>
       <c r="C406" s="10"/>
@@ -8346,7 +8455,7 @@
       <c r="P406" s="10"/>
       <c r="Q406" s="10"/>
     </row>
-    <row r="407" ht="13.5" customHeight="1">
+    <row r="407">
       <c r="A407" s="10"/>
       <c r="B407" s="10"/>
       <c r="C407" s="10"/>
@@ -8365,7 +8474,7 @@
       <c r="P407" s="10"/>
       <c r="Q407" s="10"/>
     </row>
-    <row r="408" ht="13.5" customHeight="1">
+    <row r="408">
       <c r="A408" s="10"/>
       <c r="B408" s="10"/>
       <c r="C408" s="10"/>
@@ -8384,7 +8493,7 @@
       <c r="P408" s="10"/>
       <c r="Q408" s="10"/>
     </row>
-    <row r="409" ht="13.5" customHeight="1">
+    <row r="409">
       <c r="A409" s="10"/>
       <c r="B409" s="10"/>
       <c r="C409" s="10"/>
@@ -8403,7 +8512,7 @@
       <c r="P409" s="10"/>
       <c r="Q409" s="10"/>
     </row>
-    <row r="410" ht="13.5" customHeight="1">
+    <row r="410">
       <c r="A410" s="10"/>
       <c r="B410" s="10"/>
       <c r="C410" s="10"/>
@@ -8422,7 +8531,7 @@
       <c r="P410" s="10"/>
       <c r="Q410" s="10"/>
     </row>
-    <row r="411" ht="13.5" customHeight="1">
+    <row r="411">
       <c r="A411" s="10"/>
       <c r="B411" s="10"/>
       <c r="C411" s="10"/>
@@ -8441,7 +8550,7 @@
       <c r="P411" s="10"/>
       <c r="Q411" s="10"/>
     </row>
-    <row r="412" ht="13.5" customHeight="1">
+    <row r="412">
       <c r="A412" s="10"/>
       <c r="B412" s="10"/>
       <c r="C412" s="10"/>
@@ -8460,7 +8569,7 @@
       <c r="P412" s="10"/>
       <c r="Q412" s="10"/>
     </row>
-    <row r="413" ht="13.5" customHeight="1">
+    <row r="413">
       <c r="A413" s="10"/>
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
@@ -8479,7 +8588,7 @@
       <c r="P413" s="10"/>
       <c r="Q413" s="10"/>
     </row>
-    <row r="414" ht="13.5" customHeight="1">
+    <row r="414">
       <c r="A414" s="10"/>
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
@@ -8498,7 +8607,7 @@
       <c r="P414" s="10"/>
       <c r="Q414" s="10"/>
     </row>
-    <row r="415" ht="13.5" customHeight="1">
+    <row r="415">
       <c r="A415" s="10"/>
       <c r="B415" s="10"/>
       <c r="C415" s="10"/>
@@ -8517,7 +8626,7 @@
       <c r="P415" s="10"/>
       <c r="Q415" s="10"/>
     </row>
-    <row r="416" ht="13.5" customHeight="1">
+    <row r="416">
       <c r="A416" s="10"/>
       <c r="B416" s="10"/>
       <c r="C416" s="10"/>
@@ -8536,7 +8645,7 @@
       <c r="P416" s="10"/>
       <c r="Q416" s="10"/>
     </row>
-    <row r="417" ht="13.5" customHeight="1">
+    <row r="417">
       <c r="A417" s="10"/>
       <c r="B417" s="10"/>
       <c r="C417" s="10"/>
@@ -8555,7 +8664,7 @@
       <c r="P417" s="10"/>
       <c r="Q417" s="10"/>
     </row>
-    <row r="418" ht="13.5" customHeight="1">
+    <row r="418">
       <c r="A418" s="10"/>
       <c r="B418" s="10"/>
       <c r="C418" s="10"/>
@@ -8574,7 +8683,7 @@
       <c r="P418" s="10"/>
       <c r="Q418" s="10"/>
     </row>
-    <row r="419" ht="13.5" customHeight="1">
+    <row r="419">
       <c r="A419" s="10"/>
       <c r="B419" s="10"/>
       <c r="C419" s="10"/>
@@ -8593,7 +8702,7 @@
       <c r="P419" s="10"/>
       <c r="Q419" s="10"/>
     </row>
-    <row r="420" ht="13.5" customHeight="1">
+    <row r="420">
       <c r="A420" s="10"/>
       <c r="B420" s="10"/>
       <c r="C420" s="10"/>
@@ -8612,7 +8721,7 @@
       <c r="P420" s="10"/>
       <c r="Q420" s="10"/>
     </row>
-    <row r="421" ht="13.5" customHeight="1">
+    <row r="421">
       <c r="A421" s="10"/>
       <c r="B421" s="10"/>
       <c r="C421" s="10"/>
@@ -8631,7 +8740,7 @@
       <c r="P421" s="10"/>
       <c r="Q421" s="10"/>
     </row>
-    <row r="422" ht="13.5" customHeight="1">
+    <row r="422">
       <c r="A422" s="10"/>
       <c r="B422" s="10"/>
       <c r="C422" s="10"/>
@@ -8650,7 +8759,7 @@
       <c r="P422" s="10"/>
       <c r="Q422" s="10"/>
     </row>
-    <row r="423" ht="13.5" customHeight="1">
+    <row r="423">
       <c r="A423" s="10"/>
       <c r="B423" s="10"/>
       <c r="C423" s="10"/>
@@ -8669,7 +8778,7 @@
       <c r="P423" s="10"/>
       <c r="Q423" s="10"/>
     </row>
-    <row r="424" ht="13.5" customHeight="1">
+    <row r="424">
       <c r="A424" s="10"/>
       <c r="B424" s="10"/>
       <c r="C424" s="10"/>
@@ -8688,7 +8797,7 @@
       <c r="P424" s="10"/>
       <c r="Q424" s="10"/>
     </row>
-    <row r="425" ht="13.5" customHeight="1">
+    <row r="425">
       <c r="A425" s="10"/>
       <c r="B425" s="10"/>
       <c r="C425" s="10"/>
@@ -8707,7 +8816,7 @@
       <c r="P425" s="10"/>
       <c r="Q425" s="10"/>
     </row>
-    <row r="426" ht="13.5" customHeight="1">
+    <row r="426">
       <c r="A426" s="10"/>
       <c r="B426" s="10"/>
       <c r="C426" s="10"/>
@@ -8726,7 +8835,7 @@
       <c r="P426" s="10"/>
       <c r="Q426" s="10"/>
     </row>
-    <row r="427" ht="13.5" customHeight="1">
+    <row r="427">
       <c r="A427" s="10"/>
       <c r="B427" s="10"/>
       <c r="C427" s="10"/>
@@ -8745,7 +8854,7 @@
       <c r="P427" s="10"/>
       <c r="Q427" s="10"/>
     </row>
-    <row r="428" ht="13.5" customHeight="1">
+    <row r="428">
       <c r="A428" s="10"/>
       <c r="B428" s="10"/>
       <c r="C428" s="10"/>
@@ -8764,7 +8873,7 @@
       <c r="P428" s="10"/>
       <c r="Q428" s="10"/>
     </row>
-    <row r="429" ht="13.5" customHeight="1">
+    <row r="429">
       <c r="A429" s="10"/>
       <c r="B429" s="10"/>
       <c r="C429" s="10"/>
@@ -8783,7 +8892,7 @@
       <c r="P429" s="10"/>
       <c r="Q429" s="10"/>
     </row>
-    <row r="430" ht="13.5" customHeight="1">
+    <row r="430">
       <c r="A430" s="10"/>
       <c r="B430" s="10"/>
       <c r="C430" s="10"/>
@@ -8802,7 +8911,7 @@
       <c r="P430" s="10"/>
       <c r="Q430" s="10"/>
     </row>
-    <row r="431" ht="13.5" customHeight="1">
+    <row r="431">
       <c r="A431" s="10"/>
       <c r="B431" s="10"/>
       <c r="C431" s="10"/>
@@ -8821,7 +8930,7 @@
       <c r="P431" s="10"/>
       <c r="Q431" s="10"/>
     </row>
-    <row r="432" ht="13.5" customHeight="1">
+    <row r="432">
       <c r="A432" s="10"/>
       <c r="B432" s="10"/>
       <c r="C432" s="10"/>
@@ -8840,7 +8949,7 @@
       <c r="P432" s="10"/>
       <c r="Q432" s="10"/>
     </row>
-    <row r="433" ht="13.5" customHeight="1">
+    <row r="433">
       <c r="A433" s="10"/>
       <c r="B433" s="10"/>
       <c r="C433" s="10"/>
@@ -8859,7 +8968,7 @@
       <c r="P433" s="10"/>
       <c r="Q433" s="10"/>
     </row>
-    <row r="434" ht="13.5" customHeight="1">
+    <row r="434">
       <c r="A434" s="10"/>
       <c r="B434" s="10"/>
       <c r="C434" s="10"/>
@@ -8878,7 +8987,7 @@
       <c r="P434" s="10"/>
       <c r="Q434" s="10"/>
     </row>
-    <row r="435" ht="13.5" customHeight="1">
+    <row r="435">
       <c r="A435" s="10"/>
       <c r="B435" s="10"/>
       <c r="C435" s="10"/>
@@ -8897,7 +9006,7 @@
       <c r="P435" s="10"/>
       <c r="Q435" s="10"/>
     </row>
-    <row r="436" ht="13.5" customHeight="1">
+    <row r="436">
       <c r="A436" s="10"/>
       <c r="B436" s="10"/>
       <c r="C436" s="10"/>
@@ -8916,7 +9025,7 @@
       <c r="P436" s="10"/>
       <c r="Q436" s="10"/>
     </row>
-    <row r="437" ht="13.5" customHeight="1">
+    <row r="437">
       <c r="A437" s="10"/>
       <c r="B437" s="10"/>
       <c r="C437" s="10"/>
@@ -8935,7 +9044,7 @@
       <c r="P437" s="10"/>
       <c r="Q437" s="10"/>
     </row>
-    <row r="438" ht="13.5" customHeight="1">
+    <row r="438">
       <c r="A438" s="10"/>
       <c r="B438" s="10"/>
       <c r="C438" s="10"/>
@@ -8954,7 +9063,7 @@
       <c r="P438" s="10"/>
       <c r="Q438" s="10"/>
     </row>
-    <row r="439" ht="13.5" customHeight="1">
+    <row r="439">
       <c r="A439" s="10"/>
       <c r="B439" s="10"/>
       <c r="C439" s="10"/>
@@ -8973,7 +9082,7 @@
       <c r="P439" s="10"/>
       <c r="Q439" s="10"/>
     </row>
-    <row r="440" ht="13.5" customHeight="1">
+    <row r="440">
       <c r="A440" s="10"/>
       <c r="B440" s="10"/>
       <c r="C440" s="10"/>
@@ -8992,7 +9101,7 @@
       <c r="P440" s="10"/>
       <c r="Q440" s="10"/>
     </row>
-    <row r="441" ht="13.5" customHeight="1">
+    <row r="441">
       <c r="A441" s="10"/>
       <c r="B441" s="10"/>
       <c r="C441" s="10"/>
@@ -9011,7 +9120,7 @@
       <c r="P441" s="10"/>
       <c r="Q441" s="10"/>
     </row>
-    <row r="442" ht="13.5" customHeight="1">
+    <row r="442">
       <c r="A442" s="10"/>
       <c r="B442" s="10"/>
       <c r="C442" s="10"/>
@@ -9030,7 +9139,7 @@
       <c r="P442" s="10"/>
       <c r="Q442" s="10"/>
     </row>
-    <row r="443" ht="13.5" customHeight="1">
+    <row r="443">
       <c r="A443" s="10"/>
       <c r="B443" s="10"/>
       <c r="C443" s="10"/>
@@ -9049,7 +9158,7 @@
       <c r="P443" s="10"/>
       <c r="Q443" s="10"/>
     </row>
-    <row r="444" ht="13.5" customHeight="1">
+    <row r="444">
       <c r="A444" s="10"/>
       <c r="B444" s="10"/>
       <c r="C444" s="10"/>
@@ -9068,7 +9177,7 @@
       <c r="P444" s="10"/>
       <c r="Q444" s="10"/>
     </row>
-    <row r="445" ht="13.5" customHeight="1">
+    <row r="445">
       <c r="A445" s="10"/>
       <c r="B445" s="10"/>
       <c r="C445" s="10"/>
@@ -9087,7 +9196,7 @@
       <c r="P445" s="10"/>
       <c r="Q445" s="10"/>
     </row>
-    <row r="446" ht="13.5" customHeight="1">
+    <row r="446">
       <c r="A446" s="10"/>
       <c r="B446" s="10"/>
       <c r="C446" s="10"/>
@@ -9106,7 +9215,7 @@
       <c r="P446" s="10"/>
       <c r="Q446" s="10"/>
     </row>
-    <row r="447" ht="13.5" customHeight="1">
+    <row r="447">
       <c r="A447" s="10"/>
       <c r="B447" s="10"/>
       <c r="C447" s="10"/>
@@ -9125,7 +9234,7 @@
       <c r="P447" s="10"/>
       <c r="Q447" s="10"/>
     </row>
-    <row r="448" ht="13.5" customHeight="1">
+    <row r="448">
       <c r="A448" s="10"/>
       <c r="B448" s="10"/>
       <c r="C448" s="10"/>
@@ -9144,7 +9253,7 @@
       <c r="P448" s="10"/>
       <c r="Q448" s="10"/>
     </row>
-    <row r="449" ht="13.5" customHeight="1">
+    <row r="449">
       <c r="A449" s="10"/>
       <c r="B449" s="10"/>
       <c r="C449" s="10"/>
@@ -9163,7 +9272,7 @@
       <c r="P449" s="10"/>
       <c r="Q449" s="10"/>
     </row>
-    <row r="450" ht="13.5" customHeight="1">
+    <row r="450">
       <c r="A450" s="10"/>
       <c r="B450" s="10"/>
       <c r="C450" s="10"/>
@@ -9182,7 +9291,7 @@
       <c r="P450" s="10"/>
       <c r="Q450" s="10"/>
     </row>
-    <row r="451" ht="13.5" customHeight="1">
+    <row r="451">
       <c r="A451" s="10"/>
       <c r="B451" s="10"/>
       <c r="C451" s="10"/>
@@ -9201,7 +9310,7 @@
       <c r="P451" s="10"/>
       <c r="Q451" s="10"/>
     </row>
-    <row r="452" ht="13.5" customHeight="1">
+    <row r="452">
       <c r="A452" s="10"/>
       <c r="B452" s="10"/>
       <c r="C452" s="10"/>
@@ -9220,7 +9329,7 @@
       <c r="P452" s="10"/>
       <c r="Q452" s="10"/>
     </row>
-    <row r="453" ht="13.5" customHeight="1">
+    <row r="453">
       <c r="A453" s="10"/>
       <c r="B453" s="10"/>
       <c r="C453" s="10"/>
@@ -9239,7 +9348,7 @@
       <c r="P453" s="10"/>
       <c r="Q453" s="10"/>
     </row>
-    <row r="454" ht="13.5" customHeight="1">
+    <row r="454">
       <c r="A454" s="10"/>
       <c r="B454" s="10"/>
       <c r="C454" s="10"/>
@@ -9258,7 +9367,7 @@
       <c r="P454" s="10"/>
       <c r="Q454" s="10"/>
     </row>
-    <row r="455" ht="13.5" customHeight="1">
+    <row r="455">
       <c r="A455" s="10"/>
       <c r="B455" s="10"/>
       <c r="C455" s="10"/>
@@ -9277,7 +9386,7 @@
       <c r="P455" s="10"/>
       <c r="Q455" s="10"/>
     </row>
-    <row r="456" ht="13.5" customHeight="1">
+    <row r="456">
       <c r="A456" s="10"/>
       <c r="B456" s="10"/>
       <c r="C456" s="10"/>
@@ -9296,7 +9405,7 @@
       <c r="P456" s="10"/>
       <c r="Q456" s="10"/>
     </row>
-    <row r="457" ht="13.5" customHeight="1">
+    <row r="457">
       <c r="A457" s="10"/>
       <c r="B457" s="10"/>
       <c r="C457" s="10"/>
@@ -9315,7 +9424,7 @@
       <c r="P457" s="10"/>
       <c r="Q457" s="10"/>
     </row>
-    <row r="458" ht="13.5" customHeight="1">
+    <row r="458">
       <c r="A458" s="10"/>
       <c r="B458" s="10"/>
       <c r="C458" s="10"/>
@@ -9334,7 +9443,7 @@
       <c r="P458" s="10"/>
       <c r="Q458" s="10"/>
     </row>
-    <row r="459" ht="13.5" customHeight="1">
+    <row r="459">
       <c r="A459" s="10"/>
       <c r="B459" s="10"/>
       <c r="C459" s="10"/>
@@ -9353,7 +9462,7 @@
       <c r="P459" s="10"/>
       <c r="Q459" s="10"/>
     </row>
-    <row r="460" ht="13.5" customHeight="1">
+    <row r="460">
       <c r="A460" s="10"/>
       <c r="B460" s="10"/>
       <c r="C460" s="10"/>
@@ -9372,7 +9481,7 @@
       <c r="P460" s="10"/>
       <c r="Q460" s="10"/>
     </row>
-    <row r="461" ht="13.5" customHeight="1">
+    <row r="461">
       <c r="A461" s="10"/>
       <c r="B461" s="10"/>
       <c r="C461" s="10"/>
@@ -9391,7 +9500,7 @@
       <c r="P461" s="10"/>
       <c r="Q461" s="10"/>
     </row>
-    <row r="462" ht="13.5" customHeight="1">
+    <row r="462">
       <c r="A462" s="10"/>
       <c r="B462" s="10"/>
       <c r="C462" s="10"/>
@@ -9410,7 +9519,7 @@
       <c r="P462" s="10"/>
       <c r="Q462" s="10"/>
     </row>
-    <row r="463" ht="13.5" customHeight="1">
+    <row r="463">
       <c r="A463" s="10"/>
       <c r="B463" s="10"/>
       <c r="C463" s="10"/>
@@ -9429,7 +9538,7 @@
       <c r="P463" s="10"/>
       <c r="Q463" s="10"/>
     </row>
-    <row r="464" ht="13.5" customHeight="1">
+    <row r="464">
       <c r="A464" s="10"/>
       <c r="B464" s="10"/>
       <c r="C464" s="10"/>
@@ -9448,7 +9557,7 @@
       <c r="P464" s="10"/>
       <c r="Q464" s="10"/>
     </row>
-    <row r="465" ht="13.5" customHeight="1">
+    <row r="465">
       <c r="A465" s="10"/>
       <c r="B465" s="10"/>
       <c r="C465" s="10"/>
@@ -9467,7 +9576,7 @@
       <c r="P465" s="10"/>
       <c r="Q465" s="10"/>
     </row>
-    <row r="466" ht="13.5" customHeight="1">
+    <row r="466">
       <c r="A466" s="10"/>
       <c r="B466" s="10"/>
       <c r="C466" s="10"/>
@@ -9486,7 +9595,7 @@
       <c r="P466" s="10"/>
       <c r="Q466" s="10"/>
     </row>
-    <row r="467" ht="13.5" customHeight="1">
+    <row r="467">
       <c r="A467" s="10"/>
       <c r="B467" s="10"/>
       <c r="C467" s="10"/>
@@ -9505,7 +9614,7 @@
       <c r="P467" s="10"/>
       <c r="Q467" s="10"/>
     </row>
-    <row r="468" ht="13.5" customHeight="1">
+    <row r="468">
       <c r="A468" s="10"/>
       <c r="B468" s="10"/>
       <c r="C468" s="10"/>
@@ -9524,7 +9633,7 @@
       <c r="P468" s="10"/>
       <c r="Q468" s="10"/>
     </row>
-    <row r="469" ht="13.5" customHeight="1">
+    <row r="469">
       <c r="A469" s="10"/>
       <c r="B469" s="10"/>
       <c r="C469" s="10"/>
@@ -9543,7 +9652,7 @@
       <c r="P469" s="10"/>
       <c r="Q469" s="10"/>
     </row>
-    <row r="470" ht="13.5" customHeight="1">
+    <row r="470">
       <c r="A470" s="10"/>
       <c r="B470" s="10"/>
       <c r="C470" s="10"/>
@@ -9562,7 +9671,7 @@
       <c r="P470" s="10"/>
       <c r="Q470" s="10"/>
     </row>
-    <row r="471" ht="13.5" customHeight="1">
+    <row r="471">
       <c r="A471" s="10"/>
       <c r="B471" s="10"/>
       <c r="C471" s="10"/>
@@ -9581,7 +9690,7 @@
       <c r="P471" s="10"/>
       <c r="Q471" s="10"/>
     </row>
-    <row r="472" ht="13.5" customHeight="1">
+    <row r="472">
       <c r="A472" s="10"/>
       <c r="B472" s="10"/>
       <c r="C472" s="10"/>
@@ -9600,7 +9709,7 @@
       <c r="P472" s="10"/>
       <c r="Q472" s="10"/>
     </row>
-    <row r="473" ht="13.5" customHeight="1">
+    <row r="473">
       <c r="A473" s="10"/>
       <c r="B473" s="10"/>
       <c r="C473" s="10"/>
@@ -9619,7 +9728,7 @@
       <c r="P473" s="10"/>
       <c r="Q473" s="10"/>
     </row>
-    <row r="474" ht="13.5" customHeight="1">
+    <row r="474">
       <c r="A474" s="10"/>
       <c r="B474" s="10"/>
       <c r="C474" s="10"/>
@@ -9638,7 +9747,7 @@
       <c r="P474" s="10"/>
       <c r="Q474" s="10"/>
     </row>
-    <row r="475" ht="13.5" customHeight="1">
+    <row r="475">
       <c r="A475" s="10"/>
       <c r="B475" s="10"/>
       <c r="C475" s="10"/>
@@ -9657,7 +9766,7 @@
       <c r="P475" s="10"/>
       <c r="Q475" s="10"/>
     </row>
-    <row r="476" ht="13.5" customHeight="1">
+    <row r="476">
       <c r="A476" s="10"/>
       <c r="B476" s="10"/>
       <c r="C476" s="10"/>
@@ -9676,7 +9785,7 @@
       <c r="P476" s="10"/>
       <c r="Q476" s="10"/>
     </row>
-    <row r="477" ht="13.5" customHeight="1">
+    <row r="477">
       <c r="A477" s="10"/>
       <c r="B477" s="10"/>
       <c r="C477" s="10"/>
@@ -9695,7 +9804,7 @@
       <c r="P477" s="10"/>
       <c r="Q477" s="10"/>
     </row>
-    <row r="478" ht="13.5" customHeight="1">
+    <row r="478">
       <c r="A478" s="10"/>
       <c r="B478" s="10"/>
       <c r="C478" s="10"/>
@@ -9714,7 +9823,7 @@
       <c r="P478" s="10"/>
       <c r="Q478" s="10"/>
     </row>
-    <row r="479" ht="13.5" customHeight="1">
+    <row r="479">
       <c r="A479" s="10"/>
       <c r="B479" s="10"/>
       <c r="C479" s="10"/>
@@ -9733,7 +9842,7 @@
       <c r="P479" s="10"/>
       <c r="Q479" s="10"/>
     </row>
-    <row r="480" ht="13.5" customHeight="1">
+    <row r="480">
       <c r="A480" s="10"/>
       <c r="B480" s="10"/>
       <c r="C480" s="10"/>
@@ -9752,7 +9861,7 @@
       <c r="P480" s="10"/>
       <c r="Q480" s="10"/>
     </row>
-    <row r="481" ht="13.5" customHeight="1">
+    <row r="481">
       <c r="A481" s="10"/>
       <c r="B481" s="10"/>
       <c r="C481" s="10"/>
@@ -9771,7 +9880,7 @@
       <c r="P481" s="10"/>
       <c r="Q481" s="10"/>
     </row>
-    <row r="482" ht="13.5" customHeight="1">
+    <row r="482">
       <c r="A482" s="10"/>
       <c r="B482" s="10"/>
       <c r="C482" s="10"/>
@@ -9790,7 +9899,7 @@
       <c r="P482" s="10"/>
       <c r="Q482" s="10"/>
     </row>
-    <row r="483" ht="13.5" customHeight="1">
+    <row r="483">
       <c r="A483" s="10"/>
       <c r="B483" s="10"/>
       <c r="C483" s="10"/>
@@ -9809,7 +9918,7 @@
       <c r="P483" s="10"/>
       <c r="Q483" s="10"/>
     </row>
-    <row r="484" ht="13.5" customHeight="1">
+    <row r="484">
       <c r="A484" s="10"/>
       <c r="B484" s="10"/>
       <c r="C484" s="10"/>
@@ -9828,7 +9937,7 @@
       <c r="P484" s="10"/>
       <c r="Q484" s="10"/>
     </row>
-    <row r="485" ht="13.5" customHeight="1">
+    <row r="485">
       <c r="A485" s="10"/>
       <c r="B485" s="10"/>
       <c r="C485" s="10"/>
@@ -9847,7 +9956,7 @@
       <c r="P485" s="10"/>
       <c r="Q485" s="10"/>
     </row>
-    <row r="486" ht="13.5" customHeight="1">
+    <row r="486">
       <c r="A486" s="10"/>
       <c r="B486" s="10"/>
       <c r="C486" s="10"/>
@@ -9866,7 +9975,7 @@
       <c r="P486" s="10"/>
       <c r="Q486" s="10"/>
     </row>
-    <row r="487" ht="13.5" customHeight="1">
+    <row r="487">
       <c r="A487" s="10"/>
       <c r="B487" s="10"/>
       <c r="C487" s="10"/>
@@ -9885,7 +9994,7 @@
       <c r="P487" s="10"/>
       <c r="Q487" s="10"/>
     </row>
-    <row r="488" ht="13.5" customHeight="1">
+    <row r="488">
       <c r="A488" s="10"/>
       <c r="B488" s="10"/>
       <c r="C488" s="10"/>
@@ -9904,7 +10013,7 @@
       <c r="P488" s="10"/>
       <c r="Q488" s="10"/>
     </row>
-    <row r="489" ht="13.5" customHeight="1">
+    <row r="489">
       <c r="A489" s="10"/>
       <c r="B489" s="10"/>
       <c r="C489" s="10"/>
@@ -9923,7 +10032,7 @@
       <c r="P489" s="10"/>
       <c r="Q489" s="10"/>
     </row>
-    <row r="490" ht="13.5" customHeight="1">
+    <row r="490">
       <c r="A490" s="10"/>
       <c r="B490" s="10"/>
       <c r="C490" s="10"/>
@@ -9942,7 +10051,7 @@
       <c r="P490" s="10"/>
       <c r="Q490" s="10"/>
     </row>
-    <row r="491" ht="13.5" customHeight="1">
+    <row r="491">
       <c r="A491" s="10"/>
       <c r="B491" s="10"/>
       <c r="C491" s="10"/>
@@ -9961,7 +10070,7 @@
       <c r="P491" s="10"/>
       <c r="Q491" s="10"/>
     </row>
-    <row r="492" ht="13.5" customHeight="1">
+    <row r="492">
       <c r="A492" s="10"/>
       <c r="B492" s="10"/>
       <c r="C492" s="10"/>
@@ -9980,7 +10089,7 @@
       <c r="P492" s="10"/>
       <c r="Q492" s="10"/>
     </row>
-    <row r="493" ht="13.5" customHeight="1">
+    <row r="493">
       <c r="A493" s="10"/>
       <c r="B493" s="10"/>
       <c r="C493" s="10"/>
@@ -9999,7 +10108,7 @@
       <c r="P493" s="10"/>
       <c r="Q493" s="10"/>
     </row>
-    <row r="494" ht="13.5" customHeight="1">
+    <row r="494">
       <c r="A494" s="10"/>
       <c r="B494" s="10"/>
       <c r="C494" s="10"/>
@@ -10018,7 +10127,7 @@
       <c r="P494" s="10"/>
       <c r="Q494" s="10"/>
     </row>
-    <row r="495" ht="13.5" customHeight="1">
+    <row r="495">
       <c r="A495" s="10"/>
       <c r="B495" s="10"/>
       <c r="C495" s="10"/>
@@ -10037,7 +10146,7 @@
       <c r="P495" s="10"/>
       <c r="Q495" s="10"/>
     </row>
-    <row r="496" ht="13.5" customHeight="1">
+    <row r="496">
       <c r="A496" s="10"/>
       <c r="B496" s="10"/>
       <c r="C496" s="10"/>
@@ -10056,7 +10165,7 @@
       <c r="P496" s="10"/>
       <c r="Q496" s="10"/>
     </row>
-    <row r="497" ht="13.5" customHeight="1">
+    <row r="497">
       <c r="A497" s="10"/>
       <c r="B497" s="10"/>
       <c r="C497" s="10"/>
@@ -10075,7 +10184,7 @@
       <c r="P497" s="10"/>
       <c r="Q497" s="10"/>
     </row>
-    <row r="498" ht="13.5" customHeight="1">
+    <row r="498">
       <c r="A498" s="10"/>
       <c r="B498" s="10"/>
       <c r="C498" s="10"/>
@@ -10094,7 +10203,7 @@
       <c r="P498" s="10"/>
       <c r="Q498" s="10"/>
     </row>
-    <row r="499" ht="13.5" customHeight="1">
+    <row r="499">
       <c r="A499" s="10"/>
       <c r="B499" s="10"/>
       <c r="C499" s="10"/>
@@ -10113,7 +10222,7 @@
       <c r="P499" s="10"/>
       <c r="Q499" s="10"/>
     </row>
-    <row r="500" ht="13.5" customHeight="1">
+    <row r="500">
       <c r="A500" s="10"/>
       <c r="B500" s="10"/>
       <c r="C500" s="10"/>
@@ -10132,7 +10241,7 @@
       <c r="P500" s="10"/>
       <c r="Q500" s="10"/>
     </row>
-    <row r="501" ht="13.5" customHeight="1">
+    <row r="501">
       <c r="A501" s="10"/>
       <c r="B501" s="10"/>
       <c r="C501" s="10"/>
@@ -10151,7 +10260,7 @@
       <c r="P501" s="10"/>
       <c r="Q501" s="10"/>
     </row>
-    <row r="502" ht="13.5" customHeight="1">
+    <row r="502">
       <c r="A502" s="10"/>
       <c r="B502" s="10"/>
       <c r="C502" s="10"/>
@@ -10170,7 +10279,7 @@
       <c r="P502" s="10"/>
       <c r="Q502" s="10"/>
     </row>
-    <row r="503" ht="13.5" customHeight="1">
+    <row r="503">
       <c r="A503" s="10"/>
       <c r="B503" s="10"/>
       <c r="C503" s="10"/>
@@ -10189,7 +10298,7 @@
       <c r="P503" s="10"/>
       <c r="Q503" s="10"/>
     </row>
-    <row r="504" ht="13.5" customHeight="1">
+    <row r="504">
       <c r="A504" s="10"/>
       <c r="B504" s="10"/>
       <c r="C504" s="10"/>
@@ -10208,7 +10317,7 @@
       <c r="P504" s="10"/>
       <c r="Q504" s="10"/>
     </row>
-    <row r="505" ht="13.5" customHeight="1">
+    <row r="505">
       <c r="A505" s="10"/>
       <c r="B505" s="10"/>
       <c r="C505" s="10"/>
@@ -10227,7 +10336,7 @@
       <c r="P505" s="10"/>
       <c r="Q505" s="10"/>
     </row>
-    <row r="506" ht="13.5" customHeight="1">
+    <row r="506">
       <c r="A506" s="10"/>
       <c r="B506" s="10"/>
       <c r="C506" s="10"/>
@@ -10246,7 +10355,7 @@
       <c r="P506" s="10"/>
       <c r="Q506" s="10"/>
     </row>
-    <row r="507" ht="13.5" customHeight="1">
+    <row r="507">
       <c r="A507" s="10"/>
       <c r="B507" s="10"/>
       <c r="C507" s="10"/>
@@ -10265,7 +10374,7 @@
       <c r="P507" s="10"/>
       <c r="Q507" s="10"/>
     </row>
-    <row r="508" ht="13.5" customHeight="1">
+    <row r="508">
       <c r="A508" s="10"/>
       <c r="B508" s="10"/>
       <c r="C508" s="10"/>
@@ -10284,7 +10393,7 @@
       <c r="P508" s="10"/>
       <c r="Q508" s="10"/>
     </row>
-    <row r="509" ht="13.5" customHeight="1">
+    <row r="509">
       <c r="A509" s="10"/>
       <c r="B509" s="10"/>
       <c r="C509" s="10"/>
@@ -10303,7 +10412,7 @@
       <c r="P509" s="10"/>
       <c r="Q509" s="10"/>
     </row>
-    <row r="510" ht="13.5" customHeight="1">
+    <row r="510">
       <c r="A510" s="10"/>
       <c r="B510" s="10"/>
       <c r="C510" s="10"/>
@@ -10322,7 +10431,7 @@
       <c r="P510" s="10"/>
       <c r="Q510" s="10"/>
     </row>
-    <row r="511" ht="13.5" customHeight="1">
+    <row r="511">
       <c r="A511" s="10"/>
       <c r="B511" s="10"/>
       <c r="C511" s="10"/>
@@ -10341,7 +10450,7 @@
       <c r="P511" s="10"/>
       <c r="Q511" s="10"/>
     </row>
-    <row r="512" ht="13.5" customHeight="1">
+    <row r="512">
       <c r="A512" s="10"/>
       <c r="B512" s="10"/>
       <c r="C512" s="10"/>
@@ -10360,7 +10469,7 @@
       <c r="P512" s="10"/>
       <c r="Q512" s="10"/>
     </row>
-    <row r="513" ht="13.5" customHeight="1">
+    <row r="513">
       <c r="A513" s="10"/>
       <c r="B513" s="10"/>
       <c r="C513" s="10"/>
@@ -10379,7 +10488,7 @@
       <c r="P513" s="10"/>
       <c r="Q513" s="10"/>
     </row>
-    <row r="514" ht="13.5" customHeight="1">
+    <row r="514">
       <c r="A514" s="10"/>
       <c r="B514" s="10"/>
       <c r="C514" s="10"/>
@@ -10398,7 +10507,7 @@
       <c r="P514" s="10"/>
       <c r="Q514" s="10"/>
     </row>
-    <row r="515" ht="13.5" customHeight="1">
+    <row r="515">
       <c r="A515" s="10"/>
       <c r="B515" s="10"/>
       <c r="C515" s="10"/>
@@ -10417,7 +10526,7 @@
       <c r="P515" s="10"/>
       <c r="Q515" s="10"/>
     </row>
-    <row r="516" ht="13.5" customHeight="1">
+    <row r="516">
       <c r="A516" s="10"/>
       <c r="B516" s="10"/>
       <c r="C516" s="10"/>
@@ -10436,7 +10545,7 @@
       <c r="P516" s="10"/>
       <c r="Q516" s="10"/>
     </row>
-    <row r="517" ht="13.5" customHeight="1">
+    <row r="517">
       <c r="A517" s="10"/>
       <c r="B517" s="10"/>
       <c r="C517" s="10"/>
@@ -10455,7 +10564,7 @@
       <c r="P517" s="10"/>
       <c r="Q517" s="10"/>
     </row>
-    <row r="518" ht="13.5" customHeight="1">
+    <row r="518">
       <c r="A518" s="10"/>
       <c r="B518" s="10"/>
       <c r="C518" s="10"/>
@@ -10474,7 +10583,7 @@
       <c r="P518" s="10"/>
       <c r="Q518" s="10"/>
     </row>
-    <row r="519" ht="13.5" customHeight="1">
+    <row r="519">
       <c r="A519" s="10"/>
       <c r="B519" s="10"/>
       <c r="C519" s="10"/>
@@ -10493,7 +10602,7 @@
       <c r="P519" s="10"/>
       <c r="Q519" s="10"/>
     </row>
-    <row r="520" ht="13.5" customHeight="1">
+    <row r="520">
       <c r="A520" s="10"/>
       <c r="B520" s="10"/>
       <c r="C520" s="10"/>
@@ -10512,7 +10621,7 @@
       <c r="P520" s="10"/>
       <c r="Q520" s="10"/>
     </row>
-    <row r="521" ht="13.5" customHeight="1">
+    <row r="521">
       <c r="A521" s="10"/>
       <c r="B521" s="10"/>
       <c r="C521" s="10"/>
@@ -10531,7 +10640,7 @@
       <c r="P521" s="10"/>
       <c r="Q521" s="10"/>
     </row>
-    <row r="522" ht="13.5" customHeight="1">
+    <row r="522">
       <c r="A522" s="10"/>
       <c r="B522" s="10"/>
       <c r="C522" s="10"/>
@@ -10550,7 +10659,7 @@
       <c r="P522" s="10"/>
       <c r="Q522" s="10"/>
     </row>
-    <row r="523" ht="13.5" customHeight="1">
+    <row r="523">
       <c r="A523" s="10"/>
       <c r="B523" s="10"/>
       <c r="C523" s="10"/>
@@ -10569,7 +10678,7 @@
       <c r="P523" s="10"/>
       <c r="Q523" s="10"/>
     </row>
-    <row r="524" ht="13.5" customHeight="1">
+    <row r="524">
       <c r="A524" s="10"/>
       <c r="B524" s="10"/>
       <c r="C524" s="10"/>
@@ -10588,7 +10697,7 @@
       <c r="P524" s="10"/>
       <c r="Q524" s="10"/>
     </row>
-    <row r="525" ht="13.5" customHeight="1">
+    <row r="525">
       <c r="A525" s="10"/>
       <c r="B525" s="10"/>
       <c r="C525" s="10"/>
@@ -10607,7 +10716,7 @@
       <c r="P525" s="10"/>
       <c r="Q525" s="10"/>
     </row>
-    <row r="526" ht="13.5" customHeight="1">
+    <row r="526">
       <c r="A526" s="10"/>
       <c r="B526" s="10"/>
       <c r="C526" s="10"/>
@@ -10626,7 +10735,7 @@
       <c r="P526" s="10"/>
       <c r="Q526" s="10"/>
     </row>
-    <row r="527" ht="13.5" customHeight="1">
+    <row r="527">
       <c r="A527" s="10"/>
       <c r="B527" s="10"/>
       <c r="C527" s="10"/>
@@ -10645,7 +10754,7 @@
       <c r="P527" s="10"/>
       <c r="Q527" s="10"/>
     </row>
-    <row r="528" ht="13.5" customHeight="1">
+    <row r="528">
       <c r="A528" s="10"/>
       <c r="B528" s="10"/>
       <c r="C528" s="10"/>
@@ -10664,7 +10773,7 @@
       <c r="P528" s="10"/>
       <c r="Q528" s="10"/>
     </row>
-    <row r="529" ht="13.5" customHeight="1">
+    <row r="529">
       <c r="A529" s="10"/>
       <c r="B529" s="10"/>
       <c r="C529" s="10"/>
@@ -10683,7 +10792,7 @@
       <c r="P529" s="10"/>
       <c r="Q529" s="10"/>
     </row>
-    <row r="530" ht="13.5" customHeight="1">
+    <row r="530">
       <c r="A530" s="10"/>
       <c r="B530" s="10"/>
       <c r="C530" s="10"/>
@@ -10702,7 +10811,7 @@
       <c r="P530" s="10"/>
       <c r="Q530" s="10"/>
     </row>
-    <row r="531" ht="13.5" customHeight="1">
+    <row r="531">
       <c r="A531" s="10"/>
       <c r="B531" s="10"/>
       <c r="C531" s="10"/>
@@ -10721,7 +10830,7 @@
       <c r="P531" s="10"/>
       <c r="Q531" s="10"/>
     </row>
-    <row r="532" ht="13.5" customHeight="1">
+    <row r="532">
       <c r="A532" s="10"/>
       <c r="B532" s="10"/>
       <c r="C532" s="10"/>
@@ -10740,7 +10849,7 @@
       <c r="P532" s="10"/>
       <c r="Q532" s="10"/>
     </row>
-    <row r="533" ht="13.5" customHeight="1">
+    <row r="533">
       <c r="A533" s="10"/>
       <c r="B533" s="10"/>
       <c r="C533" s="10"/>
@@ -10759,7 +10868,7 @@
       <c r="P533" s="10"/>
       <c r="Q533" s="10"/>
     </row>
-    <row r="534" ht="13.5" customHeight="1">
+    <row r="534">
       <c r="A534" s="10"/>
       <c r="B534" s="10"/>
       <c r="C534" s="10"/>
@@ -10778,7 +10887,7 @@
       <c r="P534" s="10"/>
       <c r="Q534" s="10"/>
     </row>
-    <row r="535" ht="13.5" customHeight="1">
+    <row r="535">
       <c r="A535" s="10"/>
       <c r="B535" s="10"/>
       <c r="C535" s="10"/>
@@ -10797,7 +10906,7 @@
       <c r="P535" s="10"/>
       <c r="Q535" s="10"/>
     </row>
-    <row r="536" ht="13.5" customHeight="1">
+    <row r="536">
       <c r="A536" s="10"/>
       <c r="B536" s="10"/>
       <c r="C536" s="10"/>
@@ -10816,7 +10925,7 @@
       <c r="P536" s="10"/>
       <c r="Q536" s="10"/>
     </row>
-    <row r="537" ht="13.5" customHeight="1">
+    <row r="537">
       <c r="A537" s="10"/>
       <c r="B537" s="10"/>
       <c r="C537" s="10"/>
@@ -10835,7 +10944,7 @@
       <c r="P537" s="10"/>
       <c r="Q537" s="10"/>
     </row>
-    <row r="538" ht="13.5" customHeight="1">
+    <row r="538">
       <c r="A538" s="10"/>
       <c r="B538" s="10"/>
       <c r="C538" s="10"/>
@@ -10854,7 +10963,7 @@
       <c r="P538" s="10"/>
       <c r="Q538" s="10"/>
     </row>
-    <row r="539" ht="13.5" customHeight="1">
+    <row r="539">
       <c r="A539" s="10"/>
       <c r="B539" s="10"/>
       <c r="C539" s="10"/>
@@ -10873,7 +10982,7 @@
       <c r="P539" s="10"/>
       <c r="Q539" s="10"/>
     </row>
-    <row r="540" ht="13.5" customHeight="1">
+    <row r="540">
       <c r="A540" s="10"/>
       <c r="B540" s="10"/>
       <c r="C540" s="10"/>
@@ -10892,7 +11001,7 @@
       <c r="P540" s="10"/>
       <c r="Q540" s="10"/>
     </row>
-    <row r="541" ht="13.5" customHeight="1">
+    <row r="541">
       <c r="A541" s="10"/>
       <c r="B541" s="10"/>
       <c r="C541" s="10"/>
@@ -10911,7 +11020,7 @@
       <c r="P541" s="10"/>
       <c r="Q541" s="10"/>
     </row>
-    <row r="542" ht="13.5" customHeight="1">
+    <row r="542">
       <c r="A542" s="10"/>
       <c r="B542" s="10"/>
       <c r="C542" s="10"/>
@@ -10930,7 +11039,7 @@
       <c r="P542" s="10"/>
       <c r="Q542" s="10"/>
     </row>
-    <row r="543" ht="13.5" customHeight="1">
+    <row r="543">
       <c r="A543" s="10"/>
       <c r="B543" s="10"/>
       <c r="C543" s="10"/>
@@ -10949,7 +11058,7 @@
       <c r="P543" s="10"/>
       <c r="Q543" s="10"/>
     </row>
-    <row r="544" ht="13.5" customHeight="1">
+    <row r="544">
       <c r="A544" s="10"/>
       <c r="B544" s="10"/>
       <c r="C544" s="10"/>
@@ -10968,7 +11077,7 @@
       <c r="P544" s="10"/>
       <c r="Q544" s="10"/>
     </row>
-    <row r="545" ht="13.5" customHeight="1">
+    <row r="545">
       <c r="A545" s="10"/>
       <c r="B545" s="10"/>
       <c r="C545" s="10"/>
@@ -10987,7 +11096,7 @@
       <c r="P545" s="10"/>
       <c r="Q545" s="10"/>
     </row>
-    <row r="546" ht="13.5" customHeight="1">
+    <row r="546">
       <c r="A546" s="10"/>
       <c r="B546" s="10"/>
       <c r="C546" s="10"/>
@@ -11006,7 +11115,7 @@
       <c r="P546" s="10"/>
       <c r="Q546" s="10"/>
     </row>
-    <row r="547" ht="13.5" customHeight="1">
+    <row r="547">
       <c r="A547" s="10"/>
       <c r="B547" s="10"/>
       <c r="C547" s="10"/>
@@ -11025,7 +11134,7 @@
       <c r="P547" s="10"/>
       <c r="Q547" s="10"/>
     </row>
-    <row r="548" ht="13.5" customHeight="1">
+    <row r="548">
       <c r="A548" s="10"/>
       <c r="B548" s="10"/>
       <c r="C548" s="10"/>
@@ -11044,7 +11153,7 @@
       <c r="P548" s="10"/>
       <c r="Q548" s="10"/>
     </row>
-    <row r="549" ht="13.5" customHeight="1">
+    <row r="549">
       <c r="A549" s="10"/>
       <c r="B549" s="10"/>
       <c r="C549" s="10"/>
@@ -11063,7 +11172,7 @@
       <c r="P549" s="10"/>
       <c r="Q549" s="10"/>
     </row>
-    <row r="550" ht="13.5" customHeight="1">
+    <row r="550">
       <c r="A550" s="10"/>
       <c r="B550" s="10"/>
       <c r="C550" s="10"/>
@@ -11082,7 +11191,7 @@
       <c r="P550" s="10"/>
       <c r="Q550" s="10"/>
     </row>
-    <row r="551" ht="13.5" customHeight="1">
+    <row r="551">
       <c r="A551" s="10"/>
       <c r="B551" s="10"/>
       <c r="C551" s="10"/>
@@ -11101,7 +11210,7 @@
       <c r="P551" s="10"/>
       <c r="Q551" s="10"/>
     </row>
-    <row r="552" ht="13.5" customHeight="1">
+    <row r="552">
       <c r="A552" s="10"/>
       <c r="B552" s="10"/>
       <c r="C552" s="10"/>
@@ -11120,7 +11229,7 @@
       <c r="P552" s="10"/>
       <c r="Q552" s="10"/>
     </row>
-    <row r="553" ht="13.5" customHeight="1">
+    <row r="553">
       <c r="A553" s="10"/>
       <c r="B553" s="10"/>
       <c r="C553" s="10"/>
@@ -11139,7 +11248,7 @@
       <c r="P553" s="10"/>
       <c r="Q553" s="10"/>
     </row>
-    <row r="554" ht="13.5" customHeight="1">
+    <row r="554">
       <c r="A554" s="10"/>
       <c r="B554" s="10"/>
       <c r="C554" s="10"/>
@@ -11158,7 +11267,7 @@
       <c r="P554" s="10"/>
       <c r="Q554" s="10"/>
     </row>
-    <row r="555" ht="13.5" customHeight="1">
+    <row r="555">
       <c r="A555" s="10"/>
       <c r="B555" s="10"/>
       <c r="C555" s="10"/>
@@ -11177,7 +11286,7 @@
       <c r="P555" s="10"/>
       <c r="Q555" s="10"/>
     </row>
-    <row r="556" ht="13.5" customHeight="1">
+    <row r="556">
       <c r="A556" s="10"/>
       <c r="B556" s="10"/>
       <c r="C556" s="10"/>
@@ -11196,7 +11305,7 @@
       <c r="P556" s="10"/>
       <c r="Q556" s="10"/>
     </row>
-    <row r="557" ht="13.5" customHeight="1">
+    <row r="557">
       <c r="A557" s="10"/>
       <c r="B557" s="10"/>
       <c r="C557" s="10"/>
@@ -11215,7 +11324,7 @@
       <c r="P557" s="10"/>
       <c r="Q557" s="10"/>
     </row>
-    <row r="558" ht="13.5" customHeight="1">
+    <row r="558">
       <c r="A558" s="10"/>
       <c r="B558" s="10"/>
       <c r="C558" s="10"/>
@@ -11234,7 +11343,7 @@
       <c r="P558" s="10"/>
       <c r="Q558" s="10"/>
     </row>
-    <row r="559" ht="13.5" customHeight="1">
+    <row r="559">
       <c r="A559" s="10"/>
       <c r="B559" s="10"/>
       <c r="C559" s="10"/>
@@ -11253,7 +11362,7 @@
       <c r="P559" s="10"/>
       <c r="Q559" s="10"/>
     </row>
-    <row r="560" ht="13.5" customHeight="1">
+    <row r="560">
       <c r="A560" s="10"/>
       <c r="B560" s="10"/>
       <c r="C560" s="10"/>
@@ -11272,7 +11381,7 @@
       <c r="P560" s="10"/>
       <c r="Q560" s="10"/>
     </row>
-    <row r="561" ht="13.5" customHeight="1">
+    <row r="561">
       <c r="A561" s="10"/>
       <c r="B561" s="10"/>
       <c r="C561" s="10"/>
@@ -11291,7 +11400,7 @@
       <c r="P561" s="10"/>
       <c r="Q561" s="10"/>
     </row>
-    <row r="562" ht="13.5" customHeight="1">
+    <row r="562">
       <c r="A562" s="10"/>
       <c r="B562" s="10"/>
       <c r="C562" s="10"/>
@@ -11310,7 +11419,7 @@
       <c r="P562" s="10"/>
       <c r="Q562" s="10"/>
     </row>
-    <row r="563" ht="13.5" customHeight="1">
+    <row r="563">
       <c r="A563" s="10"/>
       <c r="B563" s="10"/>
       <c r="C563" s="10"/>
@@ -11329,7 +11438,7 @@
       <c r="P563" s="10"/>
       <c r="Q563" s="10"/>
     </row>
-    <row r="564" ht="13.5" customHeight="1">
+    <row r="564">
       <c r="A564" s="10"/>
       <c r="B564" s="10"/>
       <c r="C564" s="10"/>
@@ -11348,7 +11457,7 @@
       <c r="P564" s="10"/>
       <c r="Q564" s="10"/>
     </row>
-    <row r="565" ht="13.5" customHeight="1">
+    <row r="565">
       <c r="A565" s="10"/>
       <c r="B565" s="10"/>
       <c r="C565" s="10"/>
@@ -11367,7 +11476,7 @@
       <c r="P565" s="10"/>
       <c r="Q565" s="10"/>
     </row>
-    <row r="566" ht="13.5" customHeight="1">
+    <row r="566">
       <c r="A566" s="10"/>
       <c r="B566" s="10"/>
       <c r="C566" s="10"/>
@@ -11386,7 +11495,7 @@
       <c r="P566" s="10"/>
       <c r="Q566" s="10"/>
     </row>
-    <row r="567" ht="13.5" customHeight="1">
+    <row r="567">
       <c r="A567" s="10"/>
       <c r="B567" s="10"/>
       <c r="C567" s="10"/>
@@ -11405,7 +11514,7 @@
       <c r="P567" s="10"/>
       <c r="Q567" s="10"/>
     </row>
-    <row r="568" ht="13.5" customHeight="1">
+    <row r="568">
       <c r="A568" s="10"/>
       <c r="B568" s="10"/>
       <c r="C568" s="10"/>
@@ -11424,7 +11533,7 @@
       <c r="P568" s="10"/>
       <c r="Q568" s="10"/>
     </row>
-    <row r="569" ht="13.5" customHeight="1">
+    <row r="569">
       <c r="A569" s="10"/>
       <c r="B569" s="10"/>
       <c r="C569" s="10"/>
@@ -11443,7 +11552,7 @@
       <c r="P569" s="10"/>
       <c r="Q569" s="10"/>
     </row>
-    <row r="570" ht="13.5" customHeight="1">
+    <row r="570">
       <c r="A570" s="10"/>
       <c r="B570" s="10"/>
       <c r="C570" s="10"/>
@@ -11462,7 +11571,7 @@
       <c r="P570" s="10"/>
       <c r="Q570" s="10"/>
     </row>
-    <row r="571" ht="13.5" customHeight="1">
+    <row r="571">
       <c r="A571" s="10"/>
       <c r="B571" s="10"/>
       <c r="C571" s="10"/>
@@ -11481,7 +11590,7 @@
       <c r="P571" s="10"/>
       <c r="Q571" s="10"/>
     </row>
-    <row r="572" ht="13.5" customHeight="1">
+    <row r="572">
       <c r="A572" s="10"/>
       <c r="B572" s="10"/>
       <c r="C572" s="10"/>
@@ -11500,7 +11609,7 @@
       <c r="P572" s="10"/>
       <c r="Q572" s="10"/>
     </row>
-    <row r="573" ht="13.5" customHeight="1">
+    <row r="573">
       <c r="A573" s="10"/>
       <c r="B573" s="10"/>
       <c r="C573" s="10"/>
@@ -11519,7 +11628,7 @@
       <c r="P573" s="10"/>
       <c r="Q573" s="10"/>
     </row>
-    <row r="574" ht="13.5" customHeight="1">
+    <row r="574">
       <c r="A574" s="10"/>
       <c r="B574" s="10"/>
       <c r="C574" s="10"/>
@@ -11538,7 +11647,7 @@
       <c r="P574" s="10"/>
       <c r="Q574" s="10"/>
     </row>
-    <row r="575" ht="13.5" customHeight="1">
+    <row r="575">
       <c r="A575" s="10"/>
       <c r="B575" s="10"/>
       <c r="C575" s="10"/>
@@ -11557,7 +11666,7 @@
       <c r="P575" s="10"/>
       <c r="Q575" s="10"/>
     </row>
-    <row r="576" ht="13.5" customHeight="1">
+    <row r="576">
       <c r="A576" s="10"/>
       <c r="B576" s="10"/>
       <c r="C576" s="10"/>
@@ -11576,7 +11685,7 @@
       <c r="P576" s="10"/>
       <c r="Q576" s="10"/>
     </row>
-    <row r="577" ht="13.5" customHeight="1">
+    <row r="577">
       <c r="A577" s="10"/>
       <c r="B577" s="10"/>
       <c r="C577" s="10"/>
@@ -11595,7 +11704,7 @@
       <c r="P577" s="10"/>
       <c r="Q577" s="10"/>
     </row>
-    <row r="578" ht="13.5" customHeight="1">
+    <row r="578">
       <c r="A578" s="10"/>
       <c r="B578" s="10"/>
       <c r="C578" s="10"/>
@@ -11614,7 +11723,7 @@
       <c r="P578" s="10"/>
       <c r="Q578" s="10"/>
     </row>
-    <row r="579" ht="13.5" customHeight="1">
+    <row r="579">
       <c r="A579" s="10"/>
       <c r="B579" s="10"/>
       <c r="C579" s="10"/>
@@ -11633,7 +11742,7 @@
       <c r="P579" s="10"/>
       <c r="Q579" s="10"/>
     </row>
-    <row r="580" ht="13.5" customHeight="1">
+    <row r="580">
       <c r="A580" s="10"/>
       <c r="B580" s="10"/>
       <c r="C580" s="10"/>
@@ -11652,7 +11761,7 @@
       <c r="P580" s="10"/>
       <c r="Q580" s="10"/>
     </row>
-    <row r="581" ht="13.5" customHeight="1">
+    <row r="581">
       <c r="A581" s="10"/>
       <c r="B581" s="10"/>
       <c r="C581" s="10"/>
@@ -11671,7 +11780,7 @@
       <c r="P581" s="10"/>
       <c r="Q581" s="10"/>
     </row>
-    <row r="582" ht="13.5" customHeight="1">
+    <row r="582">
       <c r="A582" s="10"/>
       <c r="B582" s="10"/>
       <c r="C582" s="10"/>
@@ -11690,7 +11799,7 @@
       <c r="P582" s="10"/>
       <c r="Q582" s="10"/>
     </row>
-    <row r="583" ht="13.5" customHeight="1">
+    <row r="583">
       <c r="A583" s="10"/>
       <c r="B583" s="10"/>
       <c r="C583" s="10"/>
@@ -11709,7 +11818,7 @@
       <c r="P583" s="10"/>
       <c r="Q583" s="10"/>
     </row>
-    <row r="584" ht="13.5" customHeight="1">
+    <row r="584">
       <c r="A584" s="10"/>
       <c r="B584" s="10"/>
       <c r="C584" s="10"/>
@@ -11728,7 +11837,7 @@
       <c r="P584" s="10"/>
       <c r="Q584" s="10"/>
     </row>
-    <row r="585" ht="13.5" customHeight="1">
+    <row r="585">
       <c r="A585" s="10"/>
       <c r="B585" s="10"/>
       <c r="C585" s="10"/>
@@ -11747,7 +11856,7 @@
       <c r="P585" s="10"/>
       <c r="Q585" s="10"/>
     </row>
-    <row r="586" ht="13.5" customHeight="1">
+    <row r="586">
       <c r="A586" s="10"/>
       <c r="B586" s="10"/>
       <c r="C586" s="10"/>
@@ -11766,7 +11875,7 @@
       <c r="P586" s="10"/>
       <c r="Q586" s="10"/>
     </row>
-    <row r="587" ht="13.5" customHeight="1">
+    <row r="587">
       <c r="A587" s="10"/>
       <c r="B587" s="10"/>
       <c r="C587" s="10"/>
@@ -11785,7 +11894,7 @@
       <c r="P587" s="10"/>
       <c r="Q587" s="10"/>
     </row>
-    <row r="588" ht="13.5" customHeight="1">
+    <row r="588">
       <c r="A588" s="10"/>
       <c r="B588" s="10"/>
       <c r="C588" s="10"/>
@@ -11804,7 +11913,7 @@
       <c r="P588" s="10"/>
       <c r="Q588" s="10"/>
     </row>
-    <row r="589" ht="13.5" customHeight="1">
+    <row r="589">
       <c r="A589" s="10"/>
       <c r="B589" s="10"/>
       <c r="C589" s="10"/>
@@ -11823,7 +11932,7 @@
       <c r="P589" s="10"/>
       <c r="Q589" s="10"/>
     </row>
-    <row r="590" ht="13.5" customHeight="1">
+    <row r="590">
       <c r="A590" s="10"/>
       <c r="B590" s="10"/>
       <c r="C590" s="10"/>
@@ -11842,7 +11951,7 @@
       <c r="P590" s="10"/>
       <c r="Q590" s="10"/>
     </row>
-    <row r="591" ht="13.5" customHeight="1">
+    <row r="591">
       <c r="A591" s="10"/>
       <c r="B591" s="10"/>
       <c r="C591" s="10"/>
@@ -11861,7 +11970,7 @@
       <c r="P591" s="10"/>
       <c r="Q591" s="10"/>
     </row>
-    <row r="592" ht="13.5" customHeight="1">
+    <row r="592">
       <c r="A592" s="10"/>
       <c r="B592" s="10"/>
       <c r="C592" s="10"/>
@@ -11880,7 +11989,7 @@
       <c r="P592" s="10"/>
       <c r="Q592" s="10"/>
     </row>
-    <row r="593" ht="13.5" customHeight="1">
+    <row r="593">
       <c r="A593" s="10"/>
       <c r="B593" s="10"/>
       <c r="C593" s="10"/>
@@ -11899,7 +12008,7 @@
       <c r="P593" s="10"/>
       <c r="Q593" s="10"/>
     </row>
-    <row r="594" ht="13.5" customHeight="1">
+    <row r="594">
       <c r="A594" s="10"/>
       <c r="B594" s="10"/>
       <c r="C594" s="10"/>
@@ -11918,7 +12027,7 @@
       <c r="P594" s="10"/>
       <c r="Q594" s="10"/>
     </row>
-    <row r="595" ht="13.5" customHeight="1">
+    <row r="595">
       <c r="A595" s="10"/>
       <c r="B595" s="10"/>
       <c r="C595" s="10"/>
@@ -11937,7 +12046,7 @@
       <c r="P595" s="10"/>
       <c r="Q595" s="10"/>
     </row>
-    <row r="596" ht="13.5" customHeight="1">
+    <row r="596">
       <c r="A596" s="10"/>
       <c r="B596" s="10"/>
       <c r="C596" s="10"/>
@@ -11956,7 +12065,7 @@
       <c r="P596" s="10"/>
       <c r="Q596" s="10"/>
     </row>
-    <row r="597" ht="13.5" customHeight="1">
+    <row r="597">
       <c r="A597" s="10"/>
       <c r="B597" s="10"/>
       <c r="C597" s="10"/>
@@ -11975,7 +12084,7 @@
       <c r="P597" s="10"/>
       <c r="Q597" s="10"/>
     </row>
-    <row r="598" ht="13.5" customHeight="1">
+    <row r="598">
       <c r="A598" s="10"/>
       <c r="B598" s="10"/>
       <c r="C598" s="10"/>
@@ -11994,7 +12103,7 @@
       <c r="P598" s="10"/>
       <c r="Q598" s="10"/>
     </row>
-    <row r="599" ht="13.5" customHeight="1">
+    <row r="599">
       <c r="A599" s="10"/>
       <c r="B599" s="10"/>
       <c r="C599" s="10"/>
@@ -12013,7 +12122,7 @@
       <c r="P599" s="10"/>
       <c r="Q599" s="10"/>
     </row>
-    <row r="600" ht="13.5" customHeight="1">
+    <row r="600">
       <c r="A600" s="10"/>
       <c r="B600" s="10"/>
       <c r="C600" s="10"/>
@@ -12032,7 +12141,7 @@
       <c r="P600" s="10"/>
       <c r="Q600" s="10"/>
     </row>
-    <row r="601" ht="13.5" customHeight="1">
+    <row r="601">
       <c r="A601" s="10"/>
       <c r="B601" s="10"/>
       <c r="C601" s="10"/>
@@ -12051,7 +12160,7 @@
       <c r="P601" s="10"/>
       <c r="Q601" s="10"/>
     </row>
-    <row r="602" ht="13.5" customHeight="1">
+    <row r="602">
       <c r="A602" s="10"/>
       <c r="B602" s="10"/>
       <c r="C602" s="10"/>
@@ -12070,7 +12179,7 @@
       <c r="P602" s="10"/>
       <c r="Q602" s="10"/>
     </row>
-    <row r="603" ht="13.5" customHeight="1">
+    <row r="603">
       <c r="A603" s="10"/>
       <c r="B603" s="10"/>
       <c r="C603" s="10"/>
@@ -12089,7 +12198,7 @@
       <c r="P603" s="10"/>
       <c r="Q603" s="10"/>
     </row>
-    <row r="604" ht="13.5" customHeight="1">
+    <row r="604">
       <c r="A604" s="10"/>
       <c r="B604" s="10"/>
       <c r="C604" s="10"/>
@@ -12108,7 +12217,7 @@
       <c r="P604" s="10"/>
       <c r="Q604" s="10"/>
     </row>
-    <row r="605" ht="13.5" customHeight="1">
+    <row r="605">
       <c r="A605" s="10"/>
       <c r="B605" s="10"/>
       <c r="C605" s="10"/>
@@ -12127,7 +12236,7 @@
       <c r="P605" s="10"/>
       <c r="Q605" s="10"/>
     </row>
-    <row r="606" ht="13.5" customHeight="1">
+    <row r="606">
       <c r="A606" s="10"/>
       <c r="B606" s="10"/>
       <c r="C606" s="10"/>
@@ -12146,7 +12255,7 @@
       <c r="P606" s="10"/>
       <c r="Q606" s="10"/>
     </row>
-    <row r="607" ht="13.5" customHeight="1">
+    <row r="607">
       <c r="A607" s="10"/>
       <c r="B607" s="10"/>
       <c r="C607" s="10"/>
@@ -12165,7 +12274,7 @@
       <c r="P607" s="10"/>
       <c r="Q607" s="10"/>
     </row>
-    <row r="608" ht="13.5" customHeight="1">
+    <row r="608">
       <c r="A608" s="10"/>
       <c r="B608" s="10"/>
       <c r="C608" s="10"/>
@@ -12184,7 +12293,7 @@
       <c r="P608" s="10"/>
       <c r="Q608" s="10"/>
     </row>
-    <row r="609" ht="13.5" customHeight="1">
+    <row r="609">
       <c r="A609" s="10"/>
       <c r="B609" s="10"/>
       <c r="C609" s="10"/>
@@ -12203,7 +12312,7 @@
       <c r="P609" s="10"/>
       <c r="Q609" s="10"/>
     </row>
-    <row r="610" ht="13.5" customHeight="1">
+    <row r="610">
       <c r="A610" s="10"/>
       <c r="B610" s="10"/>
       <c r="C610" s="10"/>
@@ -12222,7 +12331,7 @@
       <c r="P610" s="10"/>
       <c r="Q610" s="10"/>
     </row>
-    <row r="611" ht="13.5" customHeight="1">
+    <row r="611">
       <c r="A611" s="10"/>
       <c r="B611" s="10"/>
       <c r="C611" s="10"/>
@@ -12241,7 +12350,7 @@
       <c r="P611" s="10"/>
       <c r="Q611" s="10"/>
     </row>
-    <row r="612" ht="13.5" customHeight="1">
+    <row r="612">
       <c r="A612" s="10"/>
       <c r="B612" s="10"/>
       <c r="C612" s="10"/>
@@ -12260,7 +12369,7 @@
       <c r="P612" s="10"/>
       <c r="Q612" s="10"/>
     </row>
-    <row r="613" ht="13.5" customHeight="1">
+    <row r="613">
       <c r="A613" s="10"/>
       <c r="B613" s="10"/>
       <c r="C613" s="10"/>
@@ -12279,7 +12388,7 @@
       <c r="P613" s="10"/>
       <c r="Q613" s="10"/>
     </row>
-    <row r="614" ht="13.5" customHeight="1">
+    <row r="614">
       <c r="A614" s="10"/>
       <c r="B614" s="10"/>
       <c r="C614" s="10"/>
@@ -12298,7 +12407,7 @@
       <c r="P614" s="10"/>
       <c r="Q614" s="10"/>
     </row>
-    <row r="615" ht="13.5" customHeight="1">
+    <row r="615">
       <c r="A615" s="10"/>
       <c r="B615" s="10"/>
       <c r="C615" s="10"/>
@@ -12317,7 +12426,7 @@
       <c r="P615" s="10"/>
       <c r="Q615" s="10"/>
     </row>
-    <row r="616" ht="13.5" customHeight="1">
+    <row r="616">
       <c r="A616" s="10"/>
       <c r="B616" s="10"/>
       <c r="C616" s="10"/>
@@ -12336,7 +12445,7 @@
       <c r="P616" s="10"/>
       <c r="Q616" s="10"/>
     </row>
-    <row r="617" ht="13.5" customHeight="1">
+    <row r="617">
       <c r="A617" s="10"/>
       <c r="B617" s="10"/>
       <c r="C617" s="10"/>
@@ -12355,7 +12464,7 @@
       <c r="P617" s="10"/>
       <c r="Q617" s="10"/>
     </row>
-    <row r="618" ht="13.5" customHeight="1">
+    <row r="618">
       <c r="A618" s="10"/>
       <c r="B618" s="10"/>
       <c r="C618" s="10"/>
@@ -12374,7 +12483,7 @@
       <c r="P618" s="10"/>
       <c r="Q618" s="10"/>
     </row>
-    <row r="619" ht="13.5" customHeight="1">
+    <row r="619">
       <c r="A619" s="10"/>
       <c r="B619" s="10"/>
       <c r="C619" s="10"/>
@@ -12393,7 +12502,7 @@
       <c r="P619" s="10"/>
       <c r="Q619" s="10"/>
     </row>
-    <row r="620" ht="13.5" customHeight="1">
+    <row r="620">
       <c r="A620" s="10"/>
       <c r="B620" s="10"/>
       <c r="C620" s="10"/>
@@ -12412,7 +12521,7 @@
       <c r="P620" s="10"/>
       <c r="Q620" s="10"/>
     </row>
-    <row r="621" ht="13.5" customHeight="1">
+    <row r="621">
       <c r="A621" s="10"/>
       <c r="B621" s="10"/>
       <c r="C621" s="10"/>
@@ -12431,7 +12540,7 @@
       <c r="P621" s="10"/>
       <c r="Q621" s="10"/>
     </row>
-    <row r="622" ht="13.5" customHeight="1">
+    <row r="622">
       <c r="A622" s="10"/>
       <c r="B622" s="10"/>
       <c r="C622" s="10"/>
@@ -12450,7 +12559,7 @@
       <c r="P622" s="10"/>
       <c r="Q622" s="10"/>
     </row>
-    <row r="623" ht="13.5" customHeight="1">
+    <row r="623">
       <c r="A623" s="10"/>
       <c r="B623" s="10"/>
       <c r="C623" s="10"/>
@@ -12469,7 +12578,7 @@
       <c r="P623" s="10"/>
       <c r="Q623" s="10"/>
     </row>
-    <row r="624" ht="13.5" customHeight="1">
+    <row r="624">
       <c r="A624" s="10"/>
       <c r="B624" s="10"/>
       <c r="C624" s="10"/>
@@ -12488,7 +12597,7 @@
       <c r="P624" s="10"/>
       <c r="Q624" s="10"/>
     </row>
-    <row r="625" ht="13.5" customHeight="1">
+    <row r="625">
       <c r="A625" s="10"/>
       <c r="B625" s="10"/>
       <c r="C625" s="10"/>
@@ -12507,7 +12616,7 @@
       <c r="P625" s="10"/>
       <c r="Q625" s="10"/>
     </row>
-    <row r="626" ht="13.5" customHeight="1">
+    <row r="626">
       <c r="A626" s="10"/>
       <c r="B626" s="10"/>
       <c r="C626" s="10"/>
@@ -12526,7 +12635,7 @@
       <c r="P626" s="10"/>
       <c r="Q626" s="10"/>
     </row>
-    <row r="627" ht="13.5" customHeight="1">
+    <row r="627">
       <c r="A627" s="10"/>
       <c r="B627" s="10"/>
       <c r="C627" s="10"/>
@@ -12545,7 +12654,7 @@
       <c r="P627" s="10"/>
       <c r="Q627" s="10"/>
     </row>
-    <row r="628" ht="13.5" customHeight="1">
+    <row r="628">
       <c r="A628" s="10"/>
       <c r="B628" s="10"/>
       <c r="C628" s="10"/>
@@ -12564,7 +12673,7 @@
       <c r="P628" s="10"/>
       <c r="Q628" s="10"/>
     </row>
-    <row r="629" ht="13.5" customHeight="1">
+    <row r="629">
       <c r="A629" s="10"/>
       <c r="B629" s="10"/>
       <c r="C629" s="10"/>
@@ -12583,7 +12692,7 @@
       <c r="P629" s="10"/>
       <c r="Q629" s="10"/>
     </row>
-    <row r="630" ht="13.5" customHeight="1">
+    <row r="630">
       <c r="A630" s="10"/>
       <c r="B630" s="10"/>
       <c r="C630" s="10"/>
@@ -12602,7 +12711,7 @@
       <c r="P630" s="10"/>
       <c r="Q630" s="10"/>
     </row>
-    <row r="631" ht="13.5" customHeight="1">
+    <row r="631">
       <c r="A631" s="10"/>
       <c r="B631" s="10"/>
       <c r="C631" s="10"/>
@@ -12621,7 +12730,7 @@
       <c r="P631" s="10"/>
       <c r="Q631" s="10"/>
     </row>
-    <row r="632" ht="13.5" customHeight="1">
+    <row r="632">
       <c r="A632" s="10"/>
       <c r="B632" s="10"/>
       <c r="C632" s="10"/>
@@ -12640,7 +12749,7 @@
       <c r="P632" s="10"/>
       <c r="Q632" s="10"/>
     </row>
-    <row r="633" ht="13.5" customHeight="1">
+    <row r="633">
       <c r="A633" s="10"/>
       <c r="B633" s="10"/>
       <c r="C633" s="10"/>
@@ -12659,7 +12768,7 @@
       <c r="P633" s="10"/>
       <c r="Q633" s="10"/>
     </row>
-    <row r="634" ht="13.5" customHeight="1">
+    <row r="634">
       <c r="A634" s="10"/>
       <c r="B634" s="10"/>
       <c r="C634" s="10"/>
@@ -12678,7 +12787,7 @@
       <c r="P634" s="10"/>
       <c r="Q634" s="10"/>
     </row>
-    <row r="635" ht="13.5" customHeight="1">
+    <row r="635">
       <c r="A635" s="10"/>
       <c r="B635" s="10"/>
       <c r="C635" s="10"/>
@@ -12697,7 +12806,7 @@
       <c r="P635" s="10"/>
       <c r="Q635" s="10"/>
     </row>
-    <row r="636" ht="13.5" customHeight="1">
+    <row r="636">
       <c r="A636" s="10"/>
       <c r="B636" s="10"/>
       <c r="C636" s="10"/>
@@ -12716,7 +12825,7 @@
       <c r="P636" s="10"/>
       <c r="Q636" s="10"/>
     </row>
-    <row r="637" ht="13.5" customHeight="1">
+    <row r="637">
       <c r="A637" s="10"/>
       <c r="B637" s="10"/>
       <c r="C637" s="10"/>
@@ -12735,7 +12844,7 @@
       <c r="P637" s="10"/>
       <c r="Q637" s="10"/>
     </row>
-    <row r="638" ht="13.5" customHeight="1">
+    <row r="638">
       <c r="A638" s="10"/>
       <c r="B638" s="10"/>
       <c r="C638" s="10"/>
@@ -12754,7 +12863,7 @@
       <c r="P638" s="10"/>
       <c r="Q638" s="10"/>
     </row>
-    <row r="639" ht="13.5" customHeight="1">
+    <row r="639">
       <c r="A639" s="10"/>
       <c r="B639" s="10"/>
       <c r="C639" s="10"/>
@@ -12773,7 +12882,7 @@
       <c r="P639" s="10"/>
       <c r="Q639" s="10"/>
     </row>
-    <row r="640" ht="13.5" customHeight="1">
+    <row r="640">
       <c r="A640" s="10"/>
       <c r="B640" s="10"/>
       <c r="C640" s="10"/>
@@ -12792,7 +12901,7 @@
       <c r="P640" s="10"/>
       <c r="Q640" s="10"/>
     </row>
-    <row r="641" ht="13.5" customHeight="1">
+    <row r="641">
       <c r="A641" s="10"/>
       <c r="B641" s="10"/>
       <c r="C641" s="10"/>
@@ -12811,7 +12920,7 @@
       <c r="P641" s="10"/>
       <c r="Q641" s="10"/>
     </row>
-    <row r="642" ht="13.5" customHeight="1">
+    <row r="642">
       <c r="A642" s="10"/>
       <c r="B642" s="10"/>
       <c r="C642" s="10"/>
@@ -12830,7 +12939,7 @@
       <c r="P642" s="10"/>
       <c r="Q642" s="10"/>
     </row>
-    <row r="643" ht="13.5" customHeight="1">
+    <row r="643">
       <c r="A643" s="10"/>
       <c r="B643" s="10"/>
       <c r="C643" s="10"/>
@@ -12849,7 +12958,7 @@
       <c r="P643" s="10"/>
       <c r="Q643" s="10"/>
     </row>
-    <row r="644" ht="13.5" customHeight="1">
+    <row r="644">
       <c r="A644" s="10"/>
       <c r="B644" s="10"/>
       <c r="C644" s="10"/>
@@ -12868,7 +12977,7 @@
       <c r="P644" s="10"/>
       <c r="Q644" s="10"/>
     </row>
-    <row r="645" ht="13.5" customHeight="1">
+    <row r="645">
       <c r="A645" s="10"/>
       <c r="B645" s="10"/>
       <c r="C645" s="10"/>
@@ -12887,7 +12996,7 @@
       <c r="P645" s="10"/>
       <c r="Q645" s="10"/>
     </row>
-    <row r="646" ht="13.5" customHeight="1">
+    <row r="646">
       <c r="A646" s="10"/>
       <c r="B646" s="10"/>
       <c r="C646" s="10"/>
@@ -12906,7 +13015,7 @@
       <c r="P646" s="10"/>
       <c r="Q646" s="10"/>
     </row>
-    <row r="647" ht="13.5" customHeight="1">
+    <row r="647">
       <c r="A647" s="10"/>
       <c r="B647" s="10"/>
       <c r="C647" s="10"/>
@@ -12925,7 +13034,7 @@
       <c r="P647" s="10"/>
       <c r="Q647" s="10"/>
     </row>
-    <row r="648" ht="13.5" customHeight="1">
+    <row r="648">
       <c r="A648" s="10"/>
       <c r="B648" s="10"/>
       <c r="C648" s="10"/>
@@ -12944,7 +13053,7 @@
       <c r="P648" s="10"/>
       <c r="Q648" s="10"/>
     </row>
-    <row r="649" ht="13.5" customHeight="1">
+    <row r="649">
       <c r="A649" s="10"/>
       <c r="B649" s="10"/>
       <c r="C649" s="10"/>
@@ -12963,7 +13072,7 @@
       <c r="P649" s="10"/>
       <c r="Q649" s="10"/>
     </row>
-    <row r="650" ht="13.5" customHeight="1">
+    <row r="650">
       <c r="A650" s="10"/>
       <c r="B650" s="10"/>
       <c r="C650" s="10"/>
@@ -12982,7 +13091,7 @@
       <c r="P650" s="10"/>
       <c r="Q650" s="10"/>
     </row>
-    <row r="651" ht="13.5" customHeight="1">
+    <row r="651">
       <c r="A651" s="10"/>
       <c r="B651" s="10"/>
       <c r="C651" s="10"/>
@@ -13001,7 +13110,7 @@
       <c r="P651" s="10"/>
       <c r="Q651" s="10"/>
     </row>
-    <row r="652" ht="13.5" customHeight="1">
+    <row r="652">
       <c r="A652" s="10"/>
       <c r="B652" s="10"/>
       <c r="C652" s="10"/>
@@ -13020,7 +13129,7 @@
       <c r="P652" s="10"/>
       <c r="Q652" s="10"/>
     </row>
-    <row r="653" ht="13.5" customHeight="1">
+    <row r="653">
       <c r="A653" s="10"/>
       <c r="B653" s="10"/>
       <c r="C653" s="10"/>
@@ -13039,7 +13148,7 @@
       <c r="P653" s="10"/>
       <c r="Q653" s="10"/>
     </row>
-    <row r="654" ht="13.5" customHeight="1">
+    <row r="654">
       <c r="A654" s="10"/>
       <c r="B654" s="10"/>
       <c r="C654" s="10"/>
@@ -13058,7 +13167,7 @@
       <c r="P654" s="10"/>
       <c r="Q654" s="10"/>
     </row>
-    <row r="655" ht="13.5" customHeight="1">
+    <row r="655">
       <c r="A655" s="10"/>
       <c r="B655" s="10"/>
       <c r="C655" s="10"/>
@@ -13077,7 +13186,7 @@
       <c r="P655" s="10"/>
       <c r="Q655" s="10"/>
     </row>
-    <row r="656" ht="13.5" customHeight="1">
+    <row r="656">
       <c r="A656" s="10"/>
       <c r="B656" s="10"/>
       <c r="C656" s="10"/>
@@ -13096,7 +13205,7 @@
       <c r="P656" s="10"/>
       <c r="Q656" s="10"/>
     </row>
-    <row r="657" ht="13.5" customHeight="1">
+    <row r="657">
       <c r="A657" s="10"/>
       <c r="B657" s="10"/>
       <c r="C657" s="10"/>
@@ -13115,7 +13224,7 @@
       <c r="P657" s="10"/>
       <c r="Q657" s="10"/>
     </row>
-    <row r="658" ht="13.5" customHeight="1">
+    <row r="658">
       <c r="A658" s="10"/>
       <c r="B658" s="10"/>
       <c r="C658" s="10"/>
@@ -13134,7 +13243,7 @@
       <c r="P658" s="10"/>
       <c r="Q658" s="10"/>
     </row>
-    <row r="659" ht="13.5" customHeight="1">
+    <row r="659">
       <c r="A659" s="10"/>
       <c r="B659" s="10"/>
       <c r="C659" s="10"/>
@@ -13153,7 +13262,7 @@
       <c r="P659" s="10"/>
       <c r="Q659" s="10"/>
     </row>
-    <row r="660" ht="13.5" customHeight="1">
+    <row r="660">
       <c r="A660" s="10"/>
       <c r="B660" s="10"/>
       <c r="C660" s="10"/>
@@ -13172,7 +13281,7 @@
       <c r="P660" s="10"/>
       <c r="Q660" s="10"/>
     </row>
-    <row r="661" ht="13.5" customHeight="1">
+    <row r="661">
       <c r="A661" s="10"/>
       <c r="B661" s="10"/>
       <c r="C661" s="10"/>
@@ -13191,7 +13300,7 @@
       <c r="P661" s="10"/>
       <c r="Q661" s="10"/>
     </row>
-    <row r="662" ht="13.5" customHeight="1">
+    <row r="662">
       <c r="A662" s="10"/>
       <c r="B662" s="10"/>
       <c r="C662" s="10"/>
@@ -13210,7 +13319,7 @@
       <c r="P662" s="10"/>
       <c r="Q662" s="10"/>
     </row>
-    <row r="663" ht="13.5" customHeight="1">
+    <row r="663">
       <c r="A663" s="10"/>
       <c r="B663" s="10"/>
       <c r="C663" s="10"/>
@@ -13229,7 +13338,7 @@
       <c r="P663" s="10"/>
       <c r="Q663" s="10"/>
     </row>
-    <row r="664" ht="13.5" customHeight="1">
+    <row r="664">
       <c r="A664" s="10"/>
       <c r="B664" s="10"/>
       <c r="C664" s="10"/>
@@ -13248,7 +13357,7 @@
       <c r="P664" s="10"/>
       <c r="Q664" s="10"/>
     </row>
-    <row r="665" ht="13.5" customHeight="1">
+    <row r="665">
       <c r="A665" s="10"/>
       <c r="B665" s="10"/>
       <c r="C665" s="10"/>
@@ -13267,7 +13376,7 @@
       <c r="P665" s="10"/>
       <c r="Q665" s="10"/>
     </row>
-    <row r="666" ht="13.5" customHeight="1">
+    <row r="666">
       <c r="A666" s="10"/>
       <c r="B666" s="10"/>
       <c r="C666" s="10"/>
@@ -13286,7 +13395,7 @@
       <c r="P666" s="10"/>
       <c r="Q666" s="10"/>
     </row>
-    <row r="667" ht="13.5" customHeight="1">
+    <row r="667">
       <c r="A667" s="10"/>
       <c r="B667" s="10"/>
       <c r="C667" s="10"/>
@@ -13305,7 +13414,7 @@
       <c r="P667" s="10"/>
       <c r="Q667" s="10"/>
     </row>
-    <row r="668" ht="13.5" customHeight="1">
+    <row r="668">
       <c r="A668" s="10"/>
       <c r="B668" s="10"/>
       <c r="C668" s="10"/>
@@ -13324,7 +13433,7 @@
       <c r="P668" s="10"/>
       <c r="Q668" s="10"/>
     </row>
-    <row r="669" ht="13.5" customHeight="1">
+    <row r="669">
       <c r="A669" s="10"/>
       <c r="B669" s="10"/>
       <c r="C669" s="10"/>
@@ -13343,7 +13452,7 @@
       <c r="P669" s="10"/>
       <c r="Q669" s="10"/>
     </row>
-    <row r="670" ht="13.5" customHeight="1">
+    <row r="670">
       <c r="A670" s="10"/>
       <c r="B670" s="10"/>
       <c r="C670" s="10"/>
@@ -13362,7 +13471,7 @@
       <c r="P670" s="10"/>
       <c r="Q670" s="10"/>
     </row>
-    <row r="671" ht="13.5" customHeight="1">
+    <row r="671">
       <c r="A671" s="10"/>
       <c r="B671" s="10"/>
       <c r="C671" s="10"/>
@@ -13381,7 +13490,7 @@
       <c r="P671" s="10"/>
       <c r="Q671" s="10"/>
     </row>
-    <row r="672" ht="13.5" customHeight="1">
+    <row r="672">
       <c r="A672" s="10"/>
       <c r="B672" s="10"/>
       <c r="C672" s="10"/>
@@ -13400,7 +13509,7 @@
       <c r="P672" s="10"/>
       <c r="Q672" s="10"/>
     </row>
-    <row r="673" ht="13.5" customHeight="1">
+    <row r="673">
       <c r="A673" s="10"/>
       <c r="B673" s="10"/>
       <c r="C673" s="10"/>
@@ -13419,7 +13528,7 @@
       <c r="P673" s="10"/>
       <c r="Q673" s="10"/>
     </row>
-    <row r="674" ht="13.5" customHeight="1">
+    <row r="674">
       <c r="A674" s="10"/>
       <c r="B674" s="10"/>
       <c r="C674" s="10"/>
@@ -13438,7 +13547,7 @@
       <c r="P674" s="10"/>
       <c r="Q674" s="10"/>
     </row>
-    <row r="675" ht="13.5" customHeight="1">
+    <row r="675">
       <c r="A675" s="10"/>
       <c r="B675" s="10"/>
       <c r="C675" s="10"/>
@@ -13457,7 +13566,7 @@
       <c r="P675" s="10"/>
       <c r="Q675" s="10"/>
     </row>
-    <row r="676" ht="13.5" customHeight="1">
+    <row r="676">
       <c r="A676" s="10"/>
       <c r="B676" s="10"/>
       <c r="C676" s="10"/>
@@ -13476,7 +13585,7 @@
       <c r="P676" s="10"/>
       <c r="Q676" s="10"/>
     </row>
-    <row r="677" ht="13.5" customHeight="1">
+    <row r="677">
       <c r="A677" s="10"/>
       <c r="B677" s="10"/>
       <c r="C677" s="10"/>
@@ -13495,7 +13604,7 @@
       <c r="P677" s="10"/>
       <c r="Q677" s="10"/>
     </row>
-    <row r="678" ht="13.5" customHeight="1">
+    <row r="678">
       <c r="A678" s="10"/>
       <c r="B678" s="10"/>
       <c r="C678" s="10"/>
@@ -13514,7 +13623,7 @@
       <c r="P678" s="10"/>
       <c r="Q678" s="10"/>
     </row>
-    <row r="679" ht="13.5" customHeight="1">
+    <row r="679">
       <c r="A679" s="10"/>
       <c r="B679" s="10"/>
       <c r="C679" s="10"/>
@@ -13533,7 +13642,7 @@
       <c r="P679" s="10"/>
       <c r="Q679" s="10"/>
     </row>
-    <row r="680" ht="13.5" customHeight="1">
+    <row r="680">
       <c r="A680" s="10"/>
       <c r="B680" s="10"/>
       <c r="C680" s="10"/>
@@ -13552,7 +13661,7 @@
       <c r="P680" s="10"/>
       <c r="Q680" s="10"/>
     </row>
-    <row r="681" ht="13.5" customHeight="1">
+    <row r="681">
       <c r="A681" s="10"/>
       <c r="B681" s="10"/>
       <c r="C681" s="10"/>
@@ -13571,7 +13680,7 @@
       <c r="P681" s="10"/>
       <c r="Q681" s="10"/>
     </row>
-    <row r="682" ht="13.5" customHeight="1">
+    <row r="682">
       <c r="A682" s="10"/>
       <c r="B682" s="10"/>
       <c r="C682" s="10"/>
@@ -13590,7 +13699,7 @@
       <c r="P682" s="10"/>
       <c r="Q682" s="10"/>
     </row>
-    <row r="683" ht="13.5" customHeight="1">
+    <row r="683">
       <c r="A683" s="10"/>
       <c r="B683" s="10"/>
       <c r="C683" s="10"/>
@@ -13609,7 +13718,7 @@
       <c r="P683" s="10"/>
       <c r="Q683" s="10"/>
     </row>
-    <row r="684" ht="13.5" customHeight="1">
+    <row r="684">
       <c r="A684" s="10"/>
       <c r="B684" s="10"/>
       <c r="C684" s="10"/>
@@ -13628,7 +13737,7 @@
       <c r="P684" s="10"/>
       <c r="Q684" s="10"/>
     </row>
-    <row r="685" ht="13.5" customHeight="1">
+    <row r="685">
       <c r="A685" s="10"/>
       <c r="B685" s="10"/>
       <c r="C685" s="10"/>
@@ -13647,7 +13756,7 @@
       <c r="P685" s="10"/>
       <c r="Q685" s="10"/>
     </row>
-    <row r="686" ht="13.5" customHeight="1">
+    <row r="686">
       <c r="A686" s="10"/>
       <c r="B686" s="10"/>
       <c r="C686" s="10"/>
@@ -13666,7 +13775,7 @@
       <c r="P686" s="10"/>
       <c r="Q686" s="10"/>
     </row>
-    <row r="687" ht="13.5" customHeight="1">
+    <row r="687">
       <c r="A687" s="10"/>
       <c r="B687" s="10"/>
       <c r="C687" s="10"/>
@@ -13685,7 +13794,7 @@
       <c r="P687" s="10"/>
       <c r="Q687" s="10"/>
     </row>
-    <row r="688" ht="13.5" customHeight="1">
+    <row r="688">
       <c r="A688" s="10"/>
       <c r="B688" s="10"/>
       <c r="C688" s="10"/>
@@ -13704,7 +13813,7 @@
       <c r="P688" s="10"/>
       <c r="Q688" s="10"/>
     </row>
-    <row r="689" ht="13.5" customHeight="1">
+    <row r="689">
       <c r="A689" s="10"/>
       <c r="B689" s="10"/>
       <c r="C689" s="10"/>
@@ -13723,7 +13832,7 @@
       <c r="P689" s="10"/>
       <c r="Q689" s="10"/>
     </row>
-    <row r="690" ht="13.5" customHeight="1">
+    <row r="690">
       <c r="A690" s="10"/>
       <c r="B690" s="10"/>
       <c r="C690" s="10"/>
@@ -13742,7 +13851,7 @@
       <c r="P690" s="10"/>
       <c r="Q690" s="10"/>
     </row>
-    <row r="691" ht="13.5" customHeight="1">
+    <row r="691">
       <c r="A691" s="10"/>
       <c r="B691" s="10"/>
       <c r="C691" s="10"/>
@@ -13761,7 +13870,7 @@
       <c r="P691" s="10"/>
       <c r="Q691" s="10"/>
     </row>
-    <row r="692" ht="13.5" customHeight="1">
+    <row r="692">
       <c r="A692" s="10"/>
       <c r="B692" s="10"/>
       <c r="C692" s="10"/>
@@ -13780,7 +13889,7 @@
       <c r="P692" s="10"/>
       <c r="Q692" s="10"/>
     </row>
-    <row r="693" ht="13.5" customHeight="1">
+    <row r="693">
       <c r="A693" s="10"/>
       <c r="B693" s="10"/>
       <c r="C693" s="10"/>
@@ -13799,7 +13908,7 @@
       <c r="P693" s="10"/>
       <c r="Q693" s="10"/>
     </row>
-    <row r="694" ht="13.5" customHeight="1">
+    <row r="694">
       <c r="A694" s="10"/>
       <c r="B694" s="10"/>
       <c r="C694" s="10"/>
@@ -13818,7 +13927,7 @@
       <c r="P694" s="10"/>
       <c r="Q694" s="10"/>
     </row>
-    <row r="695" ht="13.5" customHeight="1">
+    <row r="695">
       <c r="A695" s="10"/>
       <c r="B695" s="10"/>
       <c r="C695" s="10"/>
@@ -13837,7 +13946,7 @@
       <c r="P695" s="10"/>
       <c r="Q695" s="10"/>
     </row>
-    <row r="696" ht="13.5" customHeight="1">
+    <row r="696">
       <c r="A696" s="10"/>
       <c r="B696" s="10"/>
       <c r="C696" s="10"/>
@@ -13856,7 +13965,7 @@
       <c r="P696" s="10"/>
       <c r="Q696" s="10"/>
     </row>
-    <row r="697" ht="13.5" customHeight="1">
+    <row r="697">
       <c r="A697" s="10"/>
       <c r="B697" s="10"/>
       <c r="C697" s="10"/>
@@ -13875,7 +13984,7 @@
       <c r="P697" s="10"/>
       <c r="Q697" s="10"/>
     </row>
-    <row r="698" ht="13.5" customHeight="1">
+    <row r="698">
       <c r="A698" s="10"/>
       <c r="B698" s="10"/>
       <c r="C698" s="10"/>
@@ -13894,7 +14003,7 @@
       <c r="P698" s="10"/>
       <c r="Q698" s="10"/>
     </row>
-    <row r="699" ht="13.5" customHeight="1">
+    <row r="699">
       <c r="A699" s="10"/>
       <c r="B699" s="10"/>
       <c r="C699" s="10"/>
@@ -13913,7 +14022,7 @@
       <c r="P699" s="10"/>
       <c r="Q699" s="10"/>
     </row>
-    <row r="700" ht="13.5" customHeight="1">
+    <row r="700">
       <c r="A700" s="10"/>
       <c r="B700" s="10"/>
       <c r="C700" s="10"/>
@@ -13932,7 +14041,7 @@
       <c r="P700" s="10"/>
       <c r="Q700" s="10"/>
     </row>
-    <row r="701" ht="13.5" customHeight="1">
+    <row r="701">
       <c r="A701" s="10"/>
       <c r="B701" s="10"/>
       <c r="C701" s="10"/>
@@ -13951,7 +14060,7 @@
       <c r="P701" s="10"/>
       <c r="Q701" s="10"/>
     </row>
-    <row r="702" ht="13.5" customHeight="1">
+    <row r="702">
       <c r="A702" s="10"/>
       <c r="B702" s="10"/>
       <c r="C702" s="10"/>
@@ -13970,7 +14079,7 @@
       <c r="P702" s="10"/>
       <c r="Q702" s="10"/>
     </row>
-    <row r="703" ht="13.5" customHeight="1">
+    <row r="703">
       <c r="A703" s="10"/>
       <c r="B703" s="10"/>
       <c r="C703" s="10"/>
@@ -13989,7 +14098,7 @@
       <c r="P703" s="10"/>
       <c r="Q703" s="10"/>
     </row>
-    <row r="704" ht="13.5" customHeight="1">
+    <row r="704">
       <c r="A704" s="10"/>
       <c r="B704" s="10"/>
       <c r="C704" s="10"/>
@@ -14008,7 +14117,7 @@
       <c r="P704" s="10"/>
       <c r="Q704" s="10"/>
     </row>
-    <row r="705" ht="13.5" customHeight="1">
+    <row r="705">
       <c r="A705" s="10"/>
       <c r="B705" s="10"/>
       <c r="C705" s="10"/>
@@ -14027,7 +14136,7 @@
       <c r="P705" s="10"/>
       <c r="Q705" s="10"/>
     </row>
-    <row r="706" ht="13.5" customHeight="1">
+    <row r="706">
       <c r="A706" s="10"/>
       <c r="B706" s="10"/>
       <c r="C706" s="10"/>
@@ -14046,7 +14155,7 @@
       <c r="P706" s="10"/>
       <c r="Q706" s="10"/>
     </row>
-    <row r="707" ht="13.5" customHeight="1">
+    <row r="707">
       <c r="A707" s="10"/>
       <c r="B707" s="10"/>
       <c r="C707" s="10"/>
@@ -14065,7 +14174,7 @@
       <c r="P707" s="10"/>
       <c r="Q707" s="10"/>
     </row>
-    <row r="708" ht="13.5" customHeight="1">
+    <row r="708">
       <c r="A708" s="10"/>
       <c r="B708" s="10"/>
       <c r="C708" s="10"/>
@@ -14084,7 +14193,7 @@
       <c r="P708" s="10"/>
       <c r="Q708" s="10"/>
     </row>
-    <row r="709" ht="13.5" customHeight="1">
+    <row r="709">
       <c r="A709" s="10"/>
       <c r="B709" s="10"/>
       <c r="C709" s="10"/>
@@ -14103,7 +14212,7 @@
       <c r="P709" s="10"/>
       <c r="Q709" s="10"/>
     </row>
-    <row r="710" ht="13.5" customHeight="1">
+    <row r="710">
       <c r="A710" s="10"/>
       <c r="B710" s="10"/>
       <c r="C710" s="10"/>
@@ -14122,7 +14231,7 @@
       <c r="P710" s="10"/>
       <c r="Q710" s="10"/>
     </row>
-    <row r="711" ht="13.5" customHeight="1">
+    <row r="711">
       <c r="A711" s="10"/>
       <c r="B711" s="10"/>
       <c r="C711" s="10"/>
@@ -14141,7 +14250,7 @@
       <c r="P711" s="10"/>
       <c r="Q711" s="10"/>
     </row>
-    <row r="712" ht="13.5" customHeight="1">
+    <row r="712">
       <c r="A712" s="10"/>
       <c r="B712" s="10"/>
       <c r="C712" s="10"/>
@@ -14160,7 +14269,7 @@
       <c r="P712" s="10"/>
       <c r="Q712" s="10"/>
     </row>
-    <row r="713" ht="13.5" customHeight="1">
+    <row r="713">
       <c r="A713" s="10"/>
       <c r="B713" s="10"/>
       <c r="C713" s="10"/>
@@ -14179,7 +14288,7 @@
       <c r="P713" s="10"/>
       <c r="Q713" s="10"/>
     </row>
-    <row r="714" ht="13.5" customHeight="1">
+    <row r="714">
       <c r="A714" s="10"/>
       <c r="B714" s="10"/>
       <c r="C714" s="10"/>
@@ -14198,7 +14307,7 @@
       <c r="P714" s="10"/>
       <c r="Q714" s="10"/>
     </row>
-    <row r="715" ht="13.5" customHeight="1">
+    <row r="715">
       <c r="A715" s="10"/>
       <c r="B715" s="10"/>
       <c r="C715" s="10"/>
@@ -14217,7 +14326,7 @@
       <c r="P715" s="10"/>
       <c r="Q715" s="10"/>
     </row>
-    <row r="716" ht="13.5" customHeight="1">
+    <row r="716">
       <c r="A716" s="10"/>
       <c r="B716" s="10"/>
       <c r="C716" s="10"/>
@@ -14236,7 +14345,7 @@
       <c r="P716" s="10"/>
       <c r="Q716" s="10"/>
     </row>
-    <row r="717" ht="13.5" customHeight="1">
+    <row r="717">
       <c r="A717" s="10"/>
       <c r="B717" s="10"/>
       <c r="C717" s="10"/>
@@ -14255,7 +14364,7 @@
       <c r="P717" s="10"/>
       <c r="Q717" s="10"/>
     </row>
-    <row r="718" ht="13.5" customHeight="1">
+    <row r="718">
       <c r="A718" s="10"/>
       <c r="B718" s="10"/>
       <c r="C718" s="10"/>
@@ -14274,7 +14383,7 @@
       <c r="P718" s="10"/>
       <c r="Q718" s="10"/>
     </row>
-    <row r="719" ht="13.5" customHeight="1">
+    <row r="719">
       <c r="A719" s="10"/>
       <c r="B719" s="10"/>
       <c r="C719" s="10"/>
@@ -14293,7 +14402,7 @@
       <c r="P719" s="10"/>
       <c r="Q719" s="10"/>
     </row>
-    <row r="720" ht="13.5" customHeight="1">
+    <row r="720">
       <c r="A720" s="10"/>
       <c r="B720" s="10"/>
       <c r="C720" s="10"/>
@@ -14312,7 +14421,7 @@
       <c r="P720" s="10"/>
       <c r="Q720" s="10"/>
     </row>
-    <row r="721" ht="13.5" customHeight="1">
+    <row r="721">
       <c r="A721" s="10"/>
       <c r="B721" s="10"/>
       <c r="C721" s="10"/>
@@ -14331,7 +14440,7 @@
       <c r="P721" s="10"/>
       <c r="Q721" s="10"/>
     </row>
-    <row r="722" ht="13.5" customHeight="1">
+    <row r="722">
       <c r="A722" s="10"/>
       <c r="B722" s="10"/>
       <c r="C722" s="10"/>
@@ -14350,7 +14459,7 @@
       <c r="P722" s="10"/>
       <c r="Q722" s="10"/>
     </row>
-    <row r="723" ht="13.5" customHeight="1">
+    <row r="723">
       <c r="A723" s="10"/>
       <c r="B723" s="10"/>
       <c r="C723" s="10"/>
@@ -14369,7 +14478,7 @@
       <c r="P723" s="10"/>
       <c r="Q723" s="10"/>
     </row>
-    <row r="724" ht="13.5" customHeight="1">
+    <row r="724">
       <c r="A724" s="10"/>
       <c r="B724" s="10"/>
       <c r="C724" s="10"/>
@@ -14388,7 +14497,7 @@
       <c r="P724" s="10"/>
       <c r="Q724" s="10"/>
     </row>
-    <row r="725" ht="13.5" customHeight="1">
+    <row r="725">
       <c r="A725" s="10"/>
       <c r="B725" s="10"/>
       <c r="C725" s="10"/>
@@ -14407,7 +14516,7 @@
       <c r="P725" s="10"/>
       <c r="Q725" s="10"/>
     </row>
-    <row r="726" ht="13.5" customHeight="1">
+    <row r="726">
       <c r="A726" s="10"/>
       <c r="B726" s="10"/>
       <c r="C726" s="10"/>
@@ -14426,7 +14535,7 @@
       <c r="P726" s="10"/>
       <c r="Q726" s="10"/>
     </row>
-    <row r="727" ht="13.5" customHeight="1">
+    <row r="727">
       <c r="A727" s="10"/>
       <c r="B727" s="10"/>
       <c r="C727" s="10"/>
@@ -14445,7 +14554,7 @@
       <c r="P727" s="10"/>
       <c r="Q727" s="10"/>
     </row>
-    <row r="728" ht="13.5" customHeight="1">
+    <row r="728">
       <c r="A728" s="10"/>
       <c r="B728" s="10"/>
       <c r="C728" s="10"/>
@@ -14464,7 +14573,7 @@
       <c r="P728" s="10"/>
       <c r="Q728" s="10"/>
     </row>
-    <row r="729" ht="13.5" customHeight="1">
+    <row r="729">
       <c r="A729" s="10"/>
       <c r="B729" s="10"/>
       <c r="C729" s="10"/>
@@ -14483,7 +14592,7 @@
       <c r="P729" s="10"/>
       <c r="Q729" s="10"/>
     </row>
-    <row r="730" ht="13.5" customHeight="1">
+    <row r="730">
       <c r="A730" s="10"/>
       <c r="B730" s="10"/>
       <c r="C730" s="10"/>
@@ -14502,7 +14611,7 @@
       <c r="P730" s="10"/>
       <c r="Q730" s="10"/>
     </row>
-    <row r="731" ht="13.5" customHeight="1">
+    <row r="731">
       <c r="A731" s="10"/>
       <c r="B731" s="10"/>
       <c r="C731" s="10"/>
@@ -14521,7 +14630,7 @@
       <c r="P731" s="10"/>
       <c r="Q731" s="10"/>
     </row>
-    <row r="732" ht="13.5" customHeight="1">
+    <row r="732">
       <c r="A732" s="10"/>
       <c r="B732" s="10"/>
       <c r="C732" s="10"/>
@@ -14540,7 +14649,7 @@
       <c r="P732" s="10"/>
       <c r="Q732" s="10"/>
     </row>
-    <row r="733" ht="13.5" customHeight="1">
+    <row r="733">
       <c r="A733" s="10"/>
       <c r="B733" s="10"/>
       <c r="C733" s="10"/>
@@ -14559,7 +14668,7 @@
       <c r="P733" s="10"/>
       <c r="Q733" s="10"/>
     </row>
-    <row r="734" ht="13.5" customHeight="1">
+    <row r="734">
       <c r="A734" s="10"/>
       <c r="B734" s="10"/>
       <c r="C734" s="10"/>
@@ -14578,7 +14687,7 @@
       <c r="P734" s="10"/>
       <c r="Q734" s="10"/>
     </row>
-    <row r="735" ht="13.5" customHeight="1">
+    <row r="735">
       <c r="A735" s="10"/>
       <c r="B735" s="10"/>
       <c r="C735" s="10"/>
@@ -14597,7 +14706,7 @@
       <c r="P735" s="10"/>
       <c r="Q735" s="10"/>
     </row>
-    <row r="736" ht="13.5" customHeight="1">
+    <row r="736">
       <c r="A736" s="10"/>
       <c r="B736" s="10"/>
       <c r="C736" s="10"/>
@@ -14616,7 +14725,7 @@
       <c r="P736" s="10"/>
       <c r="Q736" s="10"/>
     </row>
-    <row r="737" ht="13.5" customHeight="1">
+    <row r="737">
       <c r="A737" s="10"/>
       <c r="B737" s="10"/>
       <c r="C737" s="10"/>
@@ -14635,7 +14744,7 @@
       <c r="P737" s="10"/>
       <c r="Q737" s="10"/>
     </row>
-    <row r="738" ht="13.5" customHeight="1">
+    <row r="738">
       <c r="A738" s="10"/>
       <c r="B738" s="10"/>
       <c r="C738" s="10"/>
@@ -14654,7 +14763,7 @@
       <c r="P738" s="10"/>
       <c r="Q738" s="10"/>
     </row>
-    <row r="739" ht="13.5" customHeight="1">
+    <row r="739">
       <c r="A739" s="10"/>
       <c r="B739" s="10"/>
       <c r="C739" s="10"/>
@@ -14673,7 +14782,7 @@
       <c r="P739" s="10"/>
       <c r="Q739" s="10"/>
     </row>
-    <row r="740" ht="13.5" customHeight="1">
+    <row r="740">
       <c r="A740" s="10"/>
       <c r="B740" s="10"/>
       <c r="C740" s="10"/>
@@ -14692,7 +14801,7 @@
       <c r="P740" s="10"/>
       <c r="Q740" s="10"/>
     </row>
-    <row r="741" ht="13.5" customHeight="1">
+    <row r="741">
       <c r="A741" s="10"/>
       <c r="B741" s="10"/>
       <c r="C741" s="10"/>
@@ -14711,7 +14820,7 @@
       <c r="P741" s="10"/>
       <c r="Q741" s="10"/>
     </row>
-    <row r="742" ht="13.5" customHeight="1">
+    <row r="742">
       <c r="A742" s="10"/>
       <c r="B742" s="10"/>
       <c r="C742" s="10"/>
@@ -14730,7 +14839,7 @@
       <c r="P742" s="10"/>
       <c r="Q742" s="10"/>
     </row>
-    <row r="743" ht="13.5" customHeight="1">
+    <row r="743">
       <c r="A743" s="10"/>
       <c r="B743" s="10"/>
       <c r="C743" s="10"/>
@@ -14749,7 +14858,7 @@
       <c r="P743" s="10"/>
       <c r="Q743" s="10"/>
     </row>
-    <row r="744" ht="13.5" customHeight="1">
+    <row r="744">
       <c r="A744" s="10"/>
       <c r="B744" s="10"/>
       <c r="C744" s="10"/>
@@ -14768,7 +14877,7 @@
       <c r="P744" s="10"/>
       <c r="Q744" s="10"/>
     </row>
-    <row r="745" ht="13.5" customHeight="1">
+    <row r="745">
       <c r="A745" s="10"/>
       <c r="B745" s="10"/>
       <c r="C745" s="10"/>
@@ -14787,7 +14896,7 @@
       <c r="P745" s="10"/>
       <c r="Q745" s="10"/>
     </row>
-    <row r="746" ht="13.5" customHeight="1">
+    <row r="746">
       <c r="A746" s="10"/>
       <c r="B746" s="10"/>
       <c r="C746" s="10"/>
@@ -14806,7 +14915,7 @@
       <c r="P746" s="10"/>
       <c r="Q746" s="10"/>
     </row>
-    <row r="747" ht="13.5" customHeight="1">
+    <row r="747">
       <c r="A747" s="10"/>
       <c r="B747" s="10"/>
       <c r="C747" s="10"/>
@@ -14825,7 +14934,7 @@
       <c r="P747" s="10"/>
       <c r="Q747" s="10"/>
     </row>
-    <row r="748" ht="13.5" customHeight="1">
+    <row r="748">
       <c r="A748" s="10"/>
       <c r="B748" s="10"/>
       <c r="C748" s="10"/>
@@ -14844,7 +14953,7 @@
       <c r="P748" s="10"/>
       <c r="Q748" s="10"/>
     </row>
-    <row r="749" ht="13.5" customHeight="1">
+    <row r="749">
       <c r="A749" s="10"/>
       <c r="B749" s="10"/>
       <c r="C749" s="10"/>
@@ -14863,7 +14972,7 @@
       <c r="P749" s="10"/>
       <c r="Q749" s="10"/>
     </row>
-    <row r="750" ht="13.5" customHeight="1">
+    <row r="750">
       <c r="A750" s="10"/>
       <c r="B750" s="10"/>
       <c r="C750" s="10"/>
@@ -14882,7 +14991,7 @@
       <c r="P750" s="10"/>
       <c r="Q750" s="10"/>
     </row>
-    <row r="751" ht="13.5" customHeight="1">
+    <row r="751">
       <c r="A751" s="10"/>
       <c r="B751" s="10"/>
       <c r="C751" s="10"/>
@@ -14901,7 +15010,7 @@
       <c r="P751" s="10"/>
       <c r="Q751" s="10"/>
     </row>
-    <row r="752" ht="13.5" customHeight="1">
+    <row r="752">
       <c r="A752" s="10"/>
       <c r="B752" s="10"/>
       <c r="C752" s="10"/>
@@ -14920,7 +15029,7 @@
       <c r="P752" s="10"/>
       <c r="Q752" s="10"/>
     </row>
-    <row r="753" ht="13.5" customHeight="1">
+    <row r="753">
       <c r="A753" s="10"/>
       <c r="B753" s="10"/>
       <c r="C753" s="10"/>
@@ -14939,7 +15048,7 @@
       <c r="P753" s="10"/>
       <c r="Q753" s="10"/>
     </row>
-    <row r="754" ht="13.5" customHeight="1">
+    <row r="754">
       <c r="A754" s="10"/>
       <c r="B754" s="10"/>
       <c r="C754" s="10"/>
@@ -14958,7 +15067,7 @@
       <c r="P754" s="10"/>
       <c r="Q754" s="10"/>
     </row>
-    <row r="755" ht="13.5" customHeight="1">
+    <row r="755">
       <c r="A755" s="10"/>
       <c r="B755" s="10"/>
       <c r="C755" s="10"/>
@@ -14977,7 +15086,7 @@
       <c r="P755" s="10"/>
       <c r="Q755" s="10"/>
     </row>
-    <row r="756" ht="13.5" customHeight="1">
+    <row r="756">
       <c r="A756" s="10"/>
       <c r="B756" s="10"/>
       <c r="C756" s="10"/>
@@ -14996,7 +15105,7 @@
       <c r="P756" s="10"/>
       <c r="Q756" s="10"/>
     </row>
-    <row r="757" ht="13.5" customHeight="1">
+    <row r="757">
       <c r="A757" s="10"/>
       <c r="B757" s="10"/>
       <c r="C757" s="10"/>
@@ -15015,7 +15124,7 @@
       <c r="P757" s="10"/>
       <c r="Q757" s="10"/>
     </row>
-    <row r="758" ht="13.5" customHeight="1">
+    <row r="758">
       <c r="A758" s="10"/>
       <c r="B758" s="10"/>
       <c r="C758" s="10"/>
@@ -15034,7 +15143,7 @@
       <c r="P758" s="10"/>
       <c r="Q758" s="10"/>
     </row>
-    <row r="759" ht="13.5" customHeight="1">
+    <row r="759">
       <c r="A759" s="10"/>
       <c r="B759" s="10"/>
       <c r="C759" s="10"/>
@@ -15053,7 +15162,7 @@
       <c r="P759" s="10"/>
       <c r="Q759" s="10"/>
     </row>
-    <row r="760" ht="13.5" customHeight="1">
+    <row r="760">
       <c r="A760" s="10"/>
       <c r="B760" s="10"/>
       <c r="C760" s="10"/>
@@ -15072,7 +15181,7 @@
       <c r="P760" s="10"/>
       <c r="Q760" s="10"/>
     </row>
-    <row r="761" ht="13.5" customHeight="1">
+    <row r="761">
       <c r="A761" s="10"/>
       <c r="B761" s="10"/>
       <c r="C761" s="10"/>
@@ -15091,7 +15200,7 @@
       <c r="P761" s="10"/>
       <c r="Q761" s="10"/>
     </row>
-    <row r="762" ht="13.5" customHeight="1">
+    <row r="762">
       <c r="A762" s="10"/>
       <c r="B762" s="10"/>
       <c r="C762" s="10"/>
@@ -15110,7 +15219,7 @@
       <c r="P762" s="10"/>
       <c r="Q762" s="10"/>
     </row>
-    <row r="763" ht="13.5" customHeight="1">
+    <row r="763">
       <c r="A763" s="10"/>
       <c r="B763" s="10"/>
       <c r="C763" s="10"/>
@@ -15129,7 +15238,7 @@
       <c r="P763" s="10"/>
       <c r="Q763" s="10"/>
     </row>
-    <row r="764" ht="13.5" customHeight="1">
+    <row r="764">
       <c r="A764" s="10"/>
       <c r="B764" s="10"/>
       <c r="C764" s="10"/>
@@ -15148,7 +15257,7 @@
       <c r="P764" s="10"/>
       <c r="Q764" s="10"/>
     </row>
-    <row r="765" ht="13.5" customHeight="1">
+    <row r="765">
       <c r="A765" s="10"/>
       <c r="B765" s="10"/>
       <c r="C765" s="10"/>
@@ -15167,7 +15276,7 @@
       <c r="P765" s="10"/>
       <c r="Q765" s="10"/>
     </row>
-    <row r="766" ht="13.5" customHeight="1">
+    <row r="766">
       <c r="A766" s="10"/>
       <c r="B766" s="10"/>
       <c r="C766" s="10"/>
@@ -15186,7 +15295,7 @@
       <c r="P766" s="10"/>
       <c r="Q766" s="10"/>
     </row>
-    <row r="767" ht="13.5" customHeight="1">
+    <row r="767">
       <c r="A767" s="10"/>
       <c r="B767" s="10"/>
       <c r="C767" s="10"/>
@@ -15205,7 +15314,7 @@
       <c r="P767" s="10"/>
       <c r="Q767" s="10"/>
     </row>
-    <row r="768" ht="13.5" customHeight="1">
+    <row r="768">
       <c r="A768" s="10"/>
       <c r="B768" s="10"/>
       <c r="C768" s="10"/>
@@ -15224,7 +15333,7 @@
       <c r="P768" s="10"/>
       <c r="Q768" s="10"/>
     </row>
-    <row r="769" ht="13.5" customHeight="1">
+    <row r="769">
       <c r="A769" s="10"/>
       <c r="B769" s="10"/>
       <c r="C769" s="10"/>
@@ -15243,7 +15352,7 @@
       <c r="P769" s="10"/>
       <c r="Q769" s="10"/>
     </row>
-    <row r="770" ht="13.5" customHeight="1">
+    <row r="770">
       <c r="A770" s="10"/>
       <c r="B770" s="10"/>
       <c r="C770" s="10"/>
@@ -15262,7 +15371,7 @@
       <c r="P770" s="10"/>
       <c r="Q770" s="10"/>
     </row>
-    <row r="771" ht="13.5" customHeight="1">
+    <row r="771">
       <c r="A771" s="10"/>
       <c r="B771" s="10"/>
       <c r="C771" s="10"/>
@@ -15281,7 +15390,7 @@
       <c r="P771" s="10"/>
       <c r="Q771" s="10"/>
     </row>
-    <row r="772" ht="13.5" customHeight="1">
+    <row r="772">
       <c r="A772" s="10"/>
       <c r="B772" s="10"/>
       <c r="C772" s="10"/>
@@ -15300,7 +15409,7 @@
       <c r="P772" s="10"/>
       <c r="Q772" s="10"/>
     </row>
-    <row r="773" ht="13.5" customHeight="1">
+    <row r="773">
       <c r="A773" s="10"/>
       <c r="B773" s="10"/>
       <c r="C773" s="10"/>
@@ -15319,7 +15428,7 @@
       <c r="P773" s="10"/>
       <c r="Q773" s="10"/>
     </row>
-    <row r="774" ht="13.5" customHeight="1">
+    <row r="774">
       <c r="A774" s="10"/>
       <c r="B774" s="10"/>
       <c r="C774" s="10"/>
@@ -15338,7 +15447,7 @@
       <c r="P774" s="10"/>
       <c r="Q774" s="10"/>
     </row>
-    <row r="775" ht="13.5" customHeight="1">
+    <row r="775">
       <c r="A775" s="10"/>
       <c r="B775" s="10"/>
       <c r="C775" s="10"/>
@@ -15357,7 +15466,7 @@
       <c r="P775" s="10"/>
       <c r="Q775" s="10"/>
     </row>
-    <row r="776" ht="13.5" customHeight="1">
+    <row r="776">
       <c r="A776" s="10"/>
       <c r="B776" s="10"/>
       <c r="C776" s="10"/>
@@ -15376,7 +15485,7 @@
       <c r="P776" s="10"/>
       <c r="Q776" s="10"/>
     </row>
-    <row r="777" ht="13.5" customHeight="1">
+    <row r="777">
       <c r="A777" s="10"/>
       <c r="B777" s="10"/>
       <c r="C777" s="10"/>
@@ -15395,7 +15504,7 @@
       <c r="P777" s="10"/>
       <c r="Q777" s="10"/>
     </row>
-    <row r="778" ht="13.5" customHeight="1">
+    <row r="778">
       <c r="A778" s="10"/>
       <c r="B778" s="10"/>
       <c r="C778" s="10"/>
@@ -15414,7 +15523,7 @@
       <c r="P778" s="10"/>
       <c r="Q778" s="10"/>
     </row>
-    <row r="779" ht="13.5" customHeight="1">
+    <row r="779">
       <c r="A779" s="10"/>
       <c r="B779" s="10"/>
       <c r="C779" s="10"/>
@@ -15433,7 +15542,7 @@
       <c r="P779" s="10"/>
       <c r="Q779" s="10"/>
     </row>
-    <row r="780" ht="13.5" customHeight="1">
+    <row r="780">
       <c r="A780" s="10"/>
       <c r="B780" s="10"/>
       <c r="C780" s="10"/>
@@ -15452,7 +15561,7 @@
       <c r="P780" s="10"/>
       <c r="Q780" s="10"/>
     </row>
-    <row r="781" ht="13.5" customHeight="1">
+    <row r="781">
       <c r="A781" s="10"/>
       <c r="B781" s="10"/>
       <c r="C781" s="10"/>
@@ -15471,7 +15580,7 @@
       <c r="P781" s="10"/>
       <c r="Q781" s="10"/>
     </row>
-    <row r="782" ht="13.5" customHeight="1">
+    <row r="782">
       <c r="A782" s="10"/>
       <c r="B782" s="10"/>
       <c r="C782" s="10"/>
@@ -15490,7 +15599,7 @@
       <c r="P782" s="10"/>
       <c r="Q782" s="10"/>
     </row>
-    <row r="783" ht="13.5" customHeight="1">
+    <row r="783">
       <c r="A783" s="10"/>
       <c r="B783" s="10"/>
       <c r="C783" s="10"/>
@@ -15509,7 +15618,7 @@
       <c r="P783" s="10"/>
       <c r="Q783" s="10"/>
     </row>
-    <row r="784" ht="13.5" customHeight="1">
+    <row r="784">
       <c r="A784" s="10"/>
       <c r="B784" s="10"/>
       <c r="C784" s="10"/>
@@ -15528,7 +15637,7 @@
       <c r="P784" s="10"/>
       <c r="Q784" s="10"/>
     </row>
-    <row r="785" ht="13.5" customHeight="1">
+    <row r="785">
       <c r="A785" s="10"/>
       <c r="B785" s="10"/>
       <c r="C785" s="10"/>
@@ -15547,7 +15656,7 @@
       <c r="P785" s="10"/>
       <c r="Q785" s="10"/>
     </row>
-    <row r="786" ht="13.5" customHeight="1">
+    <row r="786">
       <c r="A786" s="10"/>
       <c r="B786" s="10"/>
       <c r="C786" s="10"/>
@@ -15566,7 +15675,7 @@
       <c r="P786" s="10"/>
       <c r="Q786" s="10"/>
     </row>
-    <row r="787" ht="13.5" customHeight="1">
+    <row r="787">
       <c r="A787" s="10"/>
       <c r="B787" s="10"/>
       <c r="C787" s="10"/>
@@ -15585,7 +15694,7 @@
       <c r="P787" s="10"/>
       <c r="Q787" s="10"/>
     </row>
-    <row r="788" ht="13.5" customHeight="1">
+    <row r="788">
       <c r="A788" s="10"/>
       <c r="B788" s="10"/>
       <c r="C788" s="10"/>
@@ -15604,7 +15713,7 @@
       <c r="P788" s="10"/>
       <c r="Q788" s="10"/>
     </row>
-    <row r="789" ht="13.5" customHeight="1">
+    <row r="789">
       <c r="A789" s="10"/>
       <c r="B789" s="10"/>
       <c r="C789" s="10"/>
@@ -15623,7 +15732,7 @@
       <c r="P789" s="10"/>
       <c r="Q789" s="10"/>
     </row>
-    <row r="790" ht="13.5" customHeight="1">
+    <row r="790">
       <c r="A790" s="10"/>
       <c r="B790" s="10"/>
       <c r="C790" s="10"/>
@@ -15642,7 +15751,7 @@
       <c r="P790" s="10"/>
       <c r="Q790" s="10"/>
     </row>
-    <row r="791" ht="13.5" customHeight="1">
+    <row r="791">
       <c r="A791" s="10"/>
       <c r="B791" s="10"/>
       <c r="C791" s="10"/>
@@ -15661,7 +15770,7 @@
       <c r="P791" s="10"/>
       <c r="Q791" s="10"/>
     </row>
-    <row r="792" ht="13.5" customHeight="1">
+    <row r="792">
       <c r="A792" s="10"/>
       <c r="B792" s="10"/>
       <c r="C792" s="10"/>
@@ -15680,7 +15789,7 @@
       <c r="P792" s="10"/>
       <c r="Q792" s="10"/>
     </row>
-    <row r="793" ht="13.5" customHeight="1">
+    <row r="793">
       <c r="A793" s="10"/>
       <c r="B793" s="10"/>
       <c r="C793" s="10"/>
@@ -15699,7 +15808,7 @@
       <c r="P793" s="10"/>
       <c r="Q793" s="10"/>
     </row>
-    <row r="794" ht="13.5" customHeight="1">
+    <row r="794">
       <c r="A794" s="10"/>
       <c r="B794" s="10"/>
       <c r="C794" s="10"/>
@@ -15718,7 +15827,7 @@
       <c r="P794" s="10"/>
       <c r="Q794" s="10"/>
     </row>
-    <row r="795" ht="13.5" customHeight="1">
+    <row r="795">
       <c r="A795" s="10"/>
       <c r="B795" s="10"/>
       <c r="C795" s="10"/>
@@ -15737,7 +15846,7 @@
       <c r="P795" s="10"/>
       <c r="Q795" s="10"/>
     </row>
-    <row r="796" ht="13.5" customHeight="1">
+    <row r="796">
       <c r="A796" s="10"/>
       <c r="B796" s="10"/>
       <c r="C796" s="10"/>
@@ -15756,7 +15865,7 @@
       <c r="P796" s="10"/>
       <c r="Q796" s="10"/>
     </row>
-    <row r="797" ht="13.5" customHeight="1">
+    <row r="797">
       <c r="A797" s="10"/>
       <c r="B797" s="10"/>
       <c r="C797" s="10"/>
@@ -15775,7 +15884,7 @@
       <c r="P797" s="10"/>
       <c r="Q797" s="10"/>
     </row>
-    <row r="798" ht="13.5" customHeight="1">
+    <row r="798">
       <c r="A798" s="10"/>
       <c r="B798" s="10"/>
       <c r="C798" s="10"/>
@@ -15794,7 +15903,7 @@
       <c r="P798" s="10"/>
       <c r="Q798" s="10"/>
     </row>
-    <row r="799" ht="13.5" customHeight="1">
+    <row r="799">
       <c r="A799" s="10"/>
       <c r="B799" s="10"/>
       <c r="C799" s="10"/>
@@ -15813,7 +15922,7 @@
       <c r="P799" s="10"/>
       <c r="Q799" s="10"/>
     </row>
-    <row r="800" ht="13.5" customHeight="1">
+    <row r="800">
       <c r="A800" s="10"/>
       <c r="B800" s="10"/>
       <c r="C800" s="10"/>
@@ -15832,7 +15941,7 @@
       <c r="P800" s="10"/>
       <c r="Q800" s="10"/>
     </row>
-    <row r="801" ht="13.5" customHeight="1">
+    <row r="801">
       <c r="A801" s="10"/>
       <c r="B801" s="10"/>
       <c r="C801" s="10"/>
@@ -15851,7 +15960,7 @@
       <c r="P801" s="10"/>
       <c r="Q801" s="10"/>
     </row>
-    <row r="802" ht="13.5" customHeight="1">
+    <row r="802">
       <c r="A802" s="10"/>
       <c r="B802" s="10"/>
       <c r="C802" s="10"/>
@@ -15870,7 +15979,7 @@
       <c r="P802" s="10"/>
       <c r="Q802" s="10"/>
     </row>
-    <row r="803" ht="13.5" customHeight="1">
+    <row r="803">
       <c r="A803" s="10"/>
       <c r="B803" s="10"/>
       <c r="C803" s="10"/>
@@ -15889,7 +15998,7 @@
       <c r="P803" s="10"/>
       <c r="Q803" s="10"/>
     </row>
-    <row r="804" ht="13.5" customHeight="1">
+    <row r="804">
       <c r="A804" s="10"/>
       <c r="B804" s="10"/>
       <c r="C804" s="10"/>
@@ -15908,7 +16017,7 @@
       <c r="P804" s="10"/>
       <c r="Q804" s="10"/>
     </row>
-    <row r="805" ht="13.5" customHeight="1">
+    <row r="805">
       <c r="A805" s="10"/>
       <c r="B805" s="10"/>
       <c r="C805" s="10"/>
@@ -15927,7 +16036,7 @@
       <c r="P805" s="10"/>
       <c r="Q805" s="10"/>
     </row>
-    <row r="806" ht="13.5" customHeight="1">
+    <row r="806">
       <c r="A806" s="10"/>
       <c r="B806" s="10"/>
       <c r="C806" s="10"/>
@@ -15946,7 +16055,7 @@
       <c r="P806" s="10"/>
       <c r="Q806" s="10"/>
     </row>
-    <row r="807" ht="13.5" customHeight="1">
+    <row r="807">
       <c r="A807" s="10"/>
       <c r="B807" s="10"/>
       <c r="C807" s="10"/>
@@ -15965,7 +16074,7 @@
       <c r="P807" s="10"/>
       <c r="Q807" s="10"/>
     </row>
-    <row r="808" ht="13.5" customHeight="1">
+    <row r="808">
       <c r="A808" s="10"/>
       <c r="B808" s="10"/>
       <c r="C808" s="10"/>
@@ -15984,7 +16093,7 @@
       <c r="P808" s="10"/>
       <c r="Q808" s="10"/>
     </row>
-    <row r="809" ht="13.5" customHeight="1">
+    <row r="809">
       <c r="A809" s="10"/>
       <c r="B809" s="10"/>
       <c r="C809" s="10"/>
@@ -16003,7 +16112,7 @@
       <c r="P809" s="10"/>
       <c r="Q809" s="10"/>
     </row>
-    <row r="810" ht="13.5" customHeight="1">
+    <row r="810">
       <c r="A810" s="10"/>
       <c r="B810" s="10"/>
       <c r="C810" s="10"/>
@@ -16022,7 +16131,7 @@
       <c r="P810" s="10"/>
       <c r="Q810" s="10"/>
     </row>
-    <row r="811" ht="13.5" customHeight="1">
+    <row r="811">
       <c r="A811" s="10"/>
       <c r="B811" s="10"/>
       <c r="C811" s="10"/>
@@ -16041,7 +16150,7 @@
       <c r="P811" s="10"/>
       <c r="Q811" s="10"/>
     </row>
-    <row r="812" ht="13.5" customHeight="1">
+    <row r="812">
       <c r="A812" s="10"/>
       <c r="B812" s="10"/>
       <c r="C812" s="10"/>
@@ -16060,7 +16169,7 @@
       <c r="P812" s="10"/>
       <c r="Q812" s="10"/>
     </row>
-    <row r="813" ht="13.5" customHeight="1">
+    <row r="813">
       <c r="A813" s="10"/>
       <c r="B813" s="10"/>
       <c r="C813" s="10"/>
@@ -16079,7 +16188,7 @@
       <c r="P813" s="10"/>
       <c r="Q813" s="10"/>
     </row>
-    <row r="814" ht="13.5" customHeight="1">
+    <row r="814">
       <c r="A814" s="10"/>
       <c r="B814" s="10"/>
       <c r="C814" s="10"/>
@@ -16098,7 +16207,7 @@
       <c r="P814" s="10"/>
       <c r="Q814" s="10"/>
     </row>
-    <row r="815" ht="13.5" customHeight="1">
+    <row r="815">
       <c r="A815" s="10"/>
       <c r="B815" s="10"/>
       <c r="C815" s="10"/>
@@ -16117,7 +16226,7 @@
       <c r="P815" s="10"/>
       <c r="Q815" s="10"/>
     </row>
-    <row r="816" ht="13.5" customHeight="1">
+    <row r="816">
       <c r="A816" s="10"/>
       <c r="B816" s="10"/>
       <c r="C816" s="10"/>
@@ -16136,7 +16245,7 @@
       <c r="P816" s="10"/>
       <c r="Q816" s="10"/>
     </row>
-    <row r="817" ht="13.5" customHeight="1">
+    <row r="817">
       <c r="A817" s="10"/>
       <c r="B817" s="10"/>
       <c r="C817" s="10"/>
@@ -16155,7 +16264,7 @@
       <c r="P817" s="10"/>
       <c r="Q817" s="10"/>
     </row>
-    <row r="818" ht="13.5" customHeight="1">
+    <row r="818">
       <c r="A818" s="10"/>
       <c r="B818" s="10"/>
       <c r="C818" s="10"/>
@@ -16174,7 +16283,7 @@
       <c r="P818" s="10"/>
       <c r="Q818" s="10"/>
     </row>
-    <row r="819" ht="13.5" customHeight="1">
+    <row r="819">
       <c r="A819" s="10"/>
       <c r="B819" s="10"/>
       <c r="C819" s="10"/>
@@ -16193,7 +16302,7 @@
       <c r="P819" s="10"/>
       <c r="Q819" s="10"/>
     </row>
-    <row r="820" ht="13.5" customHeight="1">
+    <row r="820">
       <c r="A820" s="10"/>
       <c r="B820" s="10"/>
       <c r="C820" s="10"/>
@@ -16212,7 +16321,7 @@
       <c r="P820" s="10"/>
       <c r="Q820" s="10"/>
     </row>
-    <row r="821" ht="13.5" customHeight="1">
+    <row r="821">
       <c r="A821" s="10"/>
       <c r="B821" s="10"/>
       <c r="C821" s="10"/>
@@ -16231,7 +16340,7 @@
       <c r="P821" s="10"/>
       <c r="Q821" s="10"/>
     </row>
-    <row r="822" ht="13.5" customHeight="1">
+    <row r="822">
       <c r="A822" s="10"/>
       <c r="B822" s="10"/>
       <c r="C822" s="10"/>
@@ -16250,7 +16359,7 @@
       <c r="P822" s="10"/>
       <c r="Q822" s="10"/>
     </row>
-    <row r="823" ht="13.5" customHeight="1">
+    <row r="823">
       <c r="A823" s="10"/>
       <c r="B823" s="10"/>
       <c r="C823" s="10"/>
@@ -16269,7 +16378,7 @@
       <c r="P823" s="10"/>
       <c r="Q823" s="10"/>
     </row>
-    <row r="824" ht="13.5" customHeight="1">
+    <row r="824">
       <c r="A824" s="10"/>
       <c r="B824" s="10"/>
       <c r="C824" s="10"/>
@@ -16288,7 +16397,7 @@
       <c r="P824" s="10"/>
       <c r="Q824" s="10"/>
     </row>
-    <row r="825" ht="13.5" customHeight="1">
+    <row r="825">
       <c r="A825" s="10"/>
       <c r="B825" s="10"/>
       <c r="C825" s="10"/>
@@ -16307,7 +16416,7 @@
       <c r="P825" s="10"/>
       <c r="Q825" s="10"/>
     </row>
-    <row r="826" ht="13.5" customHeight="1">
+    <row r="826">
       <c r="A826" s="10"/>
       <c r="B826" s="10"/>
       <c r="C826" s="10"/>
@@ -16326,7 +16435,7 @@
       <c r="P826" s="10"/>
       <c r="Q826" s="10"/>
     </row>
-    <row r="827" ht="13.5" customHeight="1">
+    <row r="827">
       <c r="A827" s="10"/>
       <c r="B827" s="10"/>
       <c r="C827" s="10"/>
@@ -16345,7 +16454,7 @@
       <c r="P827" s="10"/>
       <c r="Q827" s="10"/>
     </row>
-    <row r="828" ht="13.5" customHeight="1">
+    <row r="828">
       <c r="A828" s="10"/>
       <c r="B828" s="10"/>
       <c r="C828" s="10"/>
@@ -16364,7 +16473,7 @@
       <c r="P828" s="10"/>
       <c r="Q828" s="10"/>
     </row>
-    <row r="829" ht="13.5" customHeight="1">
+    <row r="829">
       <c r="A829" s="10"/>
       <c r="B829" s="10"/>
       <c r="C829" s="10"/>
@@ -16383,7 +16492,7 @@
       <c r="P829" s="10"/>
       <c r="Q829" s="10"/>
     </row>
-    <row r="830" ht="13.5" customHeight="1">
+    <row r="830">
       <c r="A830" s="10"/>
       <c r="B830" s="10"/>
       <c r="C830" s="10"/>
@@ -16402,7 +16511,7 @@
       <c r="P830" s="10"/>
       <c r="Q830" s="10"/>
     </row>
-    <row r="831" ht="13.5" customHeight="1">
+    <row r="831">
       <c r="A831" s="10"/>
       <c r="B831" s="10"/>
       <c r="C831" s="10"/>
@@ -16421,7 +16530,7 @@
       <c r="P831" s="10"/>
       <c r="Q831" s="10"/>
     </row>
-    <row r="832" ht="13.5" customHeight="1">
+    <row r="832">
       <c r="A832" s="10"/>
       <c r="B832" s="10"/>
       <c r="C832" s="10"/>
@@ -16440,7 +16549,7 @@
       <c r="P832" s="10"/>
       <c r="Q832" s="10"/>
     </row>
-    <row r="833" ht="13.5" customHeight="1">
+    <row r="833">
       <c r="A833" s="10"/>
       <c r="B833" s="10"/>
       <c r="C833" s="10"/>
@@ -16459,7 +16568,7 @@
       <c r="P833" s="10"/>
       <c r="Q833" s="10"/>
     </row>
-    <row r="834" ht="13.5" customHeight="1">
+    <row r="834">
       <c r="A834" s="10"/>
       <c r="B834" s="10"/>
       <c r="C834" s="10"/>
@@ -16478,7 +16587,7 @@
       <c r="P834" s="10"/>
       <c r="Q834" s="10"/>
     </row>
-    <row r="835" ht="13.5" customHeight="1">
+    <row r="835">
       <c r="A835" s="10"/>
       <c r="B835" s="10"/>
       <c r="C835" s="10"/>
@@ -16497,7 +16606,7 @@
       <c r="P835" s="10"/>
       <c r="Q835" s="10"/>
     </row>
-    <row r="836" ht="13.5" customHeight="1">
+    <row r="836">
       <c r="A836" s="10"/>
       <c r="B836" s="10"/>
       <c r="C836" s="10"/>
@@ -16516,7 +16625,7 @@
       <c r="P836" s="10"/>
       <c r="Q836" s="10"/>
     </row>
-    <row r="837" ht="13.5" customHeight="1">
+    <row r="837">
       <c r="A837" s="10"/>
       <c r="B837" s="10"/>
       <c r="C837" s="10"/>
@@ -16535,7 +16644,7 @@
       <c r="P837" s="10"/>
       <c r="Q837" s="10"/>
     </row>
-    <row r="838" ht="13.5" customHeight="1">
+    <row r="838">
       <c r="A838" s="10"/>
       <c r="B838" s="10"/>
       <c r="C838" s="10"/>
@@ -16554,7 +16663,7 @@
       <c r="P838" s="10"/>
       <c r="Q838" s="10"/>
     </row>
-    <row r="839" ht="13.5" customHeight="1">
+    <row r="839">
       <c r="A839" s="10"/>
       <c r="B839" s="10"/>
       <c r="C839" s="10"/>
@@ -16573,7 +16682,7 @@
       <c r="P839" s="10"/>
       <c r="Q839" s="10"/>
     </row>
-    <row r="840" ht="13.5" customHeight="1">
+    <row r="840">
       <c r="A840" s="10"/>
       <c r="B840" s="10"/>
       <c r="C840" s="10"/>
@@ -16592,7 +16701,7 @@
       <c r="P840" s="10"/>
       <c r="Q840" s="10"/>
     </row>
-    <row r="841" ht="13.5" customHeight="1">
+    <row r="841">
       <c r="A841" s="10"/>
       <c r="B841" s="10"/>
       <c r="C841" s="10"/>
@@ -16611,7 +16720,7 @@
       <c r="P841" s="10"/>
       <c r="Q841" s="10"/>
     </row>
-    <row r="842" ht="13.5" customHeight="1">
+    <row r="842">
       <c r="A842" s="10"/>
       <c r="B842" s="10"/>
       <c r="C842" s="10"/>
@@ -16630,7 +16739,7 @@
       <c r="P842" s="10"/>
       <c r="Q842" s="10"/>
     </row>
-    <row r="843" ht="13.5" customHeight="1">
+    <row r="843">
       <c r="A843" s="10"/>
       <c r="B843" s="10"/>
       <c r="C843" s="10"/>
@@ -16649,7 +16758,7 @@
       <c r="P843" s="10"/>
       <c r="Q843" s="10"/>
     </row>
-    <row r="844" ht="13.5" customHeight="1">
+    <row r="844">
       <c r="A844" s="10"/>
       <c r="B844" s="10"/>
       <c r="C844" s="10"/>
@@ -16668,7 +16777,7 @@
       <c r="P844" s="10"/>
       <c r="Q844" s="10"/>
     </row>
-    <row r="845" ht="13.5" customHeight="1">
+    <row r="845">
       <c r="A845" s="10"/>
       <c r="B845" s="10"/>
       <c r="C845" s="10"/>
@@ -16687,7 +16796,7 @@
       <c r="P845" s="10"/>
       <c r="Q845" s="10"/>
     </row>
-    <row r="846" ht="13.5" customHeight="1">
+    <row r="846">
       <c r="A846" s="10"/>
       <c r="B846" s="10"/>
       <c r="C846" s="10"/>
@@ -16706,7 +16815,7 @@
       <c r="P846" s="10"/>
       <c r="Q846" s="10"/>
     </row>
-    <row r="847" ht="13.5" customHeight="1">
+    <row r="847">
       <c r="A847" s="10"/>
       <c r="B847" s="10"/>
       <c r="C847" s="10"/>
@@ -16725,7 +16834,7 @@
       <c r="P847" s="10"/>
       <c r="Q847" s="10"/>
     </row>
-    <row r="848" ht="13.5" customHeight="1">
+    <row r="848">
       <c r="A848" s="10"/>
       <c r="B848" s="10"/>
       <c r="C848" s="10"/>
@@ -16744,7 +16853,7 @@
       <c r="P848" s="10"/>
       <c r="Q848" s="10"/>
     </row>
-    <row r="849" ht="13.5" customHeight="1">
+    <row r="849">
       <c r="A849" s="10"/>
       <c r="B849" s="10"/>
       <c r="C849" s="10"/>
@@ -16763,7 +16872,7 @@
       <c r="P849" s="10"/>
       <c r="Q849" s="10"/>
     </row>
-    <row r="850" ht="13.5" customHeight="1">
+    <row r="850">
       <c r="A850" s="10"/>
       <c r="B850" s="10"/>
       <c r="C850" s="10"/>
@@ -16782,7 +16891,7 @@
       <c r="P850" s="10"/>
       <c r="Q850" s="10"/>
     </row>
-    <row r="851" ht="13.5" customHeight="1">
+    <row r="851">
       <c r="A851" s="10"/>
       <c r="B851" s="10"/>
       <c r="C851" s="10"/>
@@ -16801,7 +16910,7 @@
       <c r="P851" s="10"/>
       <c r="Q851" s="10"/>
     </row>
-    <row r="852" ht="13.5" customHeight="1">
+    <row r="852">
       <c r="A852" s="10"/>
       <c r="B852" s="10"/>
       <c r="C852" s="10"/>
@@ -16820,7 +16929,7 @@
       <c r="P852" s="10"/>
       <c r="Q852" s="10"/>
     </row>
-    <row r="853" ht="13.5" customHeight="1">
+    <row r="853">
       <c r="A853" s="10"/>
       <c r="B853" s="10"/>
       <c r="C853" s="10"/>
@@ -16839,7 +16948,7 @@
       <c r="P853" s="10"/>
       <c r="Q853" s="10"/>
     </row>
-    <row r="854" ht="13.5" customHeight="1">
+    <row r="854">
       <c r="A854" s="10"/>
       <c r="B854" s="10"/>
       <c r="C854" s="10"/>
@@ -16858,7 +16967,7 @@
       <c r="P854" s="10"/>
       <c r="Q854" s="10"/>
     </row>
-    <row r="855" ht="13.5" customHeight="1">
+    <row r="855">
       <c r="A855" s="10"/>
       <c r="B855" s="10"/>
       <c r="C855" s="10"/>
@@ -16877,7 +16986,7 @@
       <c r="P855" s="10"/>
       <c r="Q855" s="10"/>
     </row>
-    <row r="856" ht="13.5" customHeight="1">
+    <row r="856">
       <c r="A856" s="10"/>
       <c r="B856" s="10"/>
       <c r="C856" s="10"/>
@@ -16896,7 +17005,7 @@
       <c r="P856" s="10"/>
       <c r="Q856" s="10"/>
     </row>
-    <row r="857" ht="13.5" customHeight="1">
+    <row r="857">
       <c r="A857" s="10"/>
       <c r="B857" s="10"/>
       <c r="C857" s="10"/>
@@ -16915,7 +17024,7 @@
       <c r="P857" s="10"/>
       <c r="Q857" s="10"/>
     </row>
-    <row r="858" ht="13.5" customHeight="1">
+    <row r="858">
       <c r="A858" s="10"/>
       <c r="B858" s="10"/>
       <c r="C858" s="10"/>
@@ -16934,7 +17043,7 @@
       <c r="P858" s="10"/>
       <c r="Q858" s="10"/>
     </row>
-    <row r="859" ht="13.5" customHeight="1">
+    <row r="859">
       <c r="A859" s="10"/>
       <c r="B859" s="10"/>
       <c r="C859" s="10"/>
@@ -16953,7 +17062,7 @@
       <c r="P859" s="10"/>
       <c r="Q859" s="10"/>
     </row>
-    <row r="860" ht="13.5" customHeight="1">
+    <row r="860">
       <c r="A860" s="10"/>
       <c r="B860" s="10"/>
       <c r="C860" s="10"/>
@@ -16972,7 +17081,7 @@
       <c r="P860" s="10"/>
       <c r="Q860" s="10"/>
     </row>
-    <row r="861" ht="13.5" customHeight="1">
+    <row r="861">
       <c r="A861" s="10"/>
       <c r="B861" s="10"/>
       <c r="C861" s="10"/>
@@ -16991,7 +17100,7 @@
       <c r="P861" s="10"/>
       <c r="Q861" s="10"/>
     </row>
-    <row r="862" ht="13.5" customHeight="1">
+    <row r="862">
       <c r="A862" s="10"/>
       <c r="B862" s="10"/>
       <c r="C862" s="10"/>
@@ -17010,7 +17119,7 @@
       <c r="P862" s="10"/>
       <c r="Q862" s="10"/>
     </row>
-    <row r="863" ht="13.5" customHeight="1">
+    <row r="863">
       <c r="A863" s="10"/>
       <c r="B863" s="10"/>
       <c r="C863" s="10"/>
@@ -17029,7 +17138,7 @@
       <c r="P863" s="10"/>
       <c r="Q863" s="10"/>
     </row>
-    <row r="864" ht="13.5" customHeight="1">
+    <row r="864">
       <c r="A864" s="10"/>
       <c r="B864" s="10"/>
       <c r="C864" s="10"/>
@@ -17048,7 +17157,7 @@
       <c r="P864" s="10"/>
       <c r="Q864" s="10"/>
     </row>
-    <row r="865" ht="13.5" customHeight="1">
+    <row r="865">
       <c r="A865" s="10"/>
       <c r="B865" s="10"/>
       <c r="C865" s="10"/>
@@ -17067,7 +17176,7 @@
       <c r="P865" s="10"/>
       <c r="Q865" s="10"/>
     </row>
-    <row r="866" ht="13.5" customHeight="1">
+    <row r="866">
       <c r="A866" s="10"/>
       <c r="B866" s="10"/>
       <c r="C866" s="10"/>
@@ -17086,7 +17195,7 @@
       <c r="P866" s="10"/>
       <c r="Q866" s="10"/>
     </row>
-    <row r="867" ht="13.5" customHeight="1">
+    <row r="867">
       <c r="A867" s="10"/>
       <c r="B867" s="10"/>
       <c r="C867" s="10"/>
@@ -17105,7 +17214,7 @@
       <c r="P867" s="10"/>
       <c r="Q867" s="10"/>
     </row>
-    <row r="868" ht="13.5" customHeight="1">
+    <row r="868">
       <c r="A868" s="10"/>
       <c r="B868" s="10"/>
       <c r="C868" s="10"/>
@@ -17124,7 +17233,7 @@
       <c r="P868" s="10"/>
       <c r="Q868" s="10"/>
     </row>
-    <row r="869" ht="13.5" customHeight="1">
+    <row r="869">
       <c r="A869" s="10"/>
       <c r="B869" s="10"/>
       <c r="C869" s="10"/>
@@ -17143,7 +17252,7 @@
       <c r="P869" s="10"/>
       <c r="Q869" s="10"/>
     </row>
-    <row r="870" ht="13.5" customHeight="1">
+    <row r="870">
       <c r="A870" s="10"/>
       <c r="B870" s="10"/>
       <c r="C870" s="10"/>
@@ -17162,7 +17271,7 @@
       <c r="P870" s="10"/>
       <c r="Q870" s="10"/>
     </row>
-    <row r="871" ht="13.5" customHeight="1">
+    <row r="871">
       <c r="A871" s="10"/>
       <c r="B871" s="10"/>
       <c r="C871" s="10"/>
@@ -17181,7 +17290,7 @@
       <c r="P871" s="10"/>
       <c r="Q871" s="10"/>
     </row>
-    <row r="872" ht="13.5" customHeight="1">
+    <row r="872">
       <c r="A872" s="10"/>
       <c r="B872" s="10"/>
       <c r="C872" s="10"/>
@@ -17200,7 +17309,7 @@
       <c r="P872" s="10"/>
       <c r="Q872" s="10"/>
     </row>
-    <row r="873" ht="13.5" customHeight="1">
+    <row r="873">
       <c r="A873" s="10"/>
       <c r="B873" s="10"/>
       <c r="C873" s="10"/>
@@ -17219,7 +17328,7 @@
       <c r="P873" s="10"/>
       <c r="Q873" s="10"/>
     </row>
-    <row r="874" ht="13.5" customHeight="1">
+    <row r="874">
       <c r="A874" s="10"/>
       <c r="B874" s="10"/>
       <c r="C874" s="10"/>
@@ -17238,7 +17347,7 @@
       <c r="P874" s="10"/>
       <c r="Q874" s="10"/>
     </row>
-    <row r="875" ht="13.5" customHeight="1">
+    <row r="875">
       <c r="A875" s="10"/>
       <c r="B875" s="10"/>
       <c r="C875" s="10"/>
@@ -17257,7 +17366,7 @@
       <c r="P875" s="10"/>
       <c r="Q875" s="10"/>
     </row>
-    <row r="876" ht="13.5" customHeight="1">
+    <row r="876">
       <c r="A876" s="10"/>
       <c r="B876" s="10"/>
       <c r="C876" s="10"/>
@@ -17276,7 +17385,7 @@
       <c r="P876" s="10"/>
       <c r="Q876" s="10"/>
     </row>
-    <row r="877" ht="13.5" customHeight="1">
+    <row r="877">
       <c r="A877" s="10"/>
       <c r="B877" s="10"/>
       <c r="C877" s="10"/>
@@ -17295,7 +17404,7 @@
       <c r="P877" s="10"/>
       <c r="Q877" s="10"/>
     </row>
-    <row r="878" ht="13.5" customHeight="1">
+    <row r="878">
       <c r="A878" s="10"/>
       <c r="B878" s="10"/>
       <c r="C878" s="10"/>
@@ -17314,7 +17423,7 @@
       <c r="P878" s="10"/>
       <c r="Q878" s="10"/>
     </row>
-    <row r="879" ht="13.5" customHeight="1">
+    <row r="879">
       <c r="A879" s="10"/>
       <c r="B879" s="10"/>
       <c r="C879" s="10"/>
@@ -17333,7 +17442,7 @@
       <c r="P879" s="10"/>
       <c r="Q879" s="10"/>
     </row>
-    <row r="880" ht="13.5" customHeight="1">
+    <row r="880">
       <c r="A880" s="10"/>
       <c r="B880" s="10"/>
       <c r="C880" s="10"/>
@@ -17352,7 +17461,7 @@
       <c r="P880" s="10"/>
       <c r="Q880" s="10"/>
     </row>
-    <row r="881" ht="13.5" customHeight="1">
+    <row r="881">
       <c r="A881" s="10"/>
       <c r="B881" s="10"/>
       <c r="C881" s="10"/>
@@ -17371,7 +17480,7 @@
       <c r="P881" s="10"/>
       <c r="Q881" s="10"/>
     </row>
-    <row r="882" ht="13.5" customHeight="1">
+    <row r="882">
       <c r="A882" s="10"/>
       <c r="B882" s="10"/>
       <c r="C882" s="10"/>
@@ -17390,7 +17499,7 @@
       <c r="P882" s="10"/>
       <c r="Q882" s="10"/>
     </row>
-    <row r="883" ht="13.5" customHeight="1">
+    <row r="883">
       <c r="A883" s="10"/>
       <c r="B883" s="10"/>
       <c r="C883" s="10"/>
@@ -17409,7 +17518,7 @@
       <c r="P883" s="10"/>
       <c r="Q883" s="10"/>
     </row>
-    <row r="884" ht="13.5" customHeight="1">
+    <row r="884">
       <c r="A884" s="10"/>
       <c r="B884" s="10"/>
       <c r="C884" s="10"/>
@@ -17428,7 +17537,7 @@
       <c r="P884" s="10"/>
       <c r="Q884" s="10"/>
     </row>
-    <row r="885" ht="13.5" customHeight="1">
+    <row r="885">
       <c r="A885" s="10"/>
       <c r="B885" s="10"/>
       <c r="C885" s="10"/>
@@ -17447,7 +17556,7 @@
       <c r="P885" s="10"/>
       <c r="Q885" s="10"/>
     </row>
-    <row r="886" ht="13.5" customHeight="1">
+    <row r="886">
       <c r="A886" s="10"/>
       <c r="B886" s="10"/>
       <c r="C886" s="10"/>
@@ -17466,7 +17575,7 @@
       <c r="P886" s="10"/>
       <c r="Q886" s="10"/>
     </row>
-    <row r="887" ht="13.5" customHeight="1">
+    <row r="887">
       <c r="A887" s="10"/>
       <c r="B887" s="10"/>
       <c r="C887" s="10"/>
@@ -17485,7 +17594,7 @@
       <c r="P887" s="10"/>
       <c r="Q887" s="10"/>
     </row>
-    <row r="888" ht="13.5" customHeight="1">
+    <row r="888">
       <c r="A888" s="10"/>
       <c r="B888" s="10"/>
       <c r="C888" s="10"/>
@@ -17504,7 +17613,7 @@
       <c r="P888" s="10"/>
       <c r="Q888" s="10"/>
     </row>
-    <row r="889" ht="13.5" customHeight="1">
+    <row r="889">
       <c r="A889" s="10"/>
       <c r="B889" s="10"/>
       <c r="C889" s="10"/>
@@ -17523,7 +17632,7 @@
       <c r="P889" s="10"/>
       <c r="Q889" s="10"/>
     </row>
-    <row r="890" ht="13.5" customHeight="1">
+    <row r="890">
       <c r="A890" s="10"/>
       <c r="B890" s="10"/>
       <c r="C890" s="10"/>
@@ -17542,7 +17651,7 @@
       <c r="P890" s="10"/>
       <c r="Q890" s="10"/>
     </row>
-    <row r="891" ht="13.5" customHeight="1">
+    <row r="891">
       <c r="A891" s="10"/>
       <c r="B891" s="10"/>
       <c r="C891" s="10"/>
@@ -17561,7 +17670,7 @@
       <c r="P891" s="10"/>
       <c r="Q891" s="10"/>
     </row>
-    <row r="892" ht="13.5" customHeight="1">
+    <row r="892">
       <c r="A892" s="10"/>
       <c r="B892" s="10"/>
       <c r="C892" s="10"/>
@@ -17580,7 +17689,7 @@
       <c r="P892" s="10"/>
       <c r="Q892" s="10"/>
     </row>
-    <row r="893" ht="13.5" customHeight="1">
+    <row r="893">
       <c r="A893" s="10"/>
       <c r="B893" s="10"/>
       <c r="C893" s="10"/>
@@ -17599,7 +17708,7 @@
       <c r="P893" s="10"/>
       <c r="Q893" s="10"/>
     </row>
-    <row r="894" ht="13.5" customHeight="1">
+    <row r="894">
       <c r="A894" s="10"/>
       <c r="B894" s="10"/>
       <c r="C894" s="10"/>
@@ -17618,7 +17727,7 @@
       <c r="P894" s="10"/>
       <c r="Q894" s="10"/>
     </row>
-    <row r="895" ht="13.5" customHeight="1">
+    <row r="895">
       <c r="A895" s="10"/>
       <c r="B895" s="10"/>
       <c r="C895" s="10"/>
@@ -17637,7 +17746,7 @@
       <c r="P895" s="10"/>
       <c r="Q895" s="10"/>
     </row>
-    <row r="896" ht="13.5" customHeight="1">
+    <row r="896">
       <c r="A896" s="10"/>
       <c r="B896" s="10"/>
       <c r="C896" s="10"/>
@@ -17656,7 +17765,7 @@
       <c r="P896" s="10"/>
       <c r="Q896" s="10"/>
     </row>
-    <row r="897" ht="13.5" customHeight="1">
+    <row r="897">
       <c r="A897" s="10"/>
       <c r="B897" s="10"/>
       <c r="C897" s="10"/>
@@ -17675,7 +17784,7 @@
       <c r="P897" s="10"/>
       <c r="Q897" s="10"/>
     </row>
-    <row r="898" ht="13.5" customHeight="1">
+    <row r="898">
       <c r="A898" s="10"/>
       <c r="B898" s="10"/>
       <c r="C898" s="10"/>
@@ -17694,7 +17803,7 @@
       <c r="P898" s="10"/>
       <c r="Q898" s="10"/>
     </row>
-    <row r="899" ht="13.5" customHeight="1">
+    <row r="899">
       <c r="A899" s="10"/>
       <c r="B899" s="10"/>
       <c r="C899" s="10"/>
@@ -17713,7 +17822,7 @@
       <c r="P899" s="10"/>
       <c r="Q899" s="10"/>
     </row>
-    <row r="900" ht="13.5" customHeight="1">
+    <row r="900">
       <c r="A900" s="10"/>
       <c r="B900" s="10"/>
       <c r="C900" s="10"/>
@@ -17732,7 +17841,7 @@
       <c r="P900" s="10"/>
       <c r="Q900" s="10"/>
     </row>
-    <row r="901" ht="13.5" customHeight="1">
+    <row r="901">
       <c r="A901" s="10"/>
       <c r="B901" s="10"/>
       <c r="C901" s="10"/>
@@ -17751,7 +17860,7 @@
       <c r="P901" s="10"/>
       <c r="Q901" s="10"/>
     </row>
-    <row r="902" ht="13.5" customHeight="1">
+    <row r="902">
       <c r="A902" s="10"/>
       <c r="B902" s="10"/>
       <c r="C902" s="10"/>
@@ -17770,7 +17879,7 @@
       <c r="P902" s="10"/>
       <c r="Q902" s="10"/>
     </row>
-    <row r="903" ht="13.5" customHeight="1">
+    <row r="903">
       <c r="A903" s="10"/>
       <c r="B903" s="10"/>
       <c r="C903" s="10"/>
@@ -17789,7 +17898,7 @@
       <c r="P903" s="10"/>
       <c r="Q903" s="10"/>
     </row>
-    <row r="904" ht="13.5" customHeight="1">
+    <row r="904">
       <c r="A904" s="10"/>
       <c r="B904" s="10"/>
       <c r="C904" s="10"/>
@@ -17808,7 +17917,7 @@
       <c r="P904" s="10"/>
       <c r="Q904" s="10"/>
     </row>
-    <row r="905" ht="13.5" customHeight="1">
+    <row r="905">
       <c r="A905" s="10"/>
       <c r="B905" s="10"/>
       <c r="C905" s="10"/>
@@ -17827,7 +17936,7 @@
       <c r="P905" s="10"/>
       <c r="Q905" s="10"/>
     </row>
-    <row r="906" ht="13.5" customHeight="1">
+    <row r="906">
       <c r="A906" s="10"/>
       <c r="B906" s="10"/>
       <c r="C906" s="10"/>
@@ -17846,7 +17955,7 @@
       <c r="P906" s="10"/>
       <c r="Q906" s="10"/>
     </row>
-    <row r="907" ht="13.5" customHeight="1">
+    <row r="907">
       <c r="A907" s="10"/>
       <c r="B907" s="10"/>
       <c r="C907" s="10"/>
@@ -17865,7 +17974,7 @@
       <c r="P907" s="10"/>
       <c r="Q907" s="10"/>
     </row>
-    <row r="908" ht="13.5" customHeight="1">
+    <row r="908">
       <c r="A908" s="10"/>
       <c r="B908" s="10"/>
       <c r="C908" s="10"/>
@@ -17884,7 +17993,7 @@
       <c r="P908" s="10"/>
       <c r="Q908" s="10"/>
     </row>
-    <row r="909" ht="13.5" customHeight="1">
+    <row r="909">
       <c r="A909" s="10"/>
       <c r="B909" s="10"/>
       <c r="C909" s="10"/>
@@ -17903,7 +18012,7 @@
       <c r="P909" s="10"/>
       <c r="Q909" s="10"/>
     </row>
-    <row r="910" ht="13.5" customHeight="1">
+    <row r="910">
       <c r="A910" s="10"/>
       <c r="B910" s="10"/>
       <c r="C910" s="10"/>
@@ -17922,7 +18031,7 @@
       <c r="P910" s="10"/>
       <c r="Q910" s="10"/>
     </row>
-    <row r="911" ht="13.5" customHeight="1">
+    <row r="911">
       <c r="A911" s="10"/>
       <c r="B911" s="10"/>
       <c r="C911" s="10"/>
@@ -17941,7 +18050,7 @@
       <c r="P911" s="10"/>
       <c r="Q911" s="10"/>
     </row>
-    <row r="912" ht="13.5" customHeight="1">
+    <row r="912">
       <c r="A912" s="10"/>
       <c r="B912" s="10"/>
       <c r="C912" s="10"/>
@@ -17960,7 +18069,7 @@
       <c r="P912" s="10"/>
       <c r="Q912" s="10"/>
     </row>
-    <row r="913" ht="13.5" customHeight="1">
+    <row r="913">
       <c r="A913" s="10"/>
       <c r="B913" s="10"/>
       <c r="C913" s="10"/>
@@ -17979,7 +18088,7 @@
       <c r="P913" s="10"/>
       <c r="Q913" s="10"/>
     </row>
-    <row r="914" ht="13.5" customHeight="1">
+    <row r="914">
       <c r="A914" s="10"/>
       <c r="B914" s="10"/>
       <c r="C914" s="10"/>
@@ -17998,7 +18107,7 @@
       <c r="P914" s="10"/>
       <c r="Q914" s="10"/>
     </row>
-    <row r="915" ht="13.5" customHeight="1">
+    <row r="915">
       <c r="A915" s="10"/>
       <c r="B915" s="10"/>
       <c r="C915" s="10"/>
@@ -18017,7 +18126,7 @@
       <c r="P915" s="10"/>
       <c r="Q915" s="10"/>
     </row>
-    <row r="916" ht="13.5" customHeight="1">
+    <row r="916">
       <c r="A916" s="10"/>
       <c r="B916" s="10"/>
       <c r="C916" s="10"/>
@@ -18036,7 +18145,7 @@
       <c r="P916" s="10"/>
       <c r="Q916" s="10"/>
     </row>
-    <row r="917" ht="13.5" customHeight="1">
+    <row r="917">
       <c r="A917" s="10"/>
       <c r="B917" s="10"/>
       <c r="C917" s="10"/>
@@ -18055,7 +18164,7 @@
       <c r="P917" s="10"/>
       <c r="Q917" s="10"/>
     </row>
-    <row r="918" ht="13.5" customHeight="1">
+    <row r="918">
       <c r="A918" s="10"/>
       <c r="B918" s="10"/>
       <c r="C918" s="10"/>
@@ -18074,7 +18183,7 @@
       <c r="P918" s="10"/>
       <c r="Q918" s="10"/>
     </row>
-    <row r="919" ht="13.5" customHeight="1">
+    <row r="919">
       <c r="A919" s="10"/>
       <c r="B919" s="10"/>
       <c r="C919" s="10"/>
@@ -18093,7 +18202,7 @@
       <c r="P919" s="10"/>
       <c r="Q919" s="10"/>
     </row>
-    <row r="920" ht="13.5" customHeight="1">
+    <row r="920">
       <c r="A920" s="10"/>
       <c r="B920" s="10"/>
       <c r="C920" s="10"/>
@@ -18112,7 +18221,7 @@
       <c r="P920" s="10"/>
       <c r="Q920" s="10"/>
     </row>
-    <row r="921" ht="13.5" customHeight="1">
+    <row r="921">
       <c r="A921" s="10"/>
       <c r="B921" s="10"/>
       <c r="C921" s="10"/>
@@ -18131,7 +18240,7 @@
       <c r="P921" s="10"/>
       <c r="Q921" s="10"/>
     </row>
-    <row r="922" ht="13.5" customHeight="1">
+    <row r="922">
       <c r="A922" s="10"/>
       <c r="B922" s="10"/>
       <c r="C922" s="10"/>
@@ -18150,7 +18259,7 @@
       <c r="P922" s="10"/>
       <c r="Q922" s="10"/>
     </row>
-    <row r="923" ht="13.5" customHeight="1">
+    <row r="923">
       <c r="A923" s="10"/>
       <c r="B923" s="10"/>
       <c r="C923" s="10"/>
@@ -18169,7 +18278,7 @@
       <c r="P923" s="10"/>
       <c r="Q923" s="10"/>
     </row>
-    <row r="924" ht="13.5" customHeight="1">
+    <row r="924">
       <c r="A924" s="10"/>
       <c r="B924" s="10"/>
       <c r="C924" s="10"/>
@@ -18188,7 +18297,7 @@
       <c r="P924" s="10"/>
       <c r="Q924" s="10"/>
     </row>
-    <row r="925" ht="13.5" customHeight="1">
+    <row r="925">
       <c r="A925" s="10"/>
       <c r="B925" s="10"/>
       <c r="C925" s="10"/>
@@ -18207,7 +18316,7 @@
       <c r="P925" s="10"/>
       <c r="Q925" s="10"/>
     </row>
-    <row r="926" ht="13.5" customHeight="1">
+    <row r="926">
       <c r="A926" s="10"/>
       <c r="B926" s="10"/>
       <c r="C926" s="10"/>
@@ -18226,7 +18335,7 @@
       <c r="P926" s="10"/>
       <c r="Q926" s="10"/>
     </row>
-    <row r="927" ht="13.5" customHeight="1">
+    <row r="927">
       <c r="A927" s="10"/>
       <c r="B927" s="10"/>
       <c r="C927" s="10"/>
@@ -18245,7 +18354,7 @@
       <c r="P927" s="10"/>
       <c r="Q927" s="10"/>
     </row>
-    <row r="928" ht="13.5" customHeight="1">
+    <row r="928">
       <c r="A928" s="10"/>
       <c r="B928" s="10"/>
       <c r="C928" s="10"/>
@@ -18264,7 +18373,7 @@
       <c r="P928" s="10"/>
       <c r="Q928" s="10"/>
     </row>
-    <row r="929" ht="13.5" customHeight="1">
+    <row r="929">
       <c r="A929" s="10"/>
       <c r="B929" s="10"/>
       <c r="C929" s="10"/>
@@ -18283,7 +18392,7 @@
       <c r="P929" s="10"/>
       <c r="Q929" s="10"/>
     </row>
-    <row r="930" ht="13.5" customHeight="1">
+    <row r="930">
       <c r="A930" s="10"/>
       <c r="B930" s="10"/>
       <c r="C930" s="10"/>
@@ -18302,7 +18411,7 @@
       <c r="P930" s="10"/>
       <c r="Q930" s="10"/>
     </row>
-    <row r="931" ht="13.5" customHeight="1">
+    <row r="931">
       <c r="A931" s="10"/>
       <c r="B931" s="10"/>
       <c r="C931" s="10"/>
@@ -18321,7 +18430,7 @@
       <c r="P931" s="10"/>
       <c r="Q931" s="10"/>
     </row>
-    <row r="932" ht="13.5" customHeight="1">
+    <row r="932">
       <c r="A932" s="10"/>
       <c r="B932" s="10"/>
       <c r="C932" s="10"/>
@@ -18340,7 +18449,7 @@
       <c r="P932" s="10"/>
       <c r="Q932" s="10"/>
     </row>
-    <row r="933" ht="13.5" customHeight="1">
+    <row r="933">
       <c r="A933" s="10"/>
       <c r="B933" s="10"/>
       <c r="C933" s="10"/>
@@ -18359,7 +18468,7 @@
       <c r="P933" s="10"/>
       <c r="Q933" s="10"/>
     </row>
-    <row r="934" ht="13.5" customHeight="1">
+    <row r="934">
       <c r="A934" s="10"/>
       <c r="B934" s="10"/>
       <c r="C934" s="10"/>
@@ -18378,7 +18487,7 @@
       <c r="P934" s="10"/>
       <c r="Q934" s="10"/>
     </row>
-    <row r="935" ht="13.5" customHeight="1">
+    <row r="935">
       <c r="A935" s="10"/>
       <c r="B935" s="10"/>
       <c r="C935" s="10"/>
@@ -18397,7 +18506,7 @@
       <c r="P935" s="10"/>
       <c r="Q935" s="10"/>
     </row>
-    <row r="936" ht="13.5" customHeight="1">
+    <row r="936">
       <c r="A936" s="10"/>
       <c r="B936" s="10"/>
       <c r="C936" s="10"/>
@@ -18416,7 +18525,7 @@
       <c r="P936" s="10"/>
       <c r="Q936" s="10"/>
     </row>
-    <row r="937" ht="13.5" customHeight="1">
+    <row r="937">
       <c r="A937" s="10"/>
       <c r="B937" s="10"/>
       <c r="C937" s="10"/>
@@ -18435,7 +18544,7 @@
       <c r="P937" s="10"/>
       <c r="Q937" s="10"/>
     </row>
-    <row r="938" ht="13.5" customHeight="1">
+    <row r="938">
       <c r="A938" s="10"/>
       <c r="B938" s="10"/>
       <c r="C938" s="10"/>
@@ -18454,7 +18563,7 @@
       <c r="P938" s="10"/>
       <c r="Q938" s="10"/>
     </row>
-    <row r="939" ht="13.5" customHeight="1">
+    <row r="939">
       <c r="A939" s="10"/>
       <c r="B939" s="10"/>
       <c r="C939" s="10"/>
@@ -18473,7 +18582,7 @@
       <c r="P939" s="10"/>
       <c r="Q939" s="10"/>
     </row>
-    <row r="940" ht="13.5" customHeight="1">
+    <row r="940">
       <c r="A940" s="10"/>
       <c r="B940" s="10"/>
       <c r="C940" s="10"/>
@@ -18492,7 +18601,7 @@
       <c r="P940" s="10"/>
       <c r="Q940" s="10"/>
     </row>
-    <row r="941" ht="13.5" customHeight="1">
+    <row r="941">
       <c r="A941" s="10"/>
       <c r="B941" s="10"/>
       <c r="C941" s="10"/>
@@ -18511,7 +18620,7 @@
       <c r="P941" s="10"/>
       <c r="Q941" s="10"/>
     </row>
-    <row r="942" ht="13.5" customHeight="1">
+    <row r="942">
       <c r="A942" s="10"/>
       <c r="B942" s="10"/>
       <c r="C942" s="10"/>
@@ -18530,7 +18639,7 @@
       <c r="P942" s="10"/>
       <c r="Q942" s="10"/>
     </row>
-    <row r="943" ht="13.5" customHeight="1">
+    <row r="943">
       <c r="A943" s="10"/>
       <c r="B943" s="10"/>
       <c r="C943" s="10"/>
@@ -18549,7 +18658,7 @@
       <c r="P943" s="10"/>
       <c r="Q943" s="10"/>
     </row>
-    <row r="944" ht="13.5" customHeight="1">
+    <row r="944">
       <c r="A944" s="10"/>
       <c r="B944" s="10"/>
       <c r="C944" s="10"/>
@@ -18568,7 +18677,7 @@
       <c r="P944" s="10"/>
       <c r="Q944" s="10"/>
     </row>
-    <row r="945" ht="13.5" customHeight="1">
+    <row r="945">
       <c r="A945" s="10"/>
       <c r="B945" s="10"/>
       <c r="C945" s="10"/>
@@ -18587,7 +18696,7 @@
       <c r="P945" s="10"/>
       <c r="Q945" s="10"/>
     </row>
-    <row r="946" ht="13.5" customHeight="1">
+    <row r="946">
       <c r="A946" s="10"/>
       <c r="B946" s="10"/>
       <c r="C946" s="10"/>
@@ -18606,7 +18715,7 @@
       <c r="P946" s="10"/>
       <c r="Q946" s="10"/>
     </row>
-    <row r="947" ht="13.5" customHeight="1">
+    <row r="947">
       <c r="A947" s="10"/>
       <c r="B947" s="10"/>
       <c r="C947" s="10"/>
@@ -18625,7 +18734,7 @@
       <c r="P947" s="10"/>
       <c r="Q947" s="10"/>
     </row>
-    <row r="948" ht="13.5" customHeight="1">
+    <row r="948">
       <c r="A948" s="10"/>
       <c r="B948" s="10"/>
       <c r="C948" s="10"/>
@@ -18644,7 +18753,7 @@
       <c r="P948" s="10"/>
       <c r="Q948" s="10"/>
     </row>
-    <row r="949" ht="13.5" customHeight="1">
+    <row r="949">
       <c r="A949" s="10"/>
       <c r="B949" s="10"/>
       <c r="C949" s="10"/>
@@ -18663,7 +18772,7 @@
       <c r="P949" s="10"/>
       <c r="Q949" s="10"/>
     </row>
-    <row r="950" ht="13.5" customHeight="1">
+    <row r="950">
       <c r="A950" s="10"/>
       <c r="B950" s="10"/>
       <c r="C950" s="10"/>
@@ -18682,7 +18791,7 @@
       <c r="P950" s="10"/>
       <c r="Q950" s="10"/>
     </row>
-    <row r="951" ht="13.5" customHeight="1">
+    <row r="951">
       <c r="A951" s="10"/>
       <c r="B951" s="10"/>
       <c r="C951" s="10"/>
@@ -18701,7 +18810,7 @@
       <c r="P951" s="10"/>
       <c r="Q951" s="10"/>
     </row>
-    <row r="952" ht="13.5" customHeight="1">
+    <row r="952">
       <c r="A952" s="10"/>
       <c r="B952" s="10"/>
       <c r="C952" s="10"/>
@@ -18720,7 +18829,7 @@
       <c r="P952" s="10"/>
       <c r="Q952" s="10"/>
     </row>
-    <row r="953" ht="13.5" customHeight="1">
+    <row r="953">
       <c r="A953" s="10"/>
       <c r="B953" s="10"/>
       <c r="C953" s="10"/>
@@ -18739,7 +18848,7 @@
       <c r="P953" s="10"/>
       <c r="Q953" s="10"/>
     </row>
-    <row r="954" ht="13.5" customHeight="1">
+    <row r="954">
       <c r="A954" s="10"/>
       <c r="B954" s="10"/>
       <c r="C954" s="10"/>
@@ -18758,7 +18867,7 @@
       <c r="P954" s="10"/>
       <c r="Q954" s="10"/>
     </row>
-    <row r="955" ht="13.5" customHeight="1">
+    <row r="955">
       <c r="A955" s="10"/>
       <c r="B955" s="10"/>
       <c r="C955" s="10"/>
@@ -18777,7 +18886,7 @@
       <c r="P955" s="10"/>
       <c r="Q955" s="10"/>
     </row>
-    <row r="956" ht="13.5" customHeight="1">
+    <row r="956">
       <c r="A956" s="10"/>
       <c r="B956" s="10"/>
       <c r="C956" s="10"/>
@@ -18796,7 +18905,7 @@
       <c r="P956" s="10"/>
       <c r="Q956" s="10"/>
     </row>
-    <row r="957" ht="13.5" customHeight="1">
+    <row r="957">
       <c r="A957" s="10"/>
       <c r="B957" s="10"/>
       <c r="C957" s="10"/>
@@ -18815,7 +18924,7 @@
       <c r="P957" s="10"/>
       <c r="Q957" s="10"/>
     </row>
-    <row r="958" ht="13.5" customHeight="1">
+    <row r="958">
       <c r="A958" s="10"/>
       <c r="B958" s="10"/>
       <c r="C958" s="10"/>
@@ -18834,7 +18943,7 @@
       <c r="P958" s="10"/>
       <c r="Q958" s="10"/>
     </row>
-    <row r="959" ht="13.5" customHeight="1">
+    <row r="959">
       <c r="A959" s="10"/>
       <c r="B959" s="10"/>
       <c r="C959" s="10"/>
@@ -18853,7 +18962,7 @@
       <c r="P959" s="10"/>
       <c r="Q959" s="10"/>
     </row>
-    <row r="960" ht="13.5" customHeight="1">
+    <row r="960">
       <c r="A960" s="10"/>
       <c r="B960" s="10"/>
       <c r="C960" s="10"/>
@@ -18872,7 +18981,7 @@
       <c r="P960" s="10"/>
       <c r="Q960" s="10"/>
     </row>
-    <row r="961" ht="13.5" customHeight="1">
+    <row r="961">
       <c r="A961" s="10"/>
       <c r="B961" s="10"/>
       <c r="C961" s="10"/>
@@ -18891,7 +19000,7 @@
       <c r="P961" s="10"/>
       <c r="Q961" s="10"/>
     </row>
-    <row r="962" ht="13.5" customHeight="1">
+    <row r="962">
       <c r="A962" s="10"/>
       <c r="B962" s="10"/>
       <c r="C962" s="10"/>
@@ -18910,7 +19019,7 @@
       <c r="P962" s="10"/>
       <c r="Q962" s="10"/>
     </row>
-    <row r="963" ht="13.5" customHeight="1">
+    <row r="963">
       <c r="A963" s="10"/>
       <c r="B963" s="10"/>
       <c r="C963" s="10"/>
@@ -18929,7 +19038,7 @@
       <c r="P963" s="10"/>
       <c r="Q963" s="10"/>
     </row>
-    <row r="964" ht="13.5" customHeight="1">
+    <row r="964">
       <c r="A964" s="10"/>
       <c r="B964" s="10"/>
       <c r="C964" s="10"/>
@@ -18948,7 +19057,7 @@
       <c r="P964" s="10"/>
       <c r="Q964" s="10"/>
     </row>
-    <row r="965" ht="13.5" customHeight="1">
+    <row r="965">
       <c r="A965" s="10"/>
       <c r="B965" s="10"/>
       <c r="C965" s="10"/>
@@ -18967,7 +19076,7 @@
       <c r="P965" s="10"/>
       <c r="Q965" s="10"/>
     </row>
-    <row r="966" ht="13.5" customHeight="1">
+    <row r="966">
       <c r="A966" s="10"/>
       <c r="B966" s="10"/>
       <c r="C966" s="10"/>
@@ -18986,7 +19095,7 @@
       <c r="P966" s="10"/>
       <c r="Q966" s="10"/>
     </row>
-    <row r="967" ht="13.5" customHeight="1">
+    <row r="967">
       <c r="A967" s="10"/>
       <c r="B967" s="10"/>
       <c r="C967" s="10"/>
@@ -19005,7 +19114,7 @@
       <c r="P967" s="10"/>
       <c r="Q967" s="10"/>
     </row>
-    <row r="968" ht="13.5" customHeight="1">
+    <row r="968">
       <c r="A968" s="10"/>
       <c r="B968" s="10"/>
       <c r="C968" s="10"/>
@@ -19024,7 +19133,7 @@
       <c r="P968" s="10"/>
       <c r="Q968" s="10"/>
     </row>
-    <row r="969" ht="13.5" customHeight="1">
+    <row r="969">
       <c r="A969" s="10"/>
       <c r="B969" s="10"/>
       <c r="C969" s="10"/>
@@ -19043,7 +19152,7 @@
       <c r="P969" s="10"/>
       <c r="Q969" s="10"/>
     </row>
-    <row r="970" ht="13.5" customHeight="1">
+    <row r="970">
       <c r="A970" s="10"/>
       <c r="B970" s="10"/>
       <c r="C970" s="10"/>
@@ -19062,7 +19171,7 @@
       <c r="P970" s="10"/>
       <c r="Q970" s="10"/>
     </row>
-    <row r="971" ht="13.5" customHeight="1">
+    <row r="971">
       <c r="A971" s="10"/>
       <c r="B971" s="10"/>
       <c r="C971" s="10"/>
@@ -19081,7 +19190,7 @@
       <c r="P971" s="10"/>
       <c r="Q971" s="10"/>
     </row>
-    <row r="972" ht="13.5" customHeight="1">
+    <row r="972">
       <c r="A972" s="10"/>
       <c r="B972" s="10"/>
       <c r="C972" s="10"/>
@@ -19100,7 +19209,7 @@
       <c r="P972" s="10"/>
       <c r="Q972" s="10"/>
     </row>
-    <row r="973" ht="13.5" customHeight="1">
+    <row r="973">
       <c r="A973" s="10"/>
       <c r="B973" s="10"/>
       <c r="C973" s="10"/>
@@ -19119,7 +19228,7 @@
       <c r="P973" s="10"/>
       <c r="Q973" s="10"/>
     </row>
-    <row r="974" ht="13.5" customHeight="1">
+    <row r="974">
       <c r="A974" s="10"/>
       <c r="B974" s="10"/>
       <c r="C974" s="10"/>
@@ -19138,7 +19247,7 @@
       <c r="P974" s="10"/>
       <c r="Q974" s="10"/>
     </row>
-    <row r="975" ht="13.5" customHeight="1">
+    <row r="975">
       <c r="A975" s="10"/>
       <c r="B975" s="10"/>
       <c r="C975" s="10"/>
@@ -19157,7 +19266,7 @@
       <c r="P975" s="10"/>
       <c r="Q975" s="10"/>
     </row>
-    <row r="976" ht="13.5" customHeight="1">
+    <row r="976">
       <c r="A976" s="10"/>
       <c r="B976" s="10"/>
       <c r="C976" s="10"/>
@@ -19176,7 +19285,7 @@
       <c r="P976" s="10"/>
       <c r="Q976" s="10"/>
     </row>
-    <row r="977" ht="13.5" customHeight="1">
+    <row r="977">
       <c r="A977" s="10"/>
       <c r="B977" s="10"/>
       <c r="C977" s="10"/>
@@ -19195,7 +19304,7 @@
       <c r="P977" s="10"/>
       <c r="Q977" s="10"/>
     </row>
-    <row r="978" ht="13.5" customHeight="1">
+    <row r="978">
       <c r="A978" s="10"/>
       <c r="B978" s="10"/>
       <c r="C978" s="10"/>
@@ -19214,7 +19323,7 @@
       <c r="P978" s="10"/>
       <c r="Q978" s="10"/>
     </row>
-    <row r="979" ht="13.5" customHeight="1">
+    <row r="979">
       <c r="A979" s="10"/>
       <c r="B979" s="10"/>
       <c r="C979" s="10"/>
@@ -19233,7 +19342,7 @@
       <c r="P979" s="10"/>
       <c r="Q979" s="10"/>
     </row>
-    <row r="980" ht="13.5" customHeight="1">
+    <row r="980">
       <c r="A980" s="10"/>
       <c r="B980" s="10"/>
       <c r="C980" s="10"/>
@@ -19252,7 +19361,7 @@
       <c r="P980" s="10"/>
       <c r="Q980" s="10"/>
     </row>
-    <row r="981" ht="13.5" customHeight="1">
+    <row r="981">
       <c r="A981" s="10"/>
       <c r="B981" s="10"/>
       <c r="C981" s="10"/>
@@ -19271,7 +19380,7 @@
       <c r="P981" s="10"/>
       <c r="Q981" s="10"/>
     </row>
-    <row r="982" ht="13.5" customHeight="1">
+    <row r="982">
       <c r="A982" s="10"/>
       <c r="B982" s="10"/>
       <c r="C982" s="10"/>
@@ -19290,7 +19399,7 @@
       <c r="P982" s="10"/>
       <c r="Q982" s="10"/>
     </row>
-    <row r="983" ht="13.5" customHeight="1">
+    <row r="983">
       <c r="A983" s="10"/>
       <c r="B983" s="10"/>
       <c r="C983" s="10"/>
@@ -19309,7 +19418,7 @@
       <c r="P983" s="10"/>
       <c r="Q983" s="10"/>
     </row>
-    <row r="984" ht="13.5" customHeight="1">
+    <row r="984">
       <c r="A984" s="10"/>
       <c r="B984" s="10"/>
       <c r="C984" s="10"/>
@@ -19328,7 +19437,7 @@
       <c r="P984" s="10"/>
       <c r="Q984" s="10"/>
     </row>
-    <row r="985" ht="13.5" customHeight="1">
+    <row r="985">
       <c r="A985" s="10"/>
       <c r="B985" s="10"/>
       <c r="C985" s="10"/>
@@ -19347,7 +19456,7 @@
       <c r="P985" s="10"/>
       <c r="Q985" s="10"/>
     </row>
-    <row r="986" ht="13.5" customHeight="1">
+    <row r="986">
       <c r="A986" s="10"/>
       <c r="B986" s="10"/>
       <c r="C986" s="10"/>
@@ -19366,7 +19475,7 @@
       <c r="P986" s="10"/>
       <c r="Q986" s="10"/>
     </row>
-    <row r="987" ht="13.5" customHeight="1">
+    <row r="987">
       <c r="A987" s="10"/>
       <c r="B987" s="10"/>
       <c r="C987" s="10"/>
@@ -19385,7 +19494,7 @@
       <c r="P987" s="10"/>
       <c r="Q987" s="10"/>
     </row>
-    <row r="988" ht="13.5" customHeight="1">
+    <row r="988">
       <c r="A988" s="10"/>
       <c r="B988" s="10"/>
       <c r="C988" s="10"/>
@@ -19404,7 +19513,7 @@
       <c r="P988" s="10"/>
       <c r="Q988" s="10"/>
     </row>
-    <row r="989" ht="13.5" customHeight="1">
+    <row r="989">
       <c r="A989" s="10"/>
       <c r="B989" s="10"/>
       <c r="C989" s="10"/>
@@ -19423,7 +19532,7 @@
       <c r="P989" s="10"/>
       <c r="Q989" s="10"/>
     </row>
-    <row r="990" ht="13.5" customHeight="1">
+    <row r="990">
       <c r="A990" s="10"/>
       <c r="B990" s="10"/>
       <c r="C990" s="10"/>
@@ -19442,7 +19551,7 @@
       <c r="P990" s="10"/>
       <c r="Q990" s="10"/>
     </row>
-    <row r="991" ht="13.5" customHeight="1">
+    <row r="991">
       <c r="A991" s="10"/>
       <c r="B991" s="10"/>
       <c r="C991" s="10"/>
@@ -19461,7 +19570,7 @@
       <c r="P991" s="10"/>
       <c r="Q991" s="10"/>
     </row>
-    <row r="992" ht="13.5" customHeight="1">
+    <row r="992">
       <c r="A992" s="10"/>
       <c r="B992" s="10"/>
       <c r="C992" s="10"/>
@@ -19480,7 +19589,7 @@
       <c r="P992" s="10"/>
       <c r="Q992" s="10"/>
     </row>
-    <row r="993" ht="13.5" customHeight="1">
+    <row r="993">
       <c r="A993" s="10"/>
       <c r="B993" s="10"/>
       <c r="C993" s="10"/>
@@ -19499,7 +19608,7 @@
       <c r="P993" s="10"/>
       <c r="Q993" s="10"/>
     </row>
-    <row r="994" ht="13.5" customHeight="1">
+    <row r="994">
       <c r="A994" s="10"/>
       <c r="B994" s="10"/>
       <c r="C994" s="10"/>
@@ -19518,7 +19627,7 @@
       <c r="P994" s="10"/>
       <c r="Q994" s="10"/>
     </row>
-    <row r="995" ht="13.5" customHeight="1">
+    <row r="995">
       <c r="A995" s="10"/>
       <c r="B995" s="10"/>
       <c r="C995" s="10"/>
@@ -19537,7 +19646,7 @@
       <c r="P995" s="10"/>
       <c r="Q995" s="10"/>
     </row>
-    <row r="996" ht="13.5" customHeight="1">
+    <row r="996">
       <c r="A996" s="10"/>
       <c r="B996" s="10"/>
       <c r="C996" s="10"/>
@@ -19556,7 +19665,7 @@
       <c r="P996" s="10"/>
       <c r="Q996" s="10"/>
     </row>
-    <row r="997" ht="13.5" customHeight="1">
+    <row r="997">
       <c r="A997" s="10"/>
       <c r="B997" s="10"/>
       <c r="C997" s="10"/>
@@ -19575,7 +19684,7 @@
       <c r="P997" s="10"/>
       <c r="Q997" s="10"/>
     </row>
-    <row r="998" ht="13.5" customHeight="1">
+    <row r="998">
       <c r="A998" s="10"/>
       <c r="B998" s="10"/>
       <c r="C998" s="10"/>
@@ -19594,7 +19703,7 @@
       <c r="P998" s="10"/>
       <c r="Q998" s="10"/>
     </row>
-    <row r="999" ht="13.5" customHeight="1">
+    <row r="999">
       <c r="A999" s="10"/>
       <c r="B999" s="10"/>
       <c r="C999" s="10"/>
@@ -19613,7 +19722,7 @@
       <c r="P999" s="10"/>
       <c r="Q999" s="10"/>
     </row>
-    <row r="1000" ht="13.5" customHeight="1">
+    <row r="1000">
       <c r="A1000" s="10"/>
       <c r="B1000" s="10"/>
       <c r="C1000" s="10"/>
@@ -19633,106 +19742,107 @@
       <c r="Q1000" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E55:I56"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O27:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="O33:Q34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:F25"/>
+  <mergeCells count="100">
     <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="L5:P5"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A14:Q17"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="E55:I56"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="O33:Q35"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="A14:Q17"/>
+    <mergeCell ref="O27:Q28"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="C13:P13"/>
     <mergeCell ref="N11:P11"/>
-    <mergeCell ref="C13:P13"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="D19:P19"/>
     <mergeCell ref="M29:N29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/boost/smuckers/resources/boltemplate.xlsx
+++ b/boost/smuckers/resources/boltemplate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t xml:space="preserve">(Uniform Domestic Straight Bill of Lading adopted by Carriers in Official, Southern, Western and Illinois </t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Per</t>
-  </si>
-  <si>
-    <t>(This is where the truck drivers name will go)</t>
   </si>
   <si>
     <t xml:space="preserve">Permanent post office </t>
@@ -611,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -765,7 +762,6 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
@@ -968,7 +964,7 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="18">
         <f>NOW()</f>
-        <v>42936.80173</v>
+        <v>42949.46595</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -1741,14 +1737,12 @@
         <v>58</v>
       </c>
       <c r="K53" s="16"/>
-      <c r="L53" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M53" s="16"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="4"/>
@@ -1770,11 +1764,11 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" ht="12.0" customHeight="1">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="80" t="s">
         <v>60</v>
-      </c>
-      <c r="E55" s="81" t="s">
-        <v>61</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="19"/>
@@ -1786,15 +1780,15 @@
       <c r="Q55" s="10"/>
     </row>
     <row r="56" ht="9.75" customHeight="1">
-      <c r="A56" s="80" t="s">
-        <v>62</v>
+      <c r="A56" s="79" t="s">
+        <v>61</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="82"/>
+      <c r="J56" s="81"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
       <c r="M56" s="19"/>
@@ -1808,13 +1802,13 @@
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="83" t="s">
-        <v>63</v>
+      <c r="E57" s="82" t="s">
+        <v>62</v>
       </c>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
@@ -19742,107 +19736,108 @@
       <c r="Q1000" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:Q7"/>
+  <mergeCells count="101">
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A14:Q17"/>
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="L5:P5"/>
+    <mergeCell ref="D19:P19"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="C13:P13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
     <mergeCell ref="E55:I56"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K36:L36"/>
     <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="M38:N38"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O39:Q39"/>
     <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O39:Q39"/>
     <mergeCell ref="O40:Q40"/>
     <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="O33:Q35"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="O33:Q35"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A14:Q17"/>
-    <mergeCell ref="O27:Q28"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="C13:P13"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
